--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F41DEBC-190E-4A97-A878-3CC3D0235625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,34 +113,6 @@
     <t>이름_021</t>
   </si>
   <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 002</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 003</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 004</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 005</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 006</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 007</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 008</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 009</t>
-  </si>
-  <si>
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
   </si>
   <si>
@@ -154,15 +125,6 @@
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
   </si>
   <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 014</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 015</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 016</t>
-  </si>
-  <si>
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 017</t>
   </si>
   <si>
@@ -206,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Text_001_Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BackGround/00002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,13 +177,61 @@
   </si>
   <si>
     <t>BackGround/00004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리 반갑지 않는데 왜 이곳에 있지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쎄 왜 있을까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장난 하지마라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만나서 반가워~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재미 없기는 니가 맡은 임무 나랑 합동임무거든</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거짓말 하지마!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말이야 나랑 같이 소장에게 가자구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소장 정말인가요 제가 이녀석이랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">진짜라니까 그러네 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎㅎㅎㅎㅎㅎㅎ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,11 +561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -600,10 +606,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -617,13 +623,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -635,7 +641,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -649,13 +655,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -667,7 +673,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -681,13 +687,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -699,7 +705,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -713,13 +719,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -731,7 +737,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -745,13 +751,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -763,7 +769,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -777,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -795,7 +801,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -809,13 +815,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -827,7 +833,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -835,19 +841,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -859,7 +865,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -873,13 +879,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -891,7 +897,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -905,13 +911,13 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -920,10 +926,10 @@
         <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -937,13 +943,13 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -955,7 +961,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -969,13 +975,13 @@
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -987,7 +993,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1001,13 +1007,13 @@
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1019,7 +1025,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1033,13 +1039,13 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1051,7 +1057,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1065,13 +1071,13 @@
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1083,7 +1089,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1097,13 +1103,13 @@
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1115,7 +1121,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1129,13 +1135,13 @@
         <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1147,7 +1153,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1161,13 +1167,13 @@
         <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1179,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1193,13 +1199,13 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1211,7 +1217,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1225,13 +1231,13 @@
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1243,7 +1249,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1257,13 +1263,13 @@
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1275,7 +1281,7 @@
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -565,7 +565,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -766,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="1">
-        <v>-100</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>37</v>
@@ -926,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>37</v>
@@ -1182,7 +1182,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>37</v>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,97 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름_002</t>
-  </si>
-  <si>
-    <t>이름_003</t>
-  </si>
-  <si>
-    <t>이름_004</t>
-  </si>
-  <si>
-    <t>이름_005</t>
-  </si>
-  <si>
-    <t>이름_006</t>
-  </si>
-  <si>
-    <t>이름_007</t>
-  </si>
-  <si>
-    <t>이름_008</t>
-  </si>
-  <si>
-    <t>이름_009</t>
-  </si>
-  <si>
-    <t>이름_010</t>
-  </si>
-  <si>
-    <t>이름_011</t>
-  </si>
-  <si>
-    <t>이름_012</t>
-  </si>
-  <si>
-    <t>이름_013</t>
-  </si>
-  <si>
-    <t>이름_014</t>
-  </si>
-  <si>
-    <t>이름_015</t>
-  </si>
-  <si>
-    <t>이름_016</t>
-  </si>
-  <si>
-    <t>이름_017</t>
-  </si>
-  <si>
-    <t>이름_018</t>
-  </si>
-  <si>
-    <t>이름_019</t>
-  </si>
-  <si>
-    <t>이름_020</t>
-  </si>
-  <si>
-    <t>이름_021</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 010</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 011</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 012</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 013</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 017</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 018</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 019</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 020</t>
-  </si>
-  <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 021</t>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,11 +65,145 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character/00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00002</t>
+    <t>언니~ 언니!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 일이니 앨리스?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 그만 읽고 나랑 같이 화관 만들자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리스 내가 책을 읽고 있잖아 조금만 기다리렴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부스럭 부스럭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어? 뭐지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고 늦었다 늦었어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와! 토끼가 말을 한다!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여왕님께서 화내실 꺼야 빨리 가야지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음 토끼가 어디로 갔지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾았다! 저기구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼굴 아래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아야야야 여긴 어디지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힝 심심한데….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야옹~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늦었다 늦었어 여왕님ㄲ ㅔ ㅅ. . .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음 들어가도 될까나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나랑 안 놀아주는 언니랑 말하는 토끼 흐으음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 말하는 토끼 쪽이 더 재미있어 보이니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우와 내가 얼마나 내려온거야? 여긴 정말 깊구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다시 올라가는 건 힘들어 보이네 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아아아아아아아ㅏ앙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아아아아아아악 (쾅)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저게 뭐지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Alice</t>
+  </si>
+  <si>
+    <t>Character/Alice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이애나 저 토끼를 따라가보자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>BackGround/00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Rabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(토끼가 들어간 구멍을 발견했다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 들어가 볼까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청 어둡도 좁네 아무것도 안보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여어어어어엉아아아아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,63 +211,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Character/Cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리스</t>
+  </si>
+  <si>
+    <t>앨리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리스 언니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰 토끼</t>
+  </si>
+  <si>
+    <t>흰 토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이애나(고양이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/sis</t>
+  </si>
+  <si>
+    <t>Character/sis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/sis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BackGround/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리 반갑지 않는데 왜 이곳에 있지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글쎄 왜 있을까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장난 하지마라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만나서 반가워~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재미 없기는 니가 맡은 임무 나랑 합동임무거든</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거짓말 하지마!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말이야 나랑 같이 소장에게 가자구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소장 정말인가요 제가 이녀석이랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">진짜라니까 그러네 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후후후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅎㅎㅎㅎㅎㅎㅎ</t>
+  </si>
+  <si>
+    <t>책상 위에는 물약과 쿠키상자가 보였다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어 먹어도 되는 걸까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -597,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -606,10 +641,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -617,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -641,7 +676,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -649,19 +684,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -673,7 +708,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -681,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -705,7 +740,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -713,19 +748,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -737,7 +772,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -745,19 +780,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -766,10 +801,10 @@
         <v>5</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -779,17 +814,15 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -801,7 +834,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -809,19 +842,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -833,7 +866,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -841,19 +874,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -865,7 +898,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -873,19 +906,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -897,7 +930,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -905,19 +938,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -929,7 +962,7 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -937,19 +970,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -961,7 +994,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -969,19 +1002,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -993,7 +1026,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1001,19 +1034,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1025,7 +1058,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1033,19 +1066,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1057,7 +1090,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1065,19 +1098,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1089,7 +1122,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1099,17 +1132,15 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1121,7 +1152,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1129,19 +1160,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1153,7 +1184,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1161,19 +1192,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1185,7 +1216,7 @@
         <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1193,19 +1224,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1217,7 +1248,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1225,19 +1256,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1249,7 +1280,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1257,32 +1288,448 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>23</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>26</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
         <v>27</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="I28" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>28</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>29</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>30</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>33</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>-100</v>
-      </c>
-      <c r="I22" s="1">
-        <v>-100</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="J42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1771,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D334" sqref="D334"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F187" sqref="F187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="409">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1393,6 +1393,12 @@
   <si>
     <t>어느 정원사가 감히 그랬지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_002_Scene</t>
+  </si>
+  <si>
+    <t>FlowerAttack</t>
   </si>
 </sst>
 </file>
@@ -1771,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F187" sqref="F187"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G226" sqref="G226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6367,7 +6373,7 @@
         <v>-100</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>7</v>
+        <v>407</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6715,7 +6721,7 @@
         <v>-100</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>7</v>
+        <v>408</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="467">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1206,10 +1206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그럼 지금부터 퀴즈를 내도록 하겠다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>토끼! 문제를 내거라!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1399,6 +1395,239 @@
   </si>
   <si>
     <t>FlowerAttack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">첫 번째 문제! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴과 두 손이 있지만 몸이 없는 것은 무엇인지 맞추시오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼! 다음 문제를 내!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">넵 여왕 폐하 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 두 번째 문제!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What has a neck but no head?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅈ 저 정다답입니다…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ네 위 위대하신 여왕폐하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 문제를 내거라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제는 YROTSIH이고 내일은 YRETSYM이다 그럼 오늘은 무엇인가?</t>
+  </si>
+  <si>
+    <t>ㅈ 정답입니다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답입니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 여왕폐하 제가 정답을 맞췄으니 저에게 길을 알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이곳의 모든 길은 나의 길이다!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여봐라 당장 저 소녀를 가두어라 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 만약 다 맞추지 못한 다면 너를 사형에 쳐하겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 지금부터 퀴즈를 내도록 하지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네!? 사형이요? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하지만 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 목을 잘라버려라!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 안돼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도망가야겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀가 도망간다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여왕폐하 소녀가 도망가고 있습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라? 당장 저 소녀를 잡고 내 앞에 데려와라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 애의 목을 내가 직접 자를 것이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡아라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">으아앙아아아아아 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉 헉 빨리 도망쳐야해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡았다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리스? 앨리스?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아아아ㅏㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리스!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ 언니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에휴 뭐하는 거니 앨리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 카드병정들이랑 하트 여왕이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 소리를 하는거야 앨리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 일어나 이제 집에 가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참 이상한 나라였어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 이상한 꿈인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THE END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안타깝지만 너에게 줄 길을 없다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답이 아닙니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오호호호호 답을 맞추지 못했구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">역시 못 맞출 줄 알았다! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 나라의 모든 길은 앞으로도 영원히 나의 길이다!</t>
+  </si>
+  <si>
+    <t>Text_004_Scene</t>
+  </si>
+  <si>
+    <t>Text_005_Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_006_Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 나는 너그러우니 다시 한 번 기회를 주지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 나는 너그러우니 다시 한 번 기회를 주지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여봐라 저 소녀를 사형에 처해라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1775,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J428"/>
+  <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G226" sqref="G226"/>
+    <sheetView tabSelected="1" topLeftCell="A415" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D428" sqref="D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1839,7 +2068,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>43</v>
@@ -1871,7 +2100,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -1903,7 +2132,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -1935,7 +2164,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -1967,7 +2196,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -2029,7 +2258,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -2061,7 +2290,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -2093,7 +2322,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -2125,7 +2354,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -2157,7 +2386,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -2221,7 +2450,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -2253,7 +2482,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -2285,7 +2514,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -2347,7 +2576,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -2379,7 +2608,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2411,7 +2640,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>36</v>
@@ -2443,7 +2672,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
@@ -2475,7 +2704,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -2507,7 +2736,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>53</v>
@@ -2539,7 +2768,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>36</v>
@@ -2571,7 +2800,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>36</v>
@@ -2633,7 +2862,7 @@
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>36</v>
@@ -2665,7 +2894,7 @@
         <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>36</v>
@@ -2697,7 +2926,7 @@
         <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
@@ -2729,7 +2958,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>36</v>
@@ -2791,7 +3020,7 @@
         <v>55</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>36</v>
@@ -2849,7 +3078,7 @@
         <v>57</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>7</v>
@@ -2878,7 +3107,7 @@
         <v>58</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -2907,7 +3136,7 @@
         <v>59</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>7</v>
@@ -2936,7 +3165,7 @@
         <v>60</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>7</v>
@@ -2965,7 +3194,7 @@
         <v>61</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>7</v>
@@ -2994,7 +3223,7 @@
         <v>62</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>7</v>
@@ -3023,7 +3252,7 @@
         <v>63</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>7</v>
@@ -3052,7 +3281,7 @@
         <v>64</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>7</v>
@@ -3081,7 +3310,7 @@
         <v>65</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>7</v>
@@ -3110,7 +3339,7 @@
         <v>66</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>7</v>
@@ -3139,7 +3368,7 @@
         <v>67</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>7</v>
@@ -3168,7 +3397,7 @@
         <v>68</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>7</v>
@@ -3197,7 +3426,7 @@
         <v>69</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>7</v>
@@ -3226,7 +3455,7 @@
         <v>70</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -3255,7 +3484,7 @@
         <v>71</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>7</v>
@@ -3284,7 +3513,7 @@
         <v>72</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>7</v>
@@ -3313,7 +3542,7 @@
         <v>73</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>7</v>
@@ -3342,7 +3571,7 @@
         <v>56</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>7</v>
@@ -3371,7 +3600,7 @@
         <v>74</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>7</v>
@@ -3400,7 +3629,7 @@
         <v>61</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>7</v>
@@ -3429,7 +3658,7 @@
         <v>75</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>7</v>
@@ -3458,7 +3687,7 @@
         <v>76</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>7</v>
@@ -3487,7 +3716,7 @@
         <v>77</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
@@ -3516,7 +3745,7 @@
         <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
@@ -3574,7 +3803,7 @@
         <v>121</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>7</v>
@@ -3603,7 +3832,7 @@
         <v>122</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
@@ -3632,7 +3861,7 @@
         <v>123</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
@@ -3690,7 +3919,7 @@
         <v>80</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
@@ -3748,7 +3977,7 @@
         <v>82</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
@@ -3774,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>45</v>
@@ -3835,7 +4064,7 @@
         <v>84</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>7</v>
@@ -3864,7 +4093,7 @@
         <v>85</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>7</v>
@@ -3922,7 +4151,7 @@
         <v>87</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>7</v>
@@ -3951,7 +4180,7 @@
         <v>88</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>7</v>
@@ -4009,7 +4238,7 @@
         <v>90</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>7</v>
@@ -4067,7 +4296,7 @@
         <v>92</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>7</v>
@@ -4125,7 +4354,7 @@
         <v>94</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>7</v>
@@ -4154,7 +4383,7 @@
         <v>95</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>7</v>
@@ -4238,10 +4467,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>7</v>
@@ -4267,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>45</v>
@@ -4328,7 +4557,7 @@
         <v>98</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>7</v>
@@ -4354,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>45</v>
@@ -4386,7 +4615,7 @@
         <v>99</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>7</v>
@@ -4444,7 +4673,7 @@
         <v>125</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>7</v>
@@ -4470,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>45</v>
@@ -4499,10 +4728,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>7</v>
@@ -4557,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>45</v>
@@ -4589,7 +4818,7 @@
         <v>127</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>7</v>
@@ -4644,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>45</v>
@@ -4676,7 +4905,7 @@
         <v>101</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>7</v>
@@ -4705,7 +4934,7 @@
         <v>102</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>7</v>
@@ -4731,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>7</v>
@@ -4789,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>7</v>
@@ -4821,7 +5050,7 @@
         <v>104</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>7</v>
@@ -4908,7 +5137,7 @@
         <v>130</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>7</v>
@@ -4937,7 +5166,7 @@
         <v>127</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>7</v>
@@ -5140,7 +5369,7 @@
         <v>112</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>7</v>
@@ -5285,7 +5514,7 @@
         <v>115</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>7</v>
@@ -5372,7 +5601,7 @@
         <v>118</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>7</v>
@@ -5430,7 +5659,7 @@
         <v>120</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>7</v>
@@ -5456,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>7</v>
@@ -5485,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>7</v>
@@ -5514,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>7</v>
@@ -5543,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>7</v>
@@ -5575,7 +5804,7 @@
         <v>171</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>7</v>
@@ -5604,7 +5833,7 @@
         <v>133</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>7</v>
@@ -5633,7 +5862,7 @@
         <v>134</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>7</v>
@@ -5720,7 +5949,7 @@
         <v>137</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>7</v>
@@ -5807,7 +6036,7 @@
         <v>172</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>7</v>
@@ -5865,7 +6094,7 @@
         <v>141</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>7</v>
@@ -5981,7 +6210,7 @@
         <v>143</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>7</v>
@@ -6126,7 +6355,7 @@
         <v>148</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>7</v>
@@ -6242,7 +6471,7 @@
         <v>151</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>7</v>
@@ -6358,7 +6587,7 @@
         <v>155</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>7</v>
@@ -6373,7 +6602,7 @@
         <v>-100</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6619,7 +6848,7 @@
         <v>164</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>7</v>
@@ -6706,7 +6935,7 @@
         <v>167</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>7</v>
@@ -6721,7 +6950,7 @@
         <v>-100</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -6880,7 +7109,7 @@
         <v>178</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>7</v>
@@ -6996,7 +7225,7 @@
         <v>182</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>7</v>
@@ -7083,7 +7312,7 @@
         <v>185</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>7</v>
@@ -7112,7 +7341,7 @@
         <v>186</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>7</v>
@@ -7257,7 +7486,7 @@
         <v>191</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>7</v>
@@ -7431,7 +7660,7 @@
         <v>197</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>7</v>
@@ -7489,7 +7718,7 @@
         <v>199</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>7</v>
@@ -7518,7 +7747,7 @@
         <v>200</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>7</v>
@@ -7892,10 +8121,10 @@
         <v>1</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>7</v>
@@ -7982,7 +8211,7 @@
         <v>213</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>7</v>
@@ -8095,10 +8324,10 @@
         <v>1</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>7</v>
@@ -8127,7 +8356,7 @@
         <v>217</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>7</v>
@@ -8298,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>7</v>
@@ -8417,7 +8646,7 @@
         <v>226</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>7</v>
@@ -8472,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>7</v>
@@ -8501,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>7</v>
@@ -8530,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>7</v>
@@ -8591,7 +8820,7 @@
         <v>229</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>7</v>
@@ -8649,7 +8878,7 @@
         <v>231</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>7</v>
@@ -8707,7 +8936,7 @@
         <v>233</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>7</v>
@@ -8765,7 +8994,7 @@
         <v>235</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>7</v>
@@ -8794,7 +9023,7 @@
         <v>236</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>7</v>
@@ -8820,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>7</v>
@@ -8852,7 +9081,7 @@
         <v>237</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>7</v>
@@ -8881,7 +9110,7 @@
         <v>238</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>7</v>
@@ -8910,7 +9139,7 @@
         <v>239</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>7</v>
@@ -8968,7 +9197,7 @@
         <v>241</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>7</v>
@@ -8997,7 +9226,7 @@
         <v>242</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>7</v>
@@ -9084,7 +9313,7 @@
         <v>245</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>7</v>
@@ -9113,7 +9342,7 @@
         <v>246</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>7</v>
@@ -9142,7 +9371,7 @@
         <v>247</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>7</v>
@@ -9200,7 +9429,7 @@
         <v>249</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>7</v>
@@ -9316,7 +9545,7 @@
         <v>253</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>7</v>
@@ -9490,7 +9719,7 @@
         <v>259</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>7</v>
@@ -9606,7 +9835,7 @@
         <v>263</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>7</v>
@@ -9632,7 +9861,7 @@
         <v>1</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>45</v>
@@ -9661,10 +9890,10 @@
         <v>1</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>7</v>
@@ -9690,10 +9919,10 @@
         <v>1</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>7</v>
@@ -9719,10 +9948,10 @@
         <v>1</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>7</v>
@@ -9748,10 +9977,10 @@
         <v>1</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>7</v>
@@ -9777,7 +10006,7 @@
         <v>1</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>45</v>
@@ -9806,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>7</v>
@@ -9835,10 +10064,10 @@
         <v>1</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>7</v>
@@ -9853,7 +10082,7 @@
         <v>-100</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -9864,10 +10093,10 @@
         <v>1</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>7</v>
@@ -9882,7 +10111,7 @@
         <v>-100</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -9896,7 +10125,7 @@
         <v>264</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>7</v>
@@ -10038,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>7</v>
@@ -10070,7 +10299,7 @@
         <v>268</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>7</v>
@@ -10273,7 +10502,7 @@
         <v>274</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>7</v>
@@ -10302,7 +10531,7 @@
         <v>275</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>7</v>
@@ -10589,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>7</v>
@@ -10618,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>7</v>
@@ -10647,7 +10876,7 @@
         <v>1</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>7</v>
@@ -10676,7 +10905,7 @@
         <v>1</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>7</v>
@@ -10705,7 +10934,7 @@
         <v>1</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>7</v>
@@ -10734,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>7</v>
@@ -10763,7 +10992,7 @@
         <v>1</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>7</v>
@@ -10792,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>7</v>
@@ -10821,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>7</v>
@@ -10911,7 +11140,7 @@
         <v>286</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>7</v>
@@ -11140,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>7</v>
@@ -11169,7 +11398,7 @@
         <v>1</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>7</v>
@@ -11198,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>7</v>
@@ -11285,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>7</v>
@@ -11607,7 +11836,7 @@
         <v>295</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>7</v>
@@ -11723,7 +11952,7 @@
         <v>348</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>7</v>
@@ -11781,7 +12010,7 @@
         <v>296</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>7</v>
@@ -11839,7 +12068,7 @@
         <v>298</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>7</v>
@@ -11897,7 +12126,7 @@
         <v>300</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>7</v>
@@ -11955,7 +12184,7 @@
         <v>350</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>7</v>
@@ -12071,7 +12300,7 @@
         <v>303</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>7</v>
@@ -12129,7 +12358,7 @@
         <v>305</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>7</v>
@@ -12158,7 +12387,7 @@
         <v>306</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>7</v>
@@ -12622,7 +12851,7 @@
         <v>300</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>7</v>
@@ -12796,7 +13025,7 @@
         <v>327</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>7</v>
@@ -12883,7 +13112,7 @@
         <v>329</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>7</v>
@@ -12966,8 +13195,8 @@
       <c r="B383" s="1">
         <v>1</v>
       </c>
-      <c r="D383" s="1" t="s">
-        <v>356</v>
+      <c r="D383" t="s">
+        <v>427</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>7</v>
@@ -12996,7 +13225,7 @@
         <v>1</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>357</v>
+        <v>428</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>7</v>
@@ -13025,7 +13254,7 @@
         <v>1</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>353</v>
+        <v>429</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>7</v>
@@ -13047,278 +13276,1657 @@
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A386" s="1"/>
-      <c r="B386" s="1"/>
-      <c r="E386" s="1"/>
-      <c r="F386" s="1"/>
-      <c r="G386" s="1"/>
-      <c r="I386" s="1"/>
-      <c r="J386" s="1"/>
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" s="1">
+        <v>1</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G386" s="1">
+        <v>0</v>
+      </c>
+      <c r="H386" s="1">
+        <v>385</v>
+      </c>
+      <c r="I386" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J386" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A387" s="1"/>
-      <c r="B387" s="1"/>
-      <c r="E387" s="1"/>
-      <c r="F387" s="1"/>
-      <c r="G387" s="1"/>
-      <c r="I387" s="1"/>
-      <c r="J387" s="1"/>
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" s="1">
+        <v>1</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G387" s="1">
+        <v>0</v>
+      </c>
+      <c r="H387" s="1">
+        <v>386</v>
+      </c>
+      <c r="I387" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J387" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A388" s="1"/>
-      <c r="B388" s="1"/>
-      <c r="E388" s="1"/>
-      <c r="F388" s="1"/>
-      <c r="G388" s="1"/>
-      <c r="I388" s="1"/>
-      <c r="J388" s="1"/>
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" s="1">
+        <v>1</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G388" s="1">
+        <v>0</v>
+      </c>
+      <c r="H388" s="1">
+        <v>387</v>
+      </c>
+      <c r="I388" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J388" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A389" s="1"/>
-      <c r="B389" s="1"/>
-      <c r="E389" s="1"/>
-      <c r="F389" s="1"/>
-      <c r="G389" s="1"/>
-      <c r="I389" s="1"/>
-      <c r="J389" s="1"/>
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" s="1">
+        <v>1</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G389" s="1">
+        <v>0</v>
+      </c>
+      <c r="H389" s="1">
+        <v>388</v>
+      </c>
+      <c r="I389" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J389" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A390" s="1"/>
-      <c r="B390" s="1"/>
-      <c r="E390" s="1"/>
-      <c r="F390" s="1"/>
-      <c r="G390" s="1"/>
-      <c r="I390" s="1"/>
-      <c r="J390" s="1"/>
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" s="1">
+        <v>1</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G390" s="1">
+        <v>0</v>
+      </c>
+      <c r="H390" s="1">
+        <v>389</v>
+      </c>
+      <c r="I390" s="1">
+        <v>5</v>
+      </c>
+      <c r="J390" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A391" s="1"/>
-      <c r="B391" s="1"/>
-      <c r="E391" s="1"/>
-      <c r="F391" s="1"/>
-      <c r="G391" s="1"/>
-      <c r="I391" s="1"/>
-      <c r="J391" s="1"/>
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" s="1">
+        <v>1</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G391" s="1">
+        <v>0</v>
+      </c>
+      <c r="H391" s="1">
+        <v>390</v>
+      </c>
+      <c r="I391" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J391" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A392" s="1"/>
-      <c r="B392" s="1"/>
-      <c r="E392" s="1"/>
-      <c r="F392" s="1"/>
-      <c r="G392" s="1"/>
-      <c r="I392" s="1"/>
-      <c r="J392" s="1"/>
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" s="1">
+        <v>1</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G392" s="1">
+        <v>0</v>
+      </c>
+      <c r="H392" s="1">
+        <v>391</v>
+      </c>
+      <c r="I392" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A393" s="1"/>
-      <c r="B393" s="1"/>
-      <c r="E393" s="1"/>
-      <c r="F393" s="1"/>
-      <c r="G393" s="1"/>
-      <c r="I393" s="1"/>
-      <c r="J393" s="1"/>
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" s="1">
+        <v>1</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G393" s="1">
+        <v>0</v>
+      </c>
+      <c r="H393" s="1">
+        <v>392</v>
+      </c>
+      <c r="I393" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J393" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A394" s="1"/>
-      <c r="B394" s="1"/>
-      <c r="E394" s="1"/>
-      <c r="F394" s="1"/>
-      <c r="G394" s="1"/>
-      <c r="I394" s="1"/>
-      <c r="J394" s="1"/>
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" s="1">
+        <v>1</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G394" s="1">
+        <v>0</v>
+      </c>
+      <c r="H394" s="1">
+        <v>393</v>
+      </c>
+      <c r="I394" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J394" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A395" s="1"/>
-      <c r="B395" s="1"/>
-      <c r="E395" s="1"/>
-      <c r="F395" s="1"/>
-      <c r="G395" s="1"/>
-      <c r="I395" s="1"/>
-      <c r="J395" s="1"/>
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" s="1">
+        <v>1</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G395" s="1">
+        <v>0</v>
+      </c>
+      <c r="H395" s="1">
+        <v>394</v>
+      </c>
+      <c r="I395" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J395" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A396" s="1"/>
-      <c r="B396" s="1"/>
-      <c r="E396" s="1"/>
-      <c r="F396" s="1"/>
-      <c r="G396" s="1"/>
-      <c r="I396" s="1"/>
-      <c r="J396" s="1"/>
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" s="1">
+        <v>1</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G396" s="1">
+        <v>0</v>
+      </c>
+      <c r="H396" s="1">
+        <v>395</v>
+      </c>
+      <c r="I396" s="1">
+        <v>6</v>
+      </c>
+      <c r="J396" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A397" s="1"/>
-      <c r="B397" s="1"/>
-      <c r="E397" s="1"/>
-      <c r="F397" s="1"/>
-      <c r="G397" s="1"/>
-      <c r="I397" s="1"/>
-      <c r="J397" s="1"/>
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" s="1">
+        <v>1</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G397" s="1">
+        <v>0</v>
+      </c>
+      <c r="H397" s="1">
+        <v>396</v>
+      </c>
+      <c r="I397" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J397" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A398" s="1"/>
-      <c r="B398" s="1"/>
-      <c r="E398" s="1"/>
-      <c r="F398" s="1"/>
-      <c r="G398" s="1"/>
-      <c r="I398" s="1"/>
-      <c r="J398" s="1"/>
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" s="1">
+        <v>1</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G398" s="1">
+        <v>0</v>
+      </c>
+      <c r="H398" s="1">
+        <v>397</v>
+      </c>
+      <c r="I398" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J398" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A399" s="1"/>
-      <c r="B399" s="1"/>
-      <c r="E399" s="1"/>
-      <c r="F399" s="1"/>
-      <c r="G399" s="1"/>
-      <c r="I399" s="1"/>
-      <c r="J399" s="1"/>
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" s="1">
+        <v>1</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G399" s="1">
+        <v>0</v>
+      </c>
+      <c r="H399" s="1">
+        <v>398</v>
+      </c>
+      <c r="I399" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J399" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A400" s="1"/>
-      <c r="B400" s="1"/>
-      <c r="E400" s="1"/>
-      <c r="F400" s="1"/>
-      <c r="G400" s="1"/>
-      <c r="I400" s="1"/>
-      <c r="J400" s="1"/>
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" s="1">
+        <v>1</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G400" s="1">
+        <v>0</v>
+      </c>
+      <c r="H400" s="1">
+        <v>399</v>
+      </c>
+      <c r="I400" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J400" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A401" s="1"/>
-      <c r="B401" s="1"/>
-      <c r="E401" s="1"/>
-      <c r="F401" s="1"/>
-      <c r="G401" s="1"/>
-      <c r="I401" s="1"/>
-      <c r="J401" s="1"/>
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" s="1">
+        <v>1</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G401" s="1">
+        <v>0</v>
+      </c>
+      <c r="H401" s="1">
+        <v>400</v>
+      </c>
+      <c r="I401" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J401" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A402" s="1"/>
-      <c r="B402" s="1"/>
-      <c r="E402" s="1"/>
-      <c r="F402" s="1"/>
-      <c r="G402" s="1"/>
-      <c r="I402" s="1"/>
-      <c r="J402" s="1"/>
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" s="1">
+        <v>1</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G402" s="1">
+        <v>0</v>
+      </c>
+      <c r="H402" s="1">
+        <v>401</v>
+      </c>
+      <c r="I402" s="1">
+        <v>7</v>
+      </c>
+      <c r="J402" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A403" s="1"/>
-      <c r="B403" s="1"/>
-      <c r="E403" s="1"/>
-      <c r="F403" s="1"/>
-      <c r="G403" s="1"/>
-      <c r="I403" s="1"/>
-      <c r="J403" s="1"/>
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" s="1">
+        <v>1</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G403" s="1">
+        <v>0</v>
+      </c>
+      <c r="H403" s="1">
+        <v>402</v>
+      </c>
+      <c r="I403" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J403" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A404" s="1"/>
-      <c r="B404" s="1"/>
-      <c r="E404" s="1"/>
-      <c r="F404" s="1"/>
-      <c r="G404" s="1"/>
-      <c r="I404" s="1"/>
-      <c r="J404" s="1"/>
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" s="1">
+        <v>1</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G404" s="1">
+        <v>0</v>
+      </c>
+      <c r="H404" s="1">
+        <v>403</v>
+      </c>
+      <c r="I404" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J404" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A405" s="1"/>
-      <c r="B405" s="1"/>
-      <c r="E405" s="1"/>
-      <c r="F405" s="1"/>
-      <c r="G405" s="1"/>
-      <c r="I405" s="1"/>
-      <c r="J405" s="1"/>
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" s="1">
+        <v>1</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G405" s="1">
+        <v>0</v>
+      </c>
+      <c r="H405" s="1">
+        <v>404</v>
+      </c>
+      <c r="I405" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J405" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A406" s="1"/>
-      <c r="B406" s="1"/>
-      <c r="E406" s="1"/>
-      <c r="F406" s="1"/>
-      <c r="G406" s="1"/>
-      <c r="I406" s="1"/>
-      <c r="J406" s="1"/>
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" s="1">
+        <v>1</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G406" s="1">
+        <v>0</v>
+      </c>
+      <c r="H406" s="1">
+        <v>405</v>
+      </c>
+      <c r="I406" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J406" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A407" s="1"/>
-      <c r="B407" s="1"/>
-      <c r="E407" s="1"/>
-      <c r="F407" s="1"/>
-      <c r="G407" s="1"/>
-      <c r="I407" s="1"/>
-      <c r="J407" s="1"/>
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" s="1">
+        <v>1</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G407" s="1">
+        <v>0</v>
+      </c>
+      <c r="H407" s="1">
+        <v>406</v>
+      </c>
+      <c r="I407" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J407" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E408" s="1"/>
-      <c r="G408" s="1"/>
-      <c r="I408" s="1"/>
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" s="1">
+        <v>1</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G408" s="1">
+        <v>0</v>
+      </c>
+      <c r="H408" s="1">
+        <v>407</v>
+      </c>
+      <c r="I408" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J408" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E409" s="1"/>
-      <c r="G409" s="1"/>
-      <c r="I409" s="1"/>
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1">
+        <v>1</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G409" s="1">
+        <v>0</v>
+      </c>
+      <c r="H409" s="1">
+        <v>408</v>
+      </c>
+      <c r="I409" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E410" s="1"/>
-      <c r="G410" s="1"/>
-      <c r="I410" s="1"/>
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" s="1">
+        <v>1</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G410" s="1">
+        <v>0</v>
+      </c>
+      <c r="H410" s="1">
+        <v>409</v>
+      </c>
+      <c r="I410" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E411" s="1"/>
-      <c r="G411" s="1"/>
-      <c r="I411" s="1"/>
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" s="1">
+        <v>1</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G411" s="1">
+        <v>0</v>
+      </c>
+      <c r="H411" s="1">
+        <v>410</v>
+      </c>
+      <c r="I411" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J411" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G412" s="1"/>
-      <c r="I412" s="1"/>
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1">
+        <v>1</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G412" s="1">
+        <v>0</v>
+      </c>
+      <c r="H412" s="1">
+        <v>411</v>
+      </c>
+      <c r="I412" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J412" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G413" s="1"/>
-      <c r="I413" s="1"/>
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1">
+        <v>1</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G413" s="1">
+        <v>0</v>
+      </c>
+      <c r="H413" s="1">
+        <v>412</v>
+      </c>
+      <c r="I413" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G414" s="1"/>
-      <c r="I414" s="1"/>
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" s="1">
+        <v>1</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G414" s="1">
+        <v>0</v>
+      </c>
+      <c r="H414" s="1">
+        <v>413</v>
+      </c>
+      <c r="I414" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G415" s="1"/>
-      <c r="I415" s="1"/>
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" s="1">
+        <v>1</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G415" s="1">
+        <v>0</v>
+      </c>
+      <c r="H415" s="1">
+        <v>414</v>
+      </c>
+      <c r="I415" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G416" s="1"/>
-      <c r="I416" s="1"/>
-    </row>
-    <row r="417" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I417" s="1"/>
-    </row>
-    <row r="418" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I418" s="1"/>
-    </row>
-    <row r="419" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I419" s="1"/>
-    </row>
-    <row r="420" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I420" s="1"/>
-    </row>
-    <row r="421" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I421" s="1"/>
-    </row>
-    <row r="422" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I422" s="1"/>
-    </row>
-    <row r="423" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I423" s="1"/>
-    </row>
-    <row r="424" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I424" s="1"/>
-    </row>
-    <row r="425" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I425" s="1"/>
-    </row>
-    <row r="426" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I426" s="1"/>
-    </row>
-    <row r="427" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I427" s="1"/>
-    </row>
-    <row r="428" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I428" s="1"/>
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" s="1">
+        <v>1</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G416" s="1">
+        <v>0</v>
+      </c>
+      <c r="H416" s="1">
+        <v>415</v>
+      </c>
+      <c r="I416" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" s="1">
+        <v>1</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G417" s="1">
+        <v>0</v>
+      </c>
+      <c r="H417" s="1">
+        <v>416</v>
+      </c>
+      <c r="I417" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J417" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" s="1">
+        <v>1</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G418" s="1">
+        <v>0</v>
+      </c>
+      <c r="H418" s="1">
+        <v>417</v>
+      </c>
+      <c r="I418" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J418" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" s="1">
+        <v>1</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G419" s="1">
+        <v>0</v>
+      </c>
+      <c r="H419" s="1">
+        <v>418</v>
+      </c>
+      <c r="I419" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" s="1">
+        <v>1</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G420" s="1">
+        <v>0</v>
+      </c>
+      <c r="H420" s="1">
+        <v>419</v>
+      </c>
+      <c r="I420" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J420" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" s="1">
+        <v>1</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G421" s="1">
+        <v>0</v>
+      </c>
+      <c r="H421" s="1">
+        <v>420</v>
+      </c>
+      <c r="I421" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" s="1">
+        <v>1</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G422" s="1">
+        <v>0</v>
+      </c>
+      <c r="H422" s="1">
+        <v>421</v>
+      </c>
+      <c r="I422" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" s="1">
+        <v>1</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G423" s="1">
+        <v>0</v>
+      </c>
+      <c r="H423" s="1">
+        <v>422</v>
+      </c>
+      <c r="I423" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" s="1">
+        <v>1</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G424" s="1">
+        <v>0</v>
+      </c>
+      <c r="H424" s="1">
+        <v>423</v>
+      </c>
+      <c r="I424" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" s="1">
+        <v>1</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G425" s="1">
+        <v>0</v>
+      </c>
+      <c r="H425" s="1">
+        <v>424</v>
+      </c>
+      <c r="I425" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" s="1">
+        <v>1</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G426" s="1">
+        <v>0</v>
+      </c>
+      <c r="H426" s="1">
+        <v>425</v>
+      </c>
+      <c r="I426" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" s="1">
+        <v>1</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G427" s="1">
+        <v>0</v>
+      </c>
+      <c r="H427" s="1">
+        <v>426</v>
+      </c>
+      <c r="I427" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J427" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" s="1">
+        <v>1</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G428" s="1">
+        <v>0</v>
+      </c>
+      <c r="H428" s="1">
+        <v>427</v>
+      </c>
+      <c r="I428" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" s="1">
+        <v>1</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G429" s="1">
+        <v>0</v>
+      </c>
+      <c r="H429" s="1">
+        <v>428</v>
+      </c>
+      <c r="I429" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J429" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" s="1">
+        <v>1</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G430" s="1">
+        <v>0</v>
+      </c>
+      <c r="H430" s="1">
+        <v>429</v>
+      </c>
+      <c r="I430" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J430" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" s="1">
+        <v>1</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G431" s="1">
+        <v>0</v>
+      </c>
+      <c r="H431" s="1">
+        <v>430</v>
+      </c>
+      <c r="I431" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J431" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" s="1">
+        <v>1</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G432" s="1">
+        <v>0</v>
+      </c>
+      <c r="H432" s="1">
+        <v>431</v>
+      </c>
+      <c r="I432" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" s="1">
+        <v>1</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G433" s="1">
+        <v>0</v>
+      </c>
+      <c r="H433" s="1">
+        <v>432</v>
+      </c>
+      <c r="I433" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" s="1">
+        <v>1</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G434" s="1">
+        <v>0</v>
+      </c>
+      <c r="H434" s="1">
+        <v>433</v>
+      </c>
+      <c r="I434" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" s="1">
+        <v>1</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G435" s="1">
+        <v>0</v>
+      </c>
+      <c r="H435" s="1">
+        <v>434</v>
+      </c>
+      <c r="I435" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" s="1">
+        <v>1</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G436" s="1">
+        <v>0</v>
+      </c>
+      <c r="H436" s="1">
+        <v>435</v>
+      </c>
+      <c r="I436" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" s="1">
+        <v>1</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G437" s="1">
+        <v>0</v>
+      </c>
+      <c r="H437" s="1">
+        <v>436</v>
+      </c>
+      <c r="I437" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J437" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" s="1">
+        <v>1</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G438" s="1">
+        <v>0</v>
+      </c>
+      <c r="H438" s="1">
+        <v>437</v>
+      </c>
+      <c r="I438" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" s="1">
+        <v>1</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G439" s="1">
+        <v>0</v>
+      </c>
+      <c r="H439" s="1">
+        <v>438</v>
+      </c>
+      <c r="I439" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J439" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" s="1">
+        <v>1</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G440" s="1">
+        <v>0</v>
+      </c>
+      <c r="H440" s="1">
+        <v>439</v>
+      </c>
+      <c r="I440" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J440" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" s="1">
+        <v>1</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G441" s="1">
+        <v>0</v>
+      </c>
+      <c r="H441" s="1">
+        <v>440</v>
+      </c>
+      <c r="I441" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J441" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" s="1">
+        <v>1</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G442" s="1">
+        <v>0</v>
+      </c>
+      <c r="H442" s="1">
+        <v>441</v>
+      </c>
+      <c r="I442" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -2006,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D428" sqref="D428"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="472">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,9 +388,6 @@
     <t>깜짝이야 나비였구나</t>
   </si>
   <si>
-    <t>빵나비 말이지</t>
-  </si>
-  <si>
     <t>만나서 반갑구나</t>
   </si>
   <si>
@@ -456,18 +453,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만약 내가 토끼를 찾는다면 모자 장수에게 물어보겠어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>응?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>행운은 너의 왼쪽에 있을 꺼야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어? 나비가 참 이상하게 생겼네 꼭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,12 +476,6 @@
   </si>
   <si>
     <t>어디서 나오는 거지?</t>
-  </si>
-  <si>
-    <t>하아아아</t>
-  </si>
-  <si>
-    <t>오! 거기 너 너말이야</t>
   </si>
   <si>
     <t>(두리번) 나?</t>
@@ -1277,10 +1260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그럼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>들꽃이 아니라고? 그럼?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1627,6 +1606,50 @@
   </si>
   <si>
     <t>여봐라 저 소녀를 사형에 처해라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/cat 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/butterflly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵나비 말이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/f3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너의 행운은 왼쪽에 있을 지도~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎㅎ만약 내가 토끼를 찾는다면 모자 장수에게 물어보겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아아아 오! 거기 너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 그래 너 말이야</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2006,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2068,7 +2091,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>43</v>
@@ -2100,7 +2123,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -2132,7 +2155,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -2164,7 +2187,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -2196,7 +2219,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -2258,7 +2281,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -2290,7 +2313,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -2322,7 +2345,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -2354,7 +2377,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -2386,7 +2409,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -2418,7 +2441,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -2450,7 +2473,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -2482,7 +2505,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -2514,7 +2537,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -2576,7 +2599,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -2608,7 +2631,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2640,7 +2663,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>36</v>
@@ -2672,7 +2695,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
@@ -2704,7 +2727,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -2736,7 +2759,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>53</v>
@@ -2768,7 +2791,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>36</v>
@@ -2800,7 +2823,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>36</v>
@@ -2862,7 +2885,7 @@
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>36</v>
@@ -2894,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>36</v>
@@ -2926,7 +2949,7 @@
         <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
@@ -2958,7 +2981,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>36</v>
@@ -3020,7 +3043,7 @@
         <v>55</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>36</v>
@@ -3078,7 +3101,7 @@
         <v>57</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>7</v>
@@ -3107,7 +3130,7 @@
         <v>58</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -3136,7 +3159,7 @@
         <v>59</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>7</v>
@@ -3165,7 +3188,7 @@
         <v>60</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>7</v>
@@ -3194,7 +3217,7 @@
         <v>61</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>7</v>
@@ -3223,7 +3246,7 @@
         <v>62</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>7</v>
@@ -3252,7 +3275,7 @@
         <v>63</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>7</v>
@@ -3281,7 +3304,7 @@
         <v>64</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>7</v>
@@ -3310,7 +3333,7 @@
         <v>65</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>7</v>
@@ -3339,7 +3362,7 @@
         <v>66</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>7</v>
@@ -3368,7 +3391,7 @@
         <v>67</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>7</v>
@@ -3397,7 +3420,7 @@
         <v>68</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>7</v>
@@ -3426,7 +3449,7 @@
         <v>69</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>7</v>
@@ -3455,7 +3478,7 @@
         <v>70</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -3484,7 +3507,7 @@
         <v>71</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>7</v>
@@ -3513,7 +3536,7 @@
         <v>72</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>7</v>
@@ -3542,7 +3565,7 @@
         <v>73</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>7</v>
@@ -3571,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>7</v>
@@ -3600,7 +3623,7 @@
         <v>74</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>7</v>
@@ -3629,7 +3652,7 @@
         <v>61</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>7</v>
@@ -3658,7 +3681,7 @@
         <v>75</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>7</v>
@@ -3687,7 +3710,7 @@
         <v>76</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>7</v>
@@ -3716,7 +3739,7 @@
         <v>77</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
@@ -3745,7 +3768,7 @@
         <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
@@ -3800,10 +3823,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>7</v>
@@ -3829,10 +3852,10 @@
         <v>1</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
@@ -3858,10 +3881,10 @@
         <v>1</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
@@ -3884,7 +3907,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>79</v>
@@ -3919,7 +3942,7 @@
         <v>80</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
@@ -3942,7 +3965,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>81</v>
@@ -3977,7 +4000,7 @@
         <v>82</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
@@ -4000,10 +4023,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>45</v>
@@ -4029,7 +4052,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>83</v>
@@ -4064,7 +4087,7 @@
         <v>84</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>7</v>
@@ -4093,7 +4116,7 @@
         <v>85</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>7</v>
@@ -4116,7 +4139,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>86</v>
@@ -4151,7 +4174,7 @@
         <v>87</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>7</v>
@@ -4180,7 +4203,7 @@
         <v>88</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>7</v>
@@ -4203,7 +4226,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>89</v>
@@ -4238,7 +4261,7 @@
         <v>90</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>7</v>
@@ -4261,7 +4284,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>91</v>
@@ -4296,7 +4319,7 @@
         <v>92</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>7</v>
@@ -4319,7 +4342,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>93</v>
@@ -4354,7 +4377,7 @@
         <v>94</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>7</v>
@@ -4377,13 +4400,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>7</v>
@@ -4406,7 +4429,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>96</v>
@@ -4435,7 +4458,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>97</v>
@@ -4467,10 +4490,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>7</v>
@@ -4493,10 +4516,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>45</v>
@@ -4522,10 +4545,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>45</v>
@@ -4557,7 +4580,7 @@
         <v>98</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>7</v>
@@ -4580,10 +4603,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>45</v>
@@ -4615,7 +4638,7 @@
         <v>99</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>7</v>
@@ -4638,7 +4661,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>100</v>
@@ -4670,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>7</v>
@@ -4696,10 +4719,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>45</v>
@@ -4728,10 +4751,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>7</v>
@@ -4754,10 +4777,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>126</v>
+        <v>469</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>45</v>
@@ -4783,10 +4806,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>45</v>
@@ -4815,10 +4838,10 @@
         <v>1</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>7</v>
@@ -4841,10 +4864,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>128</v>
+        <v>468</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>45</v>
@@ -4870,10 +4893,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>376</v>
+        <v>462</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>45</v>
@@ -4905,7 +4928,7 @@
         <v>101</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>7</v>
@@ -4934,7 +4957,7 @@
         <v>102</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>7</v>
@@ -4960,10 +4983,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>7</v>
@@ -4992,7 +5015,7 @@
         <v>103</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>7</v>
+        <v>385</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>7</v>
@@ -5015,13 +5038,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>7</v>
+        <v>463</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>7</v>
@@ -5050,7 +5073,7 @@
         <v>104</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>7</v>
@@ -5076,10 +5099,10 @@
         <v>1</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>7</v>
+        <v>385</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>7</v>
@@ -5102,13 +5125,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>7</v>
+        <v>465</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>7</v>
@@ -5134,10 +5157,10 @@
         <v>1</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>7</v>
@@ -5163,10 +5186,10 @@
         <v>1</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>7</v>
@@ -5189,13 +5212,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>7</v>
+        <v>465</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>7</v>
@@ -5221,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>7</v>
@@ -5247,13 +5270,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>7</v>
+        <v>465</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>7</v>
@@ -5276,13 +5299,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>7</v>
+        <v>466</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>7</v>
@@ -5305,13 +5328,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>7</v>
+        <v>467</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>7</v>
@@ -5334,13 +5357,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>7</v>
+        <v>466</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>7</v>
@@ -5366,10 +5389,10 @@
         <v>1</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>7</v>
@@ -5392,13 +5415,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>7</v>
+        <v>465</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>7</v>
@@ -5421,13 +5444,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>7</v>
+        <v>465</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>7</v>
@@ -5450,13 +5473,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>7</v>
+        <v>466</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>7</v>
@@ -5479,10 +5502,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>7</v>
@@ -5511,10 +5534,10 @@
         <v>1</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>7</v>
@@ -5537,13 +5560,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>7</v>
+        <v>465</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>7</v>
@@ -5566,13 +5589,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>7</v>
+        <v>466</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
@@ -5598,10 +5621,10 @@
         <v>1</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>7</v>
@@ -5624,13 +5647,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>7</v>
+        <v>466</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>7</v>
@@ -5656,10 +5679,10 @@
         <v>1</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>7</v>
@@ -5682,13 +5705,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>7</v>
+        <v>467</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>7</v>
@@ -5711,13 +5734,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>7</v>
+        <v>465</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>7</v>
@@ -5740,13 +5763,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>7</v>
+        <v>465</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>7</v>
@@ -5769,13 +5792,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>7</v>
+        <v>465</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>7</v>
@@ -5801,10 +5824,10 @@
         <v>1</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>7</v>
@@ -5830,10 +5853,10 @@
         <v>1</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>7</v>
@@ -5859,10 +5882,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>7</v>
@@ -5885,10 +5908,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>135</v>
+        <v>470</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>7</v>
@@ -5914,10 +5937,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>136</v>
+        <v>471</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>7</v>
@@ -5946,10 +5969,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>7</v>
@@ -5972,10 +5995,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>7</v>
@@ -6001,10 +6024,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>7</v>
@@ -6033,10 +6056,10 @@
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>7</v>
@@ -6059,10 +6082,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>7</v>
@@ -6091,10 +6114,10 @@
         <v>1</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>7</v>
@@ -6117,10 +6140,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>7</v>
@@ -6146,10 +6169,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>7</v>
@@ -6175,10 +6198,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>7</v>
@@ -6207,10 +6230,10 @@
         <v>1</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>7</v>
@@ -6233,10 +6256,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>7</v>
@@ -6262,10 +6285,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>7</v>
@@ -6291,10 +6314,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>7</v>
@@ -6320,10 +6343,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>7</v>
@@ -6352,10 +6375,10 @@
         <v>1</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>7</v>
@@ -6378,10 +6401,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>7</v>
@@ -6410,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>7</v>
@@ -6436,10 +6459,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>7</v>
@@ -6468,10 +6491,10 @@
         <v>1</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>7</v>
@@ -6494,10 +6517,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>7</v>
@@ -6523,10 +6546,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>7</v>
@@ -6552,10 +6575,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>7</v>
@@ -6584,10 +6607,10 @@
         <v>1</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>7</v>
@@ -6602,7 +6625,7 @@
         <v>-100</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6610,10 +6633,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>7</v>
@@ -6639,10 +6662,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>7</v>
@@ -6668,10 +6691,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>7</v>
@@ -6697,10 +6720,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>7</v>
@@ -6726,10 +6749,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>7</v>
@@ -6755,10 +6778,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>7</v>
@@ -6784,10 +6807,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>7</v>
@@ -6813,10 +6836,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>7</v>
@@ -6845,10 +6868,10 @@
         <v>1</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>7</v>
@@ -6871,10 +6894,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>7</v>
@@ -6900,10 +6923,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>7</v>
@@ -6932,10 +6955,10 @@
         <v>1</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>7</v>
@@ -6950,7 +6973,7 @@
         <v>-100</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -6961,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>7</v>
@@ -6990,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>7</v>
@@ -7019,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>7</v>
@@ -7048,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>7</v>
@@ -7077,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>7</v>
@@ -7106,10 +7129,10 @@
         <v>1</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>7</v>
@@ -7135,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>7</v>
@@ -7164,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>7</v>
@@ -7193,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>7</v>
@@ -7222,10 +7245,10 @@
         <v>1</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>7</v>
@@ -7251,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>7</v>
@@ -7280,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>7</v>
@@ -7309,10 +7332,10 @@
         <v>1</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>7</v>
@@ -7338,10 +7361,10 @@
         <v>1</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>7</v>
@@ -7367,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>7</v>
@@ -7396,7 +7419,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>7</v>
@@ -7425,7 +7448,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>7</v>
@@ -7454,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>7</v>
@@ -7483,10 +7506,10 @@
         <v>1</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>7</v>
@@ -7512,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>7</v>
@@ -7541,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>7</v>
@@ -7570,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>7</v>
@@ -7599,7 +7622,7 @@
         <v>1</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>7</v>
@@ -7628,7 +7651,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>7</v>
@@ -7657,10 +7680,10 @@
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>7</v>
@@ -7686,7 +7709,7 @@
         <v>1</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>7</v>
@@ -7715,10 +7738,10 @@
         <v>1</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>7</v>
@@ -7744,10 +7767,10 @@
         <v>1</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>7</v>
@@ -7773,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>7</v>
@@ -7802,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>7</v>
@@ -7831,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>7</v>
@@ -7860,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>7</v>
@@ -7889,7 +7912,7 @@
         <v>1</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>7</v>
@@ -7918,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>7</v>
@@ -7947,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>7</v>
@@ -7976,7 +7999,7 @@
         <v>1</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>7</v>
@@ -8005,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>7</v>
@@ -8034,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>7</v>
@@ -8063,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>7</v>
@@ -8092,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>7</v>
@@ -8121,10 +8144,10 @@
         <v>1</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>7</v>
@@ -8150,7 +8173,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>7</v>
@@ -8179,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>7</v>
@@ -8208,10 +8231,10 @@
         <v>1</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>7</v>
@@ -8237,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>7</v>
@@ -8266,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>7</v>
@@ -8295,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>7</v>
@@ -8324,10 +8347,10 @@
         <v>1</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>7</v>
@@ -8353,10 +8376,10 @@
         <v>1</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>7</v>
@@ -8382,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>7</v>
@@ -8411,7 +8434,7 @@
         <v>1</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>7</v>
@@ -8440,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>7</v>
@@ -8469,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>7</v>
@@ -8498,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>7</v>
@@ -8527,7 +8550,7 @@
         <v>1</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>7</v>
@@ -8556,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>7</v>
@@ -8585,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>7</v>
@@ -8614,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>7</v>
@@ -8643,10 +8666,10 @@
         <v>1</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>7</v>
@@ -8672,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>7</v>
@@ -8701,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>7</v>
@@ -8730,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>7</v>
@@ -8759,7 +8782,7 @@
         <v>1</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>7</v>
@@ -8788,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>7</v>
@@ -8817,10 +8840,10 @@
         <v>1</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>7</v>
@@ -8846,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>7</v>
@@ -8875,10 +8898,10 @@
         <v>1</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>7</v>
@@ -8904,7 +8927,7 @@
         <v>1</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>7</v>
@@ -8933,10 +8956,10 @@
         <v>1</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>7</v>
@@ -8962,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>7</v>
@@ -8991,10 +9014,10 @@
         <v>1</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>7</v>
@@ -9020,10 +9043,10 @@
         <v>1</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>7</v>
@@ -9049,7 +9072,7 @@
         <v>1</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>7</v>
@@ -9078,10 +9101,10 @@
         <v>1</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>7</v>
@@ -9107,10 +9130,10 @@
         <v>1</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>7</v>
@@ -9136,10 +9159,10 @@
         <v>1</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>7</v>
@@ -9165,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>45</v>
@@ -9194,10 +9217,10 @@
         <v>1</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>7</v>
@@ -9223,10 +9246,10 @@
         <v>1</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>7</v>
@@ -9252,7 +9275,7 @@
         <v>1</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>45</v>
@@ -9281,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>45</v>
@@ -9310,10 +9333,10 @@
         <v>1</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>7</v>
@@ -9339,10 +9362,10 @@
         <v>1</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>7</v>
@@ -9368,10 +9391,10 @@
         <v>1</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>7</v>
@@ -9397,7 +9420,7 @@
         <v>1</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>45</v>
@@ -9426,10 +9449,10 @@
         <v>1</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>7</v>
@@ -9455,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>45</v>
@@ -9484,7 +9507,7 @@
         <v>1</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>45</v>
@@ -9513,7 +9536,7 @@
         <v>1</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>45</v>
@@ -9542,10 +9565,10 @@
         <v>1</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>7</v>
@@ -9571,7 +9594,7 @@
         <v>1</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>45</v>
@@ -9600,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>45</v>
@@ -9629,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>45</v>
@@ -9658,7 +9681,7 @@
         <v>1</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>45</v>
@@ -9687,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>45</v>
@@ -9716,10 +9739,10 @@
         <v>1</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>7</v>
@@ -9745,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>45</v>
@@ -9774,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>45</v>
@@ -9803,7 +9826,7 @@
         <v>1</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>45</v>
@@ -9832,10 +9855,10 @@
         <v>1</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>7</v>
@@ -9861,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>45</v>
@@ -9890,10 +9913,10 @@
         <v>1</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>7</v>
@@ -9919,10 +9942,10 @@
         <v>1</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>7</v>
@@ -9948,10 +9971,10 @@
         <v>1</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>7</v>
@@ -9977,10 +10000,10 @@
         <v>1</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>7</v>
@@ -10006,7 +10029,7 @@
         <v>1</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>45</v>
@@ -10035,10 +10058,10 @@
         <v>1</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>7</v>
@@ -10064,10 +10087,10 @@
         <v>1</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>7</v>
@@ -10082,7 +10105,7 @@
         <v>-100</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -10093,10 +10116,10 @@
         <v>1</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>7</v>
@@ -10111,7 +10134,7 @@
         <v>-100</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -10122,10 +10145,10 @@
         <v>1</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>7</v>
@@ -10151,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>7</v>
@@ -10180,7 +10203,7 @@
         <v>1</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>7</v>
@@ -10209,7 +10232,7 @@
         <v>1</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>7</v>
@@ -10238,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>7</v>
@@ -10267,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>7</v>
@@ -10296,10 +10319,10 @@
         <v>1</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>7</v>
@@ -10325,7 +10348,7 @@
         <v>1</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>7</v>
@@ -10354,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>7</v>
@@ -10383,7 +10406,7 @@
         <v>1</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>7</v>
@@ -10412,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>7</v>
@@ -10441,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>7</v>
@@ -10470,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>7</v>
@@ -10499,10 +10522,10 @@
         <v>1</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>7</v>
@@ -10528,10 +10551,10 @@
         <v>1</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>7</v>
@@ -10557,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>7</v>
@@ -10586,7 +10609,7 @@
         <v>1</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>7</v>
@@ -10615,7 +10638,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>7</v>
@@ -10644,7 +10667,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>7</v>
@@ -10673,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>7</v>
@@ -10702,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>7</v>
@@ -10731,7 +10754,7 @@
         <v>1</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>7</v>
@@ -10760,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>7</v>
@@ -10789,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>7</v>
@@ -10818,7 +10841,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>7</v>
@@ -10847,7 +10870,7 @@
         <v>1</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>7</v>
@@ -10876,7 +10899,7 @@
         <v>1</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>7</v>
@@ -10905,7 +10928,7 @@
         <v>1</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>7</v>
@@ -10934,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>7</v>
@@ -10963,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>7</v>
@@ -10992,7 +11015,7 @@
         <v>1</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>7</v>
@@ -11021,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>7</v>
@@ -11050,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>7</v>
@@ -11079,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>7</v>
@@ -11108,7 +11131,7 @@
         <v>1</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>7</v>
@@ -11137,10 +11160,10 @@
         <v>1</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>7</v>
@@ -11166,7 +11189,7 @@
         <v>1</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>7</v>
@@ -11195,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>7</v>
@@ -11224,7 +11247,7 @@
         <v>1</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>7</v>
@@ -11253,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>7</v>
@@ -11282,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>7</v>
@@ -11311,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>7</v>
@@ -11340,7 +11363,7 @@
         <v>1</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>7</v>
@@ -11369,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>7</v>
@@ -11398,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>7</v>
@@ -11427,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>7</v>
@@ -11456,7 +11479,7 @@
         <v>1</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>7</v>
@@ -11485,7 +11508,7 @@
         <v>1</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>7</v>
@@ -11514,7 +11537,7 @@
         <v>1</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>7</v>
@@ -11543,7 +11566,7 @@
         <v>1</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>7</v>
@@ -11572,7 +11595,7 @@
         <v>1</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>7</v>
@@ -11601,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>7</v>
@@ -11630,7 +11653,7 @@
         <v>1</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>7</v>
@@ -11659,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>7</v>
@@ -11688,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>7</v>
@@ -11717,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>7</v>
@@ -11746,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>7</v>
@@ -11775,7 +11798,7 @@
         <v>1</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>7</v>
@@ -11804,7 +11827,7 @@
         <v>1</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>7</v>
@@ -11833,10 +11856,10 @@
         <v>1</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>7</v>
@@ -11862,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>7</v>
@@ -11891,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>7</v>
@@ -11920,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>7</v>
@@ -11949,10 +11972,10 @@
         <v>1</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>7</v>
@@ -11978,7 +12001,7 @@
         <v>1</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>7</v>
@@ -12007,10 +12030,10 @@
         <v>1</v>
       </c>
       <c r="D342" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>7</v>
@@ -12036,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="D343" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>7</v>
@@ -12065,10 +12088,10 @@
         <v>1</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>7</v>
@@ -12094,7 +12117,7 @@
         <v>1</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>7</v>
@@ -12123,10 +12146,10 @@
         <v>1</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>7</v>
@@ -12152,7 +12175,7 @@
         <v>1</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>7</v>
@@ -12181,10 +12204,10 @@
         <v>1</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>7</v>
@@ -12210,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>7</v>
@@ -12239,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>7</v>
@@ -12268,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>7</v>
@@ -12297,10 +12320,10 @@
         <v>1</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>7</v>
@@ -12326,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>7</v>
@@ -12355,10 +12378,10 @@
         <v>1</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>7</v>
@@ -12384,10 +12407,10 @@
         <v>1</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>7</v>
@@ -12413,7 +12436,7 @@
         <v>1</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>7</v>
@@ -12442,7 +12465,7 @@
         <v>1</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>7</v>
@@ -12471,7 +12494,7 @@
         <v>1</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>7</v>
@@ -12500,7 +12523,7 @@
         <v>1</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>7</v>
@@ -12529,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>7</v>
@@ -12558,7 +12581,7 @@
         <v>1</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>7</v>
@@ -12587,7 +12610,7 @@
         <v>1</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>7</v>
@@ -12616,7 +12639,7 @@
         <v>1</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>7</v>
@@ -12645,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>7</v>
@@ -12674,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>7</v>
@@ -12703,7 +12726,7 @@
         <v>1</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>7</v>
@@ -12732,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>7</v>
@@ -12761,7 +12784,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>7</v>
@@ -12790,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>7</v>
@@ -12819,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="D370" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>7</v>
@@ -12848,10 +12871,10 @@
         <v>1</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>7</v>
@@ -12877,7 +12900,7 @@
         <v>1</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>7</v>
@@ -12906,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>7</v>
@@ -12935,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="D374" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>7</v>
@@ -12964,7 +12987,7 @@
         <v>1</v>
       </c>
       <c r="D375" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>7</v>
@@ -12993,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>7</v>
@@ -13022,10 +13045,10 @@
         <v>1</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>7</v>
@@ -13051,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="D378" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>7</v>
@@ -13080,7 +13103,7 @@
         <v>1</v>
       </c>
       <c r="D379" s="10" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>7</v>
@@ -13109,10 +13132,10 @@
         <v>1</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>7</v>
@@ -13138,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>7</v>
@@ -13167,7 +13190,7 @@
         <v>1</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>7</v>
@@ -13196,7 +13219,7 @@
         <v>1</v>
       </c>
       <c r="D383" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>7</v>
@@ -13225,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>7</v>
@@ -13254,7 +13277,7 @@
         <v>1</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>7</v>
@@ -13283,7 +13306,7 @@
         <v>1</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>7</v>
@@ -13312,7 +13335,7 @@
         <v>1</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>7</v>
@@ -13341,7 +13364,7 @@
         <v>1</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>7</v>
@@ -13370,7 +13393,7 @@
         <v>1</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>7</v>
@@ -13399,7 +13422,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>7</v>
@@ -13428,7 +13451,7 @@
         <v>1</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>7</v>
@@ -13457,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>7</v>
@@ -13486,7 +13509,7 @@
         <v>1</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>7</v>
@@ -13515,7 +13538,7 @@
         <v>1</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>7</v>
@@ -13544,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>7</v>
@@ -13573,7 +13596,7 @@
         <v>1</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>7</v>
@@ -13602,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>7</v>
@@ -13631,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>7</v>
@@ -13660,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>7</v>
@@ -13689,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>7</v>
@@ -13718,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>7</v>
@@ -13747,7 +13770,7 @@
         <v>1</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>7</v>
@@ -13776,7 +13799,7 @@
         <v>1</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>7</v>
@@ -13805,7 +13828,7 @@
         <v>1</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>7</v>
@@ -13834,7 +13857,7 @@
         <v>1</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>7</v>
@@ -13863,7 +13886,7 @@
         <v>1</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>7</v>
@@ -13892,7 +13915,7 @@
         <v>1</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>7</v>
@@ -13921,7 +13944,7 @@
         <v>1</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>7</v>
@@ -13950,7 +13973,7 @@
         <v>1</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>7</v>
@@ -13979,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>7</v>
@@ -14008,7 +14031,7 @@
         <v>1</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>7</v>
@@ -14037,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>7</v>
@@ -14066,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>7</v>
@@ -14095,7 +14118,7 @@
         <v>1</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>7</v>
@@ -14124,7 +14147,7 @@
         <v>1</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>7</v>
@@ -14153,7 +14176,7 @@
         <v>1</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>7</v>
@@ -14182,7 +14205,7 @@
         <v>1</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>7</v>
@@ -14211,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>7</v>
@@ -14240,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>7</v>
@@ -14269,7 +14292,7 @@
         <v>1</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>7</v>
@@ -14298,7 +14321,7 @@
         <v>1</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>7</v>
@@ -14327,7 +14350,7 @@
         <v>1</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>7</v>
@@ -14356,7 +14379,7 @@
         <v>1</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>7</v>
@@ -14385,7 +14408,7 @@
         <v>1</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>7</v>
@@ -14414,7 +14437,7 @@
         <v>1</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>7</v>
@@ -14443,7 +14466,7 @@
         <v>1</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>7</v>
@@ -14472,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>7</v>
@@ -14501,7 +14524,7 @@
         <v>1</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>7</v>
@@ -14530,7 +14553,7 @@
         <v>1</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>7</v>
@@ -14559,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>7</v>
@@ -14588,7 +14611,7 @@
         <v>1</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>7</v>
@@ -14617,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>7</v>
@@ -14646,7 +14669,7 @@
         <v>1</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>7</v>
@@ -14675,7 +14698,7 @@
         <v>1</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>7</v>
@@ -14704,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>7</v>
@@ -14722,7 +14745,7 @@
         <v>-100</v>
       </c>
       <c r="J435" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -14733,7 +14756,7 @@
         <v>1</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>7</v>
@@ -14762,7 +14785,7 @@
         <v>1</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>7</v>
@@ -14791,7 +14814,7 @@
         <v>1</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>7</v>
@@ -14809,7 +14832,7 @@
         <v>-100</v>
       </c>
       <c r="J438" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
@@ -14820,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>7</v>
@@ -14849,7 +14872,7 @@
         <v>1</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>7</v>
@@ -14878,7 +14901,7 @@
         <v>1</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>7</v>
@@ -14907,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>7</v>
@@ -14925,7 +14948,7 @@
         <v>-100</v>
       </c>
       <c r="J442" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="478">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character/Cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>앨리스</t>
   </si>
   <si>
@@ -503,12 +499,6 @@
   </si>
   <si>
     <t>너 같이 신기하게 생긴 종이라면 아주 좋은 자리를 마련해 줄께</t>
-  </si>
-  <si>
-    <t>그래 내 옆자리는 아주 햇빛이 잘 든단다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 옆에서 뿌리잡으면 아주 재미있을거야 </t>
   </si>
   <si>
     <t>오 고맙지만 나는 모자장수에게 볼 일이 있어서</t>
@@ -576,12 +566,6 @@
     <t>저 줄기는 어떻고 2개나 있고 요상하게 생겼어!</t>
   </si>
   <si>
-    <t>그래도 예ㅃ</t>
-  </si>
-  <si>
-    <t>꽃봉아리(꼬마)는 조용히 있으렴</t>
-  </si>
-  <si>
     <t xml:space="preserve">나는 꽃이 아니라니까 </t>
   </si>
   <si>
@@ -662,12 +646,6 @@
     <t>보답을 더 해줄까 후우우우</t>
   </si>
   <si>
-    <t>스으으읍 있지 에재현 는있 살고 가리우 아니라 가래미 나거과</t>
-  </si>
-  <si>
-    <t>상항 답은 고리그 조심해 여왕을 후우우우</t>
-  </si>
-  <si>
     <t>뭘 조심하라고?</t>
   </si>
   <si>
@@ -678,16 +656,6 @@
   </si>
   <si>
     <t>하!트!여!왕! 말!이!야!!!!!</t>
-  </si>
-  <si>
-    <t>이번에는 다시 말해주지 않을거야</t>
-  </si>
-  <si>
-    <t>흠 이만 나가도록 해 저쪽으로 나가 그리고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠 이쪽인가?</t>
   </si>
   <si>
     <t>생일 ㅇ ~</t>
@@ -1351,9 +1319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character/Cat</t>
-  </si>
-  <si>
     <t>누가 감히 나의 장미를 빨갛게 칠했느냐!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1650,6 +1615,73 @@
   </si>
   <si>
     <t>너 그래 너 말이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴 참 이상해 흠 이쪽인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스으으읍 있지 의미에 닌아 뜻이 의재현 는있 살고 가리우 아니라 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가래미 나거과 상항 답은 고리그 조심해 여왕을 후우우우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/bug1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 내 옆자리는 아주 햇빛이 잘 든다구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">우리 옆에서 뿌리잡으면 아주 재미있을거야 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 왜 우리 정원에 온거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 우리 정원에 자리를 만드려고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/bug2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/bug3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠 이만 나가도록 해 나가는 길을 저쪽이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번 다시 말해주지 않을거니까 빨리 나가! 후우우우우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/hatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/rabbit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/rat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Cat2</t>
+  </si>
+  <si>
+    <t>Character/Cat2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2029,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H148" sqref="H148"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2085,13 +2117,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>43</v>
@@ -2117,13 +2149,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -2149,13 +2181,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -2181,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -2213,13 +2245,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -2275,13 +2307,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -2307,13 +2339,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -2339,13 +2371,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -2371,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -2403,13 +2435,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -2435,13 +2467,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -2467,13 +2499,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -2499,13 +2531,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -2531,13 +2563,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -2593,13 +2625,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -2625,13 +2657,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2657,13 +2689,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>36</v>
@@ -2689,13 +2721,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
@@ -2721,13 +2753,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -2753,16 +2785,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -2785,13 +2817,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>36</v>
@@ -2817,13 +2849,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>36</v>
@@ -2879,13 +2911,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>36</v>
@@ -2911,13 +2943,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>36</v>
@@ -2943,13 +2975,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
@@ -2975,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>36</v>
@@ -3008,7 +3040,7 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
@@ -3037,13 +3069,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>36</v>
@@ -3069,7 +3101,7 @@
         <v>-1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>7</v>
@@ -3098,10 +3130,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>7</v>
@@ -3127,10 +3159,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -3156,10 +3188,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>7</v>
@@ -3185,10 +3217,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>7</v>
@@ -3214,10 +3246,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>7</v>
@@ -3243,10 +3275,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>7</v>
@@ -3272,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>7</v>
@@ -3301,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>7</v>
@@ -3330,10 +3362,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>7</v>
@@ -3359,10 +3391,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>7</v>
@@ -3388,10 +3420,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>7</v>
@@ -3417,10 +3449,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>7</v>
@@ -3446,10 +3478,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>7</v>
@@ -3475,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -3504,10 +3536,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>7</v>
@@ -3533,10 +3565,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>7</v>
@@ -3562,10 +3594,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>7</v>
@@ -3591,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>7</v>
@@ -3620,10 +3652,10 @@
         <v>1</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>7</v>
@@ -3649,10 +3681,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>7</v>
@@ -3678,10 +3710,10 @@
         <v>1</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>7</v>
@@ -3707,10 +3739,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>7</v>
@@ -3736,10 +3768,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
@@ -3765,10 +3797,10 @@
         <v>1</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
@@ -3794,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>7</v>
@@ -3823,10 +3855,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>7</v>
@@ -3852,10 +3884,10 @@
         <v>1</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
@@ -3881,10 +3913,10 @@
         <v>1</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
@@ -3910,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
@@ -3939,10 +3971,10 @@
         <v>1</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
@@ -3968,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
@@ -3997,10 +4029,10 @@
         <v>1</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
@@ -4026,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
@@ -4055,10 +4087,10 @@
         <v>0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
@@ -4084,10 +4116,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>7</v>
@@ -4113,10 +4145,10 @@
         <v>1</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>7</v>
@@ -4142,10 +4174,10 @@
         <v>0</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>7</v>
@@ -4171,10 +4203,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>7</v>
@@ -4200,10 +4232,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>7</v>
@@ -4229,10 +4261,10 @@
         <v>0</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>7</v>
@@ -4258,10 +4290,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>7</v>
@@ -4287,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>7</v>
@@ -4316,10 +4348,10 @@
         <v>1</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>7</v>
@@ -4345,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>7</v>
@@ -4374,10 +4406,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>7</v>
@@ -4403,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>395</v>
+        <v>477</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>7</v>
@@ -4432,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>7</v>
@@ -4461,10 +4493,10 @@
         <v>0</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>7</v>
@@ -4490,10 +4522,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>7</v>
@@ -4519,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>7</v>
@@ -4548,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>7</v>
@@ -4577,10 +4609,10 @@
         <v>1</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>7</v>
@@ -4606,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
@@ -4635,10 +4667,10 @@
         <v>1</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>7</v>
@@ -4664,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>7</v>
@@ -4693,10 +4725,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>7</v>
@@ -4722,10 +4754,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>7</v>
@@ -4751,10 +4783,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>7</v>
@@ -4780,10 +4812,10 @@
         <v>0</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>7</v>
@@ -4809,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>7</v>
@@ -4838,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>7</v>
@@ -4867,10 +4899,10 @@
         <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>7</v>
@@ -4896,10 +4928,10 @@
         <v>0</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>7</v>
@@ -4925,10 +4957,10 @@
         <v>1</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>7</v>
@@ -4954,10 +4986,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>7</v>
@@ -4983,10 +5015,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>7</v>
@@ -5012,10 +5044,10 @@
         <v>1</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>7</v>
@@ -5041,10 +5073,10 @@
         <v>0</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>7</v>
@@ -5070,10 +5102,10 @@
         <v>1</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>7</v>
@@ -5099,10 +5131,10 @@
         <v>1</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>7</v>
@@ -5128,10 +5160,10 @@
         <v>0</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>7</v>
@@ -5157,10 +5189,10 @@
         <v>1</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>7</v>
@@ -5186,10 +5218,10 @@
         <v>1</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>7</v>
@@ -5215,10 +5247,10 @@
         <v>0</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>7</v>
@@ -5244,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>7</v>
+        <v>375</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>7</v>
@@ -5273,10 +5305,10 @@
         <v>0</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>7</v>
@@ -5302,10 +5334,10 @@
         <v>0</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>7</v>
@@ -5331,10 +5363,10 @@
         <v>0</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>7</v>
@@ -5360,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>7</v>
@@ -5389,10 +5421,10 @@
         <v>1</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>7</v>
@@ -5418,10 +5450,10 @@
         <v>0</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>7</v>
@@ -5447,10 +5479,10 @@
         <v>0</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>7</v>
@@ -5476,10 +5508,10 @@
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>7</v>
@@ -5505,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>7</v>
@@ -5534,10 +5566,10 @@
         <v>1</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>7</v>
@@ -5563,10 +5595,10 @@
         <v>0</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>7</v>
@@ -5592,10 +5624,10 @@
         <v>0</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
@@ -5621,10 +5653,10 @@
         <v>1</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>7</v>
@@ -5650,10 +5682,10 @@
         <v>0</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>7</v>
@@ -5679,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>7</v>
@@ -5708,10 +5740,10 @@
         <v>0</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>7</v>
@@ -5737,10 +5769,10 @@
         <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>7</v>
@@ -5766,10 +5798,10 @@
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>7</v>
@@ -5795,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>7</v>
@@ -5824,10 +5856,10 @@
         <v>1</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>7</v>
@@ -5853,10 +5885,10 @@
         <v>1</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>7</v>
@@ -5882,10 +5914,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>7</v>
@@ -5911,10 +5943,10 @@
         <v>0</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>7</v>
@@ -5940,10 +5972,10 @@
         <v>0</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>7</v>
@@ -5969,10 +6001,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>7</v>
@@ -5998,10 +6030,10 @@
         <v>0</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>7</v>
@@ -6027,10 +6059,10 @@
         <v>0</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>7</v>
@@ -6056,10 +6088,10 @@
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>7</v>
@@ -6085,10 +6117,10 @@
         <v>0</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>7</v>
@@ -6114,10 +6146,10 @@
         <v>1</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>7</v>
@@ -6143,10 +6175,10 @@
         <v>0</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>7</v>
@@ -6172,10 +6204,10 @@
         <v>0</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>7</v>
+        <v>454</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>7</v>
@@ -6201,10 +6233,10 @@
         <v>0</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>7</v>
+        <v>455</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>7</v>
@@ -6230,10 +6262,10 @@
         <v>1</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>7</v>
@@ -6259,10 +6291,10 @@
         <v>0</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>7</v>
+        <v>454</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>7</v>
@@ -6288,10 +6320,10 @@
         <v>0</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>7</v>
+        <v>454</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>7</v>
@@ -6317,10 +6349,10 @@
         <v>0</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>7</v>
+        <v>455</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>7</v>
@@ -6346,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>142</v>
+        <v>466</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>7</v>
+        <v>456</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>7</v>
@@ -6375,10 +6407,10 @@
         <v>1</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>7</v>
@@ -6404,10 +6436,10 @@
         <v>0</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>7</v>
+        <v>454</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>7</v>
@@ -6433,10 +6465,10 @@
         <v>1</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>7</v>
+        <v>375</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>7</v>
@@ -6462,10 +6494,10 @@
         <v>0</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>7</v>
+        <v>454</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>7</v>
@@ -6491,10 +6523,10 @@
         <v>1</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>7</v>
@@ -6520,10 +6552,10 @@
         <v>0</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>7</v>
+        <v>454</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>7</v>
@@ -6549,10 +6581,10 @@
         <v>0</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>7</v>
+        <v>454</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>7</v>
@@ -6578,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>7</v>
+        <v>456</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>7</v>
@@ -6607,10 +6639,10 @@
         <v>1</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>7</v>
@@ -6625,7 +6657,7 @@
         <v>-100</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6636,10 +6668,10 @@
         <v>0</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>7</v>
+        <v>455</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>7</v>
@@ -6665,10 +6697,10 @@
         <v>0</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>7</v>
+        <v>456</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>7</v>
@@ -6694,10 +6726,10 @@
         <v>0</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>7</v>
+        <v>455</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>7</v>
@@ -6723,10 +6755,10 @@
         <v>0</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>7</v>
+        <v>456</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>7</v>
@@ -6752,10 +6784,10 @@
         <v>0</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>7</v>
+        <v>455</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>7</v>
@@ -6781,10 +6813,10 @@
         <v>0</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>7</v>
+        <v>456</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>7</v>
@@ -6810,10 +6842,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>157</v>
+        <v>467</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>7</v>
+        <v>456</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>7</v>
@@ -6839,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>158</v>
+        <v>468</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>7</v>
+        <v>455</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>7</v>
@@ -6868,10 +6900,10 @@
         <v>1</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>7</v>
@@ -6897,10 +6929,10 @@
         <v>0</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>7</v>
+        <v>455</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>7</v>
@@ -6926,10 +6958,10 @@
         <v>0</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>7</v>
+        <v>456</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>7</v>
@@ -6955,10 +6987,10 @@
         <v>1</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>7</v>
@@ -6973,7 +7005,7 @@
         <v>-100</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -6981,13 +7013,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>7</v>
@@ -7010,13 +7042,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>7</v>
@@ -7039,13 +7071,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>7</v>
@@ -7068,13 +7100,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>7</v>
@@ -7097,13 +7129,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>7</v>
@@ -7129,10 +7161,10 @@
         <v>1</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>7</v>
@@ -7155,13 +7187,13 @@
         <v>172</v>
       </c>
       <c r="B174" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>7</v>
@@ -7184,13 +7216,13 @@
         <v>173</v>
       </c>
       <c r="B175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>7</v>
@@ -7213,13 +7245,13 @@
         <v>174</v>
       </c>
       <c r="B176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>7</v>
@@ -7245,10 +7277,10 @@
         <v>1</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>7</v>
@@ -7271,13 +7303,13 @@
         <v>176</v>
       </c>
       <c r="B178" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>7</v>
@@ -7300,13 +7332,13 @@
         <v>177</v>
       </c>
       <c r="B179" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>7</v>
@@ -7332,10 +7364,10 @@
         <v>1</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>7</v>
@@ -7361,10 +7393,10 @@
         <v>1</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>7</v>
@@ -7387,13 +7419,13 @@
         <v>180</v>
       </c>
       <c r="B182" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>7</v>
@@ -7416,13 +7448,13 @@
         <v>181</v>
       </c>
       <c r="B183" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>7</v>
@@ -7445,13 +7477,13 @@
         <v>182</v>
       </c>
       <c r="B184" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>184</v>
+        <v>462</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>7</v>
@@ -7474,13 +7506,13 @@
         <v>183</v>
       </c>
       <c r="B185" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>185</v>
+        <v>463</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>7</v>
@@ -7506,10 +7538,10 @@
         <v>1</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>7</v>
@@ -7532,13 +7564,13 @@
         <v>185</v>
       </c>
       <c r="B187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>7</v>
@@ -7564,10 +7596,10 @@
         <v>1</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>7</v>
+        <v>375</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>7</v>
@@ -7590,13 +7622,13 @@
         <v>187</v>
       </c>
       <c r="B189" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>7</v>
@@ -7619,13 +7651,13 @@
         <v>188</v>
       </c>
       <c r="B190" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>191</v>
+        <v>471</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>7</v>
@@ -7648,13 +7680,13 @@
         <v>189</v>
       </c>
       <c r="B191" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>190</v>
+        <v>472</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>7</v>
@@ -7680,10 +7712,10 @@
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>192</v>
+        <v>461</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>7</v>
@@ -7709,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>7</v>
@@ -7738,10 +7770,10 @@
         <v>1</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>7</v>
@@ -7767,10 +7799,10 @@
         <v>1</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>7</v>
@@ -7796,10 +7828,10 @@
         <v>1</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>7</v>
@@ -7825,10 +7857,10 @@
         <v>1</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>7</v>
@@ -7854,10 +7886,10 @@
         <v>1</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>7</v>
@@ -7883,10 +7915,10 @@
         <v>1</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>7</v>
@@ -7912,10 +7944,10 @@
         <v>1</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>7</v>
@@ -7941,10 +7973,10 @@
         <v>1</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>7</v>
@@ -7970,10 +8002,10 @@
         <v>1</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>7</v>
@@ -7999,10 +8031,10 @@
         <v>1</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>7</v>
@@ -8028,10 +8060,10 @@
         <v>1</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>7</v>
@@ -8057,10 +8089,10 @@
         <v>1</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>7</v>
@@ -8086,10 +8118,10 @@
         <v>1</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>7</v>
@@ -8115,10 +8147,10 @@
         <v>1</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>7</v>
+        <v>475</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>7</v>
@@ -8144,10 +8176,10 @@
         <v>1</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>7</v>
@@ -8173,10 +8205,10 @@
         <v>1</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>7</v>
@@ -8202,10 +8234,10 @@
         <v>1</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>7</v>
@@ -8231,10 +8263,10 @@
         <v>1</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>7</v>
@@ -8260,10 +8292,10 @@
         <v>1</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>7</v>
@@ -8289,10 +8321,10 @@
         <v>1</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>7</v>
@@ -8318,10 +8350,10 @@
         <v>1</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>7</v>
+        <v>475</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>7</v>
@@ -8347,10 +8379,10 @@
         <v>1</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>7</v>
@@ -8376,10 +8408,10 @@
         <v>1</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>7</v>
@@ -8405,10 +8437,10 @@
         <v>1</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>7</v>
@@ -8434,10 +8466,10 @@
         <v>1</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>7</v>
@@ -8463,10 +8495,10 @@
         <v>1</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>7</v>
@@ -8492,10 +8524,10 @@
         <v>1</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>7</v>
@@ -8521,10 +8553,10 @@
         <v>1</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>7</v>
@@ -8550,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>7</v>
@@ -8579,10 +8611,10 @@
         <v>1</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>7</v>
@@ -8608,10 +8640,10 @@
         <v>1</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>7</v>
@@ -8637,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>7</v>
@@ -8666,10 +8698,10 @@
         <v>1</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>7</v>
@@ -8695,10 +8727,10 @@
         <v>1</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>7</v>
@@ -8724,10 +8756,10 @@
         <v>1</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>7</v>
@@ -8753,10 +8785,10 @@
         <v>1</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>7</v>
@@ -8782,10 +8814,10 @@
         <v>1</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>7</v>
@@ -8811,10 +8843,10 @@
         <v>1</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>7</v>
@@ -8840,10 +8872,10 @@
         <v>1</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>7</v>
@@ -8869,10 +8901,10 @@
         <v>1</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>7</v>
@@ -8898,10 +8930,10 @@
         <v>1</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>7</v>
@@ -8927,10 +8959,10 @@
         <v>1</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>7</v>
@@ -8956,10 +8988,10 @@
         <v>1</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>7</v>
@@ -8985,10 +9017,10 @@
         <v>1</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>7</v>
+        <v>377</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>7</v>
@@ -9014,10 +9046,10 @@
         <v>1</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>7</v>
@@ -9043,10 +9075,10 @@
         <v>1</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>7</v>
@@ -9072,7 +9104,7 @@
         <v>1</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>7</v>
@@ -9101,10 +9133,10 @@
         <v>1</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>7</v>
@@ -9130,10 +9162,10 @@
         <v>1</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>7</v>
@@ -9159,10 +9191,10 @@
         <v>1</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>7</v>
@@ -9188,10 +9220,10 @@
         <v>1</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>7</v>
@@ -9217,10 +9249,10 @@
         <v>1</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>7</v>
@@ -9246,10 +9278,10 @@
         <v>1</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>7</v>
@@ -9275,10 +9307,10 @@
         <v>1</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>7</v>
@@ -9304,10 +9336,10 @@
         <v>1</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>7</v>
@@ -9333,10 +9365,10 @@
         <v>1</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>7</v>
@@ -9362,10 +9394,10 @@
         <v>1</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>7</v>
@@ -9391,10 +9423,10 @@
         <v>1</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>7</v>
@@ -9420,10 +9452,10 @@
         <v>1</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>7</v>
@@ -9449,10 +9481,10 @@
         <v>1</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>7</v>
@@ -9478,10 +9510,10 @@
         <v>1</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>7</v>
@@ -9507,10 +9539,10 @@
         <v>1</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>7</v>
@@ -9536,10 +9568,10 @@
         <v>1</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>7</v>
@@ -9565,10 +9597,10 @@
         <v>1</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>7</v>
@@ -9594,10 +9626,10 @@
         <v>1</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>7</v>
@@ -9623,10 +9655,10 @@
         <v>1</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>7</v>
@@ -9652,10 +9684,10 @@
         <v>1</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>7</v>
@@ -9681,10 +9713,10 @@
         <v>1</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>7</v>
@@ -9710,10 +9742,10 @@
         <v>1</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>7</v>
@@ -9739,10 +9771,10 @@
         <v>1</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>7</v>
@@ -9768,10 +9800,10 @@
         <v>1</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>7</v>
@@ -9797,10 +9829,10 @@
         <v>1</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>7</v>
@@ -9826,10 +9858,10 @@
         <v>1</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>7</v>
@@ -9855,10 +9887,10 @@
         <v>1</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>7</v>
@@ -9884,10 +9916,10 @@
         <v>1</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>7</v>
@@ -9913,10 +9945,10 @@
         <v>1</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>7</v>
@@ -9942,10 +9974,10 @@
         <v>1</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>7</v>
@@ -9971,10 +10003,10 @@
         <v>1</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>7</v>
@@ -10000,10 +10032,10 @@
         <v>1</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>7</v>
@@ -10029,10 +10061,10 @@
         <v>1</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>7</v>
@@ -10058,10 +10090,10 @@
         <v>1</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>7</v>
@@ -10087,10 +10119,10 @@
         <v>1</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>7</v>
@@ -10105,7 +10137,7 @@
         <v>-100</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -10116,10 +10148,10 @@
         <v>1</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>7</v>
@@ -10134,7 +10166,7 @@
         <v>-100</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -10145,10 +10177,10 @@
         <v>1</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>7</v>
@@ -10174,7 +10206,7 @@
         <v>1</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>7</v>
@@ -10203,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>7</v>
@@ -10232,7 +10264,7 @@
         <v>1</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>7</v>
@@ -10261,7 +10293,7 @@
         <v>1</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>7</v>
@@ -10290,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>7</v>
@@ -10319,10 +10351,10 @@
         <v>1</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>7</v>
@@ -10348,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>7</v>
@@ -10377,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>7</v>
@@ -10406,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>7</v>
@@ -10435,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>7</v>
@@ -10464,7 +10496,7 @@
         <v>1</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>7</v>
@@ -10493,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>7</v>
@@ -10522,10 +10554,10 @@
         <v>1</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>7</v>
@@ -10551,10 +10583,10 @@
         <v>1</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>7</v>
@@ -10580,7 +10612,7 @@
         <v>1</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>7</v>
@@ -10609,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>7</v>
@@ -10638,7 +10670,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>7</v>
@@ -10667,7 +10699,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>7</v>
@@ -10696,7 +10728,7 @@
         <v>1</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>7</v>
@@ -10725,7 +10757,7 @@
         <v>1</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>7</v>
@@ -10754,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>7</v>
@@ -10783,7 +10815,7 @@
         <v>1</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>7</v>
@@ -10812,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>7</v>
@@ -10841,7 +10873,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>7</v>
@@ -10870,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>7</v>
@@ -10899,7 +10931,7 @@
         <v>1</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>7</v>
@@ -10928,7 +10960,7 @@
         <v>1</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>7</v>
@@ -10957,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>7</v>
@@ -10986,7 +11018,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>7</v>
@@ -11015,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>7</v>
@@ -11044,7 +11076,7 @@
         <v>1</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>7</v>
@@ -11073,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>7</v>
@@ -11102,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>7</v>
@@ -11131,7 +11163,7 @@
         <v>1</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>7</v>
@@ -11160,10 +11192,10 @@
         <v>1</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>7</v>
@@ -11189,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>7</v>
@@ -11218,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>7</v>
@@ -11247,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>7</v>
@@ -11276,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>7</v>
@@ -11305,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>7</v>
@@ -11334,7 +11366,7 @@
         <v>1</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>7</v>
@@ -11363,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>7</v>
@@ -11392,7 +11424,7 @@
         <v>1</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>7</v>
@@ -11421,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>7</v>
@@ -11450,7 +11482,7 @@
         <v>1</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>7</v>
@@ -11479,7 +11511,7 @@
         <v>1</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>7</v>
@@ -11508,7 +11540,7 @@
         <v>1</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>7</v>
@@ -11537,7 +11569,7 @@
         <v>1</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>7</v>
@@ -11566,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>7</v>
@@ -11595,7 +11627,7 @@
         <v>1</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>7</v>
@@ -11624,7 +11656,7 @@
         <v>1</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>7</v>
@@ -11653,7 +11685,7 @@
         <v>1</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>7</v>
@@ -11682,7 +11714,7 @@
         <v>1</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>7</v>
@@ -11711,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>7</v>
@@ -11740,7 +11772,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>7</v>
@@ -11769,7 +11801,7 @@
         <v>1</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>7</v>
@@ -11798,7 +11830,7 @@
         <v>1</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>7</v>
@@ -11827,7 +11859,7 @@
         <v>1</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>7</v>
@@ -11856,10 +11888,10 @@
         <v>1</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>7</v>
@@ -11885,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>7</v>
@@ -11914,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>7</v>
@@ -11943,7 +11975,7 @@
         <v>1</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>7</v>
@@ -11972,10 +12004,10 @@
         <v>1</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>7</v>
@@ -12001,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>7</v>
@@ -12030,10 +12062,10 @@
         <v>1</v>
       </c>
       <c r="D342" s="8" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>7</v>
@@ -12059,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="D343" s="8" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>7</v>
@@ -12088,10 +12120,10 @@
         <v>1</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>7</v>
@@ -12117,7 +12149,7 @@
         <v>1</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>7</v>
@@ -12146,10 +12178,10 @@
         <v>1</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>7</v>
@@ -12175,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>7</v>
@@ -12204,10 +12236,10 @@
         <v>1</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>7</v>
@@ -12233,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>7</v>
@@ -12262,7 +12294,7 @@
         <v>1</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>7</v>
@@ -12291,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>7</v>
@@ -12320,10 +12352,10 @@
         <v>1</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>7</v>
@@ -12349,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>7</v>
@@ -12378,10 +12410,10 @@
         <v>1</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>7</v>
@@ -12407,10 +12439,10 @@
         <v>1</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>7</v>
@@ -12436,7 +12468,7 @@
         <v>1</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>7</v>
@@ -12465,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>7</v>
@@ -12494,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>7</v>
@@ -12523,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>7</v>
@@ -12552,7 +12584,7 @@
         <v>1</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>7</v>
@@ -12581,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>7</v>
@@ -12610,7 +12642,7 @@
         <v>1</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>7</v>
@@ -12639,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>7</v>
@@ -12668,7 +12700,7 @@
         <v>1</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>7</v>
@@ -12697,7 +12729,7 @@
         <v>1</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>7</v>
@@ -12726,7 +12758,7 @@
         <v>1</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>7</v>
@@ -12755,7 +12787,7 @@
         <v>1</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>7</v>
@@ -12784,7 +12816,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>7</v>
@@ -12813,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>7</v>
@@ -12842,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="D370" s="8" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>7</v>
@@ -12871,10 +12903,10 @@
         <v>1</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>7</v>
@@ -12900,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>7</v>
@@ -12929,7 +12961,7 @@
         <v>1</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>7</v>
@@ -12958,7 +12990,7 @@
         <v>1</v>
       </c>
       <c r="D374" s="8" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>7</v>
@@ -12987,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="D375" s="8" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>7</v>
@@ -13016,7 +13048,7 @@
         <v>1</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>7</v>
@@ -13045,10 +13077,10 @@
         <v>1</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>7</v>
@@ -13074,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="D378" s="8" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>7</v>
@@ -13103,7 +13135,7 @@
         <v>1</v>
       </c>
       <c r="D379" s="10" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>7</v>
@@ -13132,10 +13164,10 @@
         <v>1</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>7</v>
@@ -13161,7 +13193,7 @@
         <v>1</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>7</v>
@@ -13190,7 +13222,7 @@
         <v>1</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>7</v>
@@ -13219,7 +13251,7 @@
         <v>1</v>
       </c>
       <c r="D383" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>7</v>
@@ -13248,7 +13280,7 @@
         <v>1</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>7</v>
@@ -13277,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>7</v>
@@ -13306,7 +13338,7 @@
         <v>1</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>7</v>
@@ -13335,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>7</v>
@@ -13364,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>7</v>
@@ -13393,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>7</v>
@@ -13422,7 +13454,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>7</v>
@@ -13451,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>7</v>
@@ -13480,7 +13512,7 @@
         <v>1</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>7</v>
@@ -13509,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>7</v>
@@ -13538,7 +13570,7 @@
         <v>1</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>7</v>
@@ -13567,7 +13599,7 @@
         <v>1</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>7</v>
@@ -13596,7 +13628,7 @@
         <v>1</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>7</v>
@@ -13625,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>7</v>
@@ -13654,7 +13686,7 @@
         <v>1</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>7</v>
@@ -13683,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>7</v>
@@ -13712,7 +13744,7 @@
         <v>1</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>7</v>
@@ -13741,7 +13773,7 @@
         <v>1</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>7</v>
@@ -13770,7 +13802,7 @@
         <v>1</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>7</v>
@@ -13799,7 +13831,7 @@
         <v>1</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>7</v>
@@ -13828,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>7</v>
@@ -13857,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>7</v>
@@ -13886,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>7</v>
@@ -13915,7 +13947,7 @@
         <v>1</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>7</v>
@@ -13944,7 +13976,7 @@
         <v>1</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>7</v>
@@ -13973,7 +14005,7 @@
         <v>1</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>7</v>
@@ -14002,7 +14034,7 @@
         <v>1</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>7</v>
@@ -14031,7 +14063,7 @@
         <v>1</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>7</v>
@@ -14060,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>7</v>
@@ -14089,7 +14121,7 @@
         <v>1</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>7</v>
@@ -14118,7 +14150,7 @@
         <v>1</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>7</v>
@@ -14147,7 +14179,7 @@
         <v>1</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>7</v>
@@ -14176,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>7</v>
@@ -14205,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>7</v>
@@ -14234,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>7</v>
@@ -14263,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>7</v>
@@ -14292,7 +14324,7 @@
         <v>1</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>7</v>
@@ -14321,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>7</v>
@@ -14350,7 +14382,7 @@
         <v>1</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>7</v>
@@ -14379,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>7</v>
@@ -14408,7 +14440,7 @@
         <v>1</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>7</v>
@@ -14437,7 +14469,7 @@
         <v>1</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>7</v>
@@ -14466,7 +14498,7 @@
         <v>1</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>7</v>
@@ -14495,7 +14527,7 @@
         <v>1</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>7</v>
@@ -14524,7 +14556,7 @@
         <v>1</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>7</v>
@@ -14553,7 +14585,7 @@
         <v>1</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>7</v>
@@ -14582,7 +14614,7 @@
         <v>1</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>7</v>
@@ -14611,7 +14643,7 @@
         <v>1</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>7</v>
@@ -14640,7 +14672,7 @@
         <v>1</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>7</v>
@@ -14669,7 +14701,7 @@
         <v>1</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>7</v>
@@ -14698,7 +14730,7 @@
         <v>1</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>7</v>
@@ -14727,7 +14759,7 @@
         <v>1</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>7</v>
@@ -14745,7 +14777,7 @@
         <v>-100</v>
       </c>
       <c r="J435" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -14756,7 +14788,7 @@
         <v>1</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>7</v>
@@ -14785,7 +14817,7 @@
         <v>1</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>7</v>
@@ -14814,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>7</v>
@@ -14832,7 +14864,7 @@
         <v>-100</v>
       </c>
       <c r="J438" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
@@ -14843,7 +14875,7 @@
         <v>1</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>7</v>
@@ -14872,7 +14904,7 @@
         <v>1</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>7</v>
@@ -14901,7 +14933,7 @@
         <v>1</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>7</v>
@@ -14930,7 +14962,7 @@
         <v>1</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>7</v>
@@ -14948,7 +14980,7 @@
         <v>-100</v>
       </c>
       <c r="J442" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1618,10 +1618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여긴 참 이상해 흠 이쪽인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">스으으읍 있지 의미에 닌아 뜻이 의재현 는있 살고 가리우 아니라 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1682,6 +1678,10 @@
   </si>
   <si>
     <t>Character/Cat2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에휴 여긴 참 이상해 흠 이쪽인가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2061,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3945,7 +3945,7 @@
         <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
@@ -4003,7 +4003,7 @@
         <v>80</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
@@ -4061,7 +4061,7 @@
         <v>356</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
@@ -4090,7 +4090,7 @@
         <v>82</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
@@ -4177,7 +4177,7 @@
         <v>85</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>7</v>
@@ -4264,7 +4264,7 @@
         <v>88</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>7</v>
@@ -4322,7 +4322,7 @@
         <v>90</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>7</v>
@@ -4380,7 +4380,7 @@
         <v>92</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>7</v>
@@ -4438,7 +4438,7 @@
         <v>94</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>7</v>
@@ -4467,7 +4467,7 @@
         <v>95</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>7</v>
@@ -4496,7 +4496,7 @@
         <v>96</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>7</v>
@@ -4554,7 +4554,7 @@
         <v>357</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>7</v>
@@ -4583,7 +4583,7 @@
         <v>122</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>7</v>
@@ -4641,7 +4641,7 @@
         <v>378</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
@@ -4699,7 +4699,7 @@
         <v>99</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>7</v>
@@ -4757,7 +4757,7 @@
         <v>359</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>7</v>
@@ -4815,7 +4815,7 @@
         <v>458</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>7</v>
@@ -4844,7 +4844,7 @@
         <v>358</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>7</v>
@@ -4902,7 +4902,7 @@
         <v>457</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>7</v>
@@ -4931,7 +4931,7 @@
         <v>451</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>7</v>
@@ -5946,7 +5946,7 @@
         <v>459</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>7</v>
@@ -5975,7 +5975,7 @@
         <v>460</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>7</v>
@@ -6033,7 +6033,7 @@
         <v>132</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>7</v>
@@ -6062,7 +6062,7 @@
         <v>133</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>7</v>
@@ -6120,7 +6120,7 @@
         <v>134</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>7</v>
@@ -6178,7 +6178,7 @@
         <v>136</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>7</v>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>455</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>456</v>
@@ -6842,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>456</v>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>455</v>
@@ -7019,7 +7019,7 @@
         <v>163</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>7</v>
@@ -7048,7 +7048,7 @@
         <v>164</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>7</v>
@@ -7077,7 +7077,7 @@
         <v>165</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>7</v>
@@ -7106,7 +7106,7 @@
         <v>166</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>7</v>
@@ -7135,7 +7135,7 @@
         <v>167</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>7</v>
@@ -7193,7 +7193,7 @@
         <v>169</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>7</v>
@@ -7222,7 +7222,7 @@
         <v>170</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>7</v>
@@ -7251,7 +7251,7 @@
         <v>171</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>7</v>
@@ -7309,7 +7309,7 @@
         <v>173</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>7</v>
@@ -7338,7 +7338,7 @@
         <v>174</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>7</v>
@@ -7425,7 +7425,7 @@
         <v>177</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>7</v>
@@ -7454,7 +7454,7 @@
         <v>178</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>7</v>
@@ -7480,10 +7480,10 @@
         <v>0</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>7</v>
@@ -7509,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>7</v>
@@ -7570,7 +7570,7 @@
         <v>180</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>7</v>
@@ -7628,7 +7628,7 @@
         <v>182</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>7</v>
@@ -7654,10 +7654,10 @@
         <v>0</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>7</v>
@@ -7683,10 +7683,10 @@
         <v>0</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>7</v>
@@ -7712,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>375</v>
@@ -7831,7 +7831,7 @@
         <v>186</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>7</v>
@@ -7860,7 +7860,7 @@
         <v>187</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>7</v>
@@ -7889,7 +7889,7 @@
         <v>188</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>7</v>
@@ -7918,7 +7918,7 @@
         <v>189</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>7</v>
@@ -7947,7 +7947,7 @@
         <v>190</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>7</v>
@@ -7976,7 +7976,7 @@
         <v>186</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>7</v>
@@ -8005,7 +8005,7 @@
         <v>191</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>7</v>
@@ -8034,7 +8034,7 @@
         <v>187</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>7</v>
@@ -8063,7 +8063,7 @@
         <v>192</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>7</v>
@@ -8092,7 +8092,7 @@
         <v>193</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>7</v>
@@ -8121,7 +8121,7 @@
         <v>194</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>7</v>
@@ -8150,7 +8150,7 @@
         <v>195</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>7</v>
@@ -8208,7 +8208,7 @@
         <v>196</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>7</v>
@@ -8237,7 +8237,7 @@
         <v>197</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>7</v>
@@ -8295,7 +8295,7 @@
         <v>199</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>7</v>
@@ -8324,7 +8324,7 @@
         <v>200</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>7</v>
@@ -8353,7 +8353,7 @@
         <v>201</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>7</v>
@@ -8440,7 +8440,7 @@
         <v>203</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>7</v>
@@ -8469,7 +8469,7 @@
         <v>204</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>7</v>
@@ -8498,7 +8498,7 @@
         <v>205</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>7</v>
@@ -8527,7 +8527,7 @@
         <v>206</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>7</v>
@@ -8556,7 +8556,7 @@
         <v>207</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>7</v>
@@ -8614,7 +8614,7 @@
         <v>208</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>7</v>
@@ -8643,7 +8643,7 @@
         <v>209</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>7</v>
@@ -8730,7 +8730,7 @@
         <v>212</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>7</v>
@@ -8759,7 +8759,7 @@
         <v>381</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>7</v>
@@ -8788,7 +8788,7 @@
         <v>382</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>7</v>
@@ -8817,7 +8817,7 @@
         <v>353</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>7</v>
@@ -8846,7 +8846,7 @@
         <v>213</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>7</v>
@@ -8904,7 +8904,7 @@
         <v>215</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>7</v>
@@ -8962,7 +8962,7 @@
         <v>217</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>7</v>
@@ -9223,7 +9223,7 @@
         <v>225</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>7</v>
@@ -9310,7 +9310,7 @@
         <v>228</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>7</v>
@@ -9339,7 +9339,7 @@
         <v>229</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>7</v>
@@ -9455,7 +9455,7 @@
         <v>233</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>7</v>
@@ -9513,7 +9513,7 @@
         <v>235</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>7</v>
@@ -9542,7 +9542,7 @@
         <v>236</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>7</v>
@@ -9571,7 +9571,7 @@
         <v>237</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>7</v>
@@ -9629,7 +9629,7 @@
         <v>239</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>7</v>
@@ -9658,7 +9658,7 @@
         <v>240</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         <v>241</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>7</v>
@@ -9716,7 +9716,7 @@
         <v>242</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>7</v>
@@ -9745,7 +9745,7 @@
         <v>243</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>7</v>
@@ -9803,7 +9803,7 @@
         <v>245</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>7</v>
@@ -9832,7 +9832,7 @@
         <v>246</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>7</v>
@@ -9861,7 +9861,7 @@
         <v>247</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>7</v>
@@ -9919,7 +9919,7 @@
         <v>367</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>7</v>
@@ -10064,7 +10064,7 @@
         <v>369</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>7</v>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="494">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -901,12 +901,6 @@
     <t>여왕님이다!</t>
   </si>
   <si>
-    <t>어서 절해 소녀야</t>
-  </si>
-  <si>
-    <t>빨리 엎드려</t>
-  </si>
-  <si>
     <t>아니면 너도 목을 잃게될꺼야!</t>
   </si>
   <si>
@@ -916,9 +910,6 @@
     <t>정렬!</t>
   </si>
   <si>
-    <t>잭</t>
-  </si>
-  <si>
     <t>헉헉</t>
   </si>
   <si>
@@ -929,9 +920,6 @@
   </si>
   <si>
     <t>위대하신 하트의 여왕님 만세</t>
-  </si>
-  <si>
-    <t>아닙니다 폐하 하트1이 그랬습니다</t>
   </si>
   <si>
     <t>모두 닥쳐라!!!</t>
@@ -1095,18 +1083,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>너였나? 하트3?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여왕폐하 제가 아닙니다! 하트2! 하트2가 그랬습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 정말 아닙니다 하트3ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우와아아아아아아!!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1682,6 +1658,98 @@
   </si>
   <si>
     <t>에휴 여긴 참 이상해 흠 이쪽인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/card1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/card2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/card3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/HQ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 절해 소녀야 빨리 엎드려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/chj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/HQ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너였나? 스페이드3?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여왕폐하 제가 아닙니다! 스페이드2! 스페이드2가 그랬습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아닙니다 폐하 스페이드1이 그랬습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 정말 아닙니다 스페이드3ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2061,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView tabSelected="1" topLeftCell="A305" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H327" sqref="H327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2123,7 +2191,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>43</v>
@@ -2155,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -2187,7 +2255,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -2219,7 +2287,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -2251,7 +2319,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -2313,7 +2381,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -2345,7 +2413,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -2377,7 +2445,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -2409,7 +2477,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -2441,7 +2509,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -2473,7 +2541,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -2505,7 +2573,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -2537,7 +2605,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -2569,7 +2637,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -2631,7 +2699,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -2663,7 +2731,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2695,7 +2763,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>36</v>
@@ -2727,7 +2795,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
@@ -2759,7 +2827,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -2791,7 +2859,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>52</v>
@@ -2823,7 +2891,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>36</v>
@@ -2855,7 +2923,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>36</v>
@@ -2917,7 +2985,7 @@
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>36</v>
@@ -2949,7 +3017,7 @@
         <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>36</v>
@@ -2981,7 +3049,7 @@
         <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
@@ -3013,7 +3081,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>36</v>
@@ -3075,7 +3143,7 @@
         <v>54</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>36</v>
@@ -3133,7 +3201,7 @@
         <v>56</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>7</v>
@@ -3162,7 +3230,7 @@
         <v>57</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -3191,7 +3259,7 @@
         <v>58</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>7</v>
@@ -3220,7 +3288,7 @@
         <v>59</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>7</v>
@@ -3249,7 +3317,7 @@
         <v>60</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>7</v>
@@ -3278,7 +3346,7 @@
         <v>61</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>7</v>
@@ -3307,7 +3375,7 @@
         <v>62</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>7</v>
@@ -3336,7 +3404,7 @@
         <v>63</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>7</v>
@@ -3365,7 +3433,7 @@
         <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>7</v>
@@ -3394,7 +3462,7 @@
         <v>65</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>7</v>
@@ -3423,7 +3491,7 @@
         <v>66</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>7</v>
@@ -3452,7 +3520,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>7</v>
@@ -3481,7 +3549,7 @@
         <v>68</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>7</v>
@@ -3510,7 +3578,7 @@
         <v>69</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -3539,7 +3607,7 @@
         <v>70</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>7</v>
@@ -3568,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>7</v>
@@ -3597,7 +3665,7 @@
         <v>72</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>7</v>
@@ -3626,7 +3694,7 @@
         <v>55</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>7</v>
@@ -3655,7 +3723,7 @@
         <v>73</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>7</v>
@@ -3684,7 +3752,7 @@
         <v>60</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>7</v>
@@ -3713,7 +3781,7 @@
         <v>74</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>7</v>
@@ -3742,7 +3810,7 @@
         <v>75</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>7</v>
@@ -3771,7 +3839,7 @@
         <v>76</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
@@ -3800,7 +3868,7 @@
         <v>77</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
@@ -3858,7 +3926,7 @@
         <v>119</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>7</v>
@@ -3887,7 +3955,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
@@ -3916,7 +3984,7 @@
         <v>121</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
@@ -3945,7 +4013,7 @@
         <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
@@ -3974,7 +4042,7 @@
         <v>79</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
@@ -4003,7 +4071,7 @@
         <v>80</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
@@ -4032,7 +4100,7 @@
         <v>81</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
@@ -4058,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
@@ -4090,7 +4158,7 @@
         <v>82</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
@@ -4119,7 +4187,7 @@
         <v>83</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>7</v>
@@ -4148,7 +4216,7 @@
         <v>84</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>7</v>
@@ -4177,7 +4245,7 @@
         <v>85</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>7</v>
@@ -4206,7 +4274,7 @@
         <v>86</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>7</v>
@@ -4235,7 +4303,7 @@
         <v>87</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>7</v>
@@ -4264,7 +4332,7 @@
         <v>88</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>7</v>
@@ -4293,7 +4361,7 @@
         <v>89</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>7</v>
@@ -4322,7 +4390,7 @@
         <v>90</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>7</v>
@@ -4351,7 +4419,7 @@
         <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>7</v>
@@ -4380,7 +4448,7 @@
         <v>92</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>7</v>
@@ -4409,7 +4477,7 @@
         <v>93</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>7</v>
@@ -4438,7 +4506,7 @@
         <v>94</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>7</v>
@@ -4467,7 +4535,7 @@
         <v>95</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>7</v>
@@ -4496,7 +4564,7 @@
         <v>96</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>7</v>
@@ -4522,10 +4590,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>7</v>
@@ -4551,10 +4619,10 @@
         <v>0</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>7</v>
@@ -4583,7 +4651,7 @@
         <v>122</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>7</v>
@@ -4612,7 +4680,7 @@
         <v>97</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>7</v>
@@ -4638,10 +4706,10 @@
         <v>0</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
@@ -4670,7 +4738,7 @@
         <v>98</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>7</v>
@@ -4699,7 +4767,7 @@
         <v>99</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>7</v>
@@ -4728,7 +4796,7 @@
         <v>123</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>7</v>
@@ -4754,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>7</v>
@@ -4783,10 +4851,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>7</v>
@@ -4812,10 +4880,10 @@
         <v>0</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>7</v>
@@ -4841,10 +4909,10 @@
         <v>0</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>7</v>
@@ -4873,7 +4941,7 @@
         <v>124</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>7</v>
@@ -4899,10 +4967,10 @@
         <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>7</v>
@@ -4928,10 +4996,10 @@
         <v>0</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>7</v>
@@ -4960,7 +5028,7 @@
         <v>100</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>7</v>
@@ -4989,7 +5057,7 @@
         <v>101</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>7</v>
@@ -5015,10 +5083,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>7</v>
@@ -5047,7 +5115,7 @@
         <v>102</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>7</v>
@@ -5073,10 +5141,10 @@
         <v>0</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>7</v>
@@ -5105,7 +5173,7 @@
         <v>103</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>7</v>
@@ -5134,7 +5202,7 @@
         <v>125</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>7</v>
@@ -5160,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>7</v>
@@ -5192,7 +5260,7 @@
         <v>126</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>7</v>
@@ -5221,7 +5289,7 @@
         <v>124</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>7</v>
@@ -5250,7 +5318,7 @@
         <v>104</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>7</v>
@@ -5279,7 +5347,7 @@
         <v>105</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>7</v>
@@ -5308,7 +5376,7 @@
         <v>106</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>7</v>
@@ -5337,7 +5405,7 @@
         <v>107</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>7</v>
@@ -5366,7 +5434,7 @@
         <v>108</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>7</v>
@@ -5395,7 +5463,7 @@
         <v>109</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>7</v>
@@ -5424,7 +5492,7 @@
         <v>110</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>7</v>
@@ -5453,7 +5521,7 @@
         <v>111</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>7</v>
@@ -5482,7 +5550,7 @@
         <v>127</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>7</v>
@@ -5511,7 +5579,7 @@
         <v>128</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>7</v>
@@ -5569,7 +5637,7 @@
         <v>113</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>7</v>
@@ -5598,7 +5666,7 @@
         <v>114</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>7</v>
@@ -5627,7 +5695,7 @@
         <v>115</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
@@ -5656,7 +5724,7 @@
         <v>116</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>7</v>
@@ -5685,7 +5753,7 @@
         <v>117</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>7</v>
@@ -5714,7 +5782,7 @@
         <v>118</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>7</v>
@@ -5740,10 +5808,10 @@
         <v>0</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>7</v>
@@ -5769,10 +5837,10 @@
         <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>7</v>
@@ -5798,10 +5866,10 @@
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>7</v>
@@ -5827,10 +5895,10 @@
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>7</v>
@@ -5859,7 +5927,7 @@
         <v>161</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>7</v>
@@ -5888,7 +5956,7 @@
         <v>129</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>7</v>
@@ -5917,7 +5985,7 @@
         <v>130</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>7</v>
@@ -5943,10 +6011,10 @@
         <v>0</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>7</v>
@@ -5972,10 +6040,10 @@
         <v>0</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>7</v>
@@ -6004,7 +6072,7 @@
         <v>131</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>7</v>
@@ -6033,7 +6101,7 @@
         <v>132</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>7</v>
@@ -6062,7 +6130,7 @@
         <v>133</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>7</v>
@@ -6091,7 +6159,7 @@
         <v>162</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>7</v>
@@ -6120,7 +6188,7 @@
         <v>134</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>7</v>
@@ -6149,7 +6217,7 @@
         <v>135</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>7</v>
@@ -6178,7 +6246,7 @@
         <v>136</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>7</v>
@@ -6207,7 +6275,7 @@
         <v>158</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>7</v>
@@ -6236,7 +6304,7 @@
         <v>159</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>7</v>
@@ -6265,7 +6333,7 @@
         <v>137</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>7</v>
@@ -6294,7 +6362,7 @@
         <v>138</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>7</v>
@@ -6323,7 +6391,7 @@
         <v>139</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>7</v>
@@ -6349,10 +6417,10 @@
         <v>0</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>7</v>
@@ -6378,10 +6446,10 @@
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>7</v>
@@ -6410,7 +6478,7 @@
         <v>140</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>7</v>
@@ -6439,7 +6507,7 @@
         <v>160</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>7</v>
@@ -6468,7 +6536,7 @@
         <v>141</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>7</v>
@@ -6497,7 +6565,7 @@
         <v>142</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>7</v>
@@ -6526,7 +6594,7 @@
         <v>143</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>7</v>
@@ -6555,7 +6623,7 @@
         <v>144</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>7</v>
@@ -6584,7 +6652,7 @@
         <v>145</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>7</v>
@@ -6613,7 +6681,7 @@
         <v>146</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>7</v>
@@ -6642,7 +6710,7 @@
         <v>147</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>7</v>
@@ -6657,7 +6725,7 @@
         <v>-100</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6671,7 +6739,7 @@
         <v>148</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>7</v>
@@ -6700,7 +6768,7 @@
         <v>149</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>7</v>
@@ -6729,7 +6797,7 @@
         <v>150</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>7</v>
@@ -6758,7 +6826,7 @@
         <v>151</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>7</v>
@@ -6787,7 +6855,7 @@
         <v>152</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>7</v>
@@ -6816,7 +6884,7 @@
         <v>153</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>7</v>
@@ -6842,10 +6910,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>7</v>
@@ -6871,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>7</v>
@@ -6903,7 +6971,7 @@
         <v>154</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>7</v>
@@ -6932,7 +7000,7 @@
         <v>155</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>7</v>
@@ -6961,7 +7029,7 @@
         <v>156</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>7</v>
@@ -6990,7 +7058,7 @@
         <v>157</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>7</v>
@@ -7005,7 +7073,7 @@
         <v>-100</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -7019,7 +7087,7 @@
         <v>163</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>7</v>
@@ -7048,7 +7116,7 @@
         <v>164</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>7</v>
@@ -7077,7 +7145,7 @@
         <v>165</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>7</v>
@@ -7106,7 +7174,7 @@
         <v>166</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>7</v>
@@ -7135,7 +7203,7 @@
         <v>167</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>7</v>
@@ -7164,7 +7232,7 @@
         <v>168</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>7</v>
@@ -7193,7 +7261,7 @@
         <v>169</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>7</v>
@@ -7222,7 +7290,7 @@
         <v>170</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>7</v>
@@ -7251,7 +7319,7 @@
         <v>171</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>7</v>
@@ -7280,7 +7348,7 @@
         <v>172</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>7</v>
@@ -7309,7 +7377,7 @@
         <v>173</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>7</v>
@@ -7338,7 +7406,7 @@
         <v>174</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>7</v>
@@ -7367,7 +7435,7 @@
         <v>175</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>7</v>
@@ -7396,7 +7464,7 @@
         <v>176</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>7</v>
@@ -7425,7 +7493,7 @@
         <v>177</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>7</v>
@@ -7454,7 +7522,7 @@
         <v>178</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>7</v>
@@ -7480,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>7</v>
@@ -7509,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="D185" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>7</v>
@@ -7541,7 +7609,7 @@
         <v>179</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>7</v>
@@ -7570,7 +7638,7 @@
         <v>180</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>7</v>
@@ -7599,7 +7667,7 @@
         <v>181</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>7</v>
@@ -7628,7 +7696,7 @@
         <v>182</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>7</v>
@@ -7654,10 +7722,10 @@
         <v>0</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>7</v>
@@ -7683,10 +7751,10 @@
         <v>0</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>7</v>
@@ -7712,10 +7780,10 @@
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>7</v>
@@ -7773,7 +7841,7 @@
         <v>184</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>7</v>
@@ -7802,7 +7870,7 @@
         <v>185</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>7</v>
@@ -7831,7 +7899,7 @@
         <v>186</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>7</v>
@@ -7860,7 +7928,7 @@
         <v>187</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>7</v>
@@ -7889,7 +7957,7 @@
         <v>188</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>7</v>
@@ -7918,7 +7986,7 @@
         <v>189</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>7</v>
@@ -7947,7 +8015,7 @@
         <v>190</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>7</v>
@@ -7976,7 +8044,7 @@
         <v>186</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>7</v>
@@ -8005,7 +8073,7 @@
         <v>191</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>7</v>
@@ -8034,7 +8102,7 @@
         <v>187</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>7</v>
@@ -8063,7 +8131,7 @@
         <v>192</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>7</v>
@@ -8092,7 +8160,7 @@
         <v>193</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>7</v>
@@ -8121,7 +8189,7 @@
         <v>194</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>7</v>
@@ -8150,7 +8218,7 @@
         <v>195</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>7</v>
@@ -8176,10 +8244,10 @@
         <v>1</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>7</v>
@@ -8208,7 +8276,7 @@
         <v>196</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>7</v>
@@ -8237,7 +8305,7 @@
         <v>197</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>7</v>
@@ -8266,7 +8334,7 @@
         <v>198</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>7</v>
@@ -8295,7 +8363,7 @@
         <v>199</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>7</v>
@@ -8324,7 +8392,7 @@
         <v>200</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>7</v>
@@ -8353,7 +8421,7 @@
         <v>201</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>7</v>
@@ -8379,10 +8447,10 @@
         <v>1</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>7</v>
@@ -8411,7 +8479,7 @@
         <v>202</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>7</v>
@@ -8440,7 +8508,7 @@
         <v>203</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>7</v>
@@ -8469,7 +8537,7 @@
         <v>204</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>7</v>
@@ -8498,7 +8566,7 @@
         <v>205</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>7</v>
@@ -8527,7 +8595,7 @@
         <v>206</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>7</v>
@@ -8556,7 +8624,7 @@
         <v>207</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>7</v>
@@ -8582,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>7</v>
@@ -8614,7 +8682,7 @@
         <v>208</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>7</v>
@@ -8643,7 +8711,7 @@
         <v>209</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>7</v>
@@ -8701,7 +8769,7 @@
         <v>211</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>7</v>
@@ -8730,7 +8798,7 @@
         <v>212</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>7</v>
@@ -8756,10 +8824,10 @@
         <v>1</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>7</v>
@@ -8785,10 +8853,10 @@
         <v>1</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>7</v>
@@ -8814,10 +8882,10 @@
         <v>1</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>7</v>
@@ -8846,7 +8914,7 @@
         <v>213</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>7</v>
@@ -8875,7 +8943,7 @@
         <v>214</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>7</v>
@@ -8904,7 +8972,7 @@
         <v>215</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>7</v>
@@ -8933,7 +9001,7 @@
         <v>216</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>7</v>
@@ -8962,7 +9030,7 @@
         <v>217</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>7</v>
@@ -8991,7 +9059,7 @@
         <v>218</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>7</v>
@@ -9020,7 +9088,7 @@
         <v>219</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>7</v>
@@ -9049,7 +9117,7 @@
         <v>220</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>7</v>
@@ -9078,7 +9146,7 @@
         <v>221</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>7</v>
@@ -9104,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>7</v>
@@ -9136,7 +9204,7 @@
         <v>222</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>7</v>
@@ -9165,7 +9233,7 @@
         <v>223</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>7</v>
@@ -9194,7 +9262,7 @@
         <v>224</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>7</v>
@@ -9223,7 +9291,7 @@
         <v>225</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>7</v>
@@ -9252,7 +9320,7 @@
         <v>226</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>7</v>
@@ -9281,7 +9349,7 @@
         <v>227</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>7</v>
@@ -9310,7 +9378,7 @@
         <v>228</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>7</v>
@@ -9339,7 +9407,7 @@
         <v>229</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>7</v>
@@ -9368,7 +9436,7 @@
         <v>230</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>7</v>
@@ -9397,7 +9465,7 @@
         <v>231</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>7</v>
@@ -9426,7 +9494,7 @@
         <v>232</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>7</v>
@@ -9455,7 +9523,7 @@
         <v>233</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>7</v>
@@ -9484,7 +9552,7 @@
         <v>234</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>7</v>
@@ -9513,7 +9581,7 @@
         <v>235</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>7</v>
@@ -9542,7 +9610,7 @@
         <v>236</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>7</v>
@@ -9571,7 +9639,7 @@
         <v>237</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>7</v>
@@ -9600,7 +9668,7 @@
         <v>238</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>7</v>
@@ -9629,7 +9697,7 @@
         <v>239</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>7</v>
@@ -9658,7 +9726,7 @@
         <v>240</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>7</v>
@@ -9687,7 +9755,7 @@
         <v>241</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>7</v>
@@ -9716,7 +9784,7 @@
         <v>242</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>7</v>
@@ -9745,7 +9813,7 @@
         <v>243</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>7</v>
@@ -9774,7 +9842,7 @@
         <v>244</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>7</v>
@@ -9803,7 +9871,7 @@
         <v>245</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>7</v>
@@ -9832,7 +9900,7 @@
         <v>246</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>7</v>
@@ -9861,7 +9929,7 @@
         <v>247</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>7</v>
@@ -9890,7 +9958,7 @@
         <v>248</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>7</v>
@@ -9916,10 +9984,10 @@
         <v>1</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>7</v>
@@ -9945,10 +10013,10 @@
         <v>1</v>
       </c>
       <c r="D269" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E269" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>7</v>
@@ -9974,10 +10042,10 @@
         <v>1</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>7</v>
@@ -10003,10 +10071,10 @@
         <v>1</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>7</v>
@@ -10032,10 +10100,10 @@
         <v>1</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>7</v>
@@ -10061,10 +10129,10 @@
         <v>1</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>7</v>
@@ -10090,10 +10158,10 @@
         <v>1</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>7</v>
@@ -10119,10 +10187,10 @@
         <v>1</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>7</v>
@@ -10137,7 +10205,7 @@
         <v>-100</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -10148,10 +10216,10 @@
         <v>1</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>7</v>
@@ -10166,7 +10234,7 @@
         <v>-100</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -10180,7 +10248,7 @@
         <v>249</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>7</v>
@@ -10209,7 +10277,7 @@
         <v>250</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>7</v>
@@ -10238,7 +10306,7 @@
         <v>251</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>7</v>
+        <v>471</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>7</v>
@@ -10267,7 +10335,7 @@
         <v>252</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>7</v>
@@ -10293,10 +10361,10 @@
         <v>1</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>7</v>
@@ -10322,10 +10390,10 @@
         <v>1</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>7</v>
+        <v>471</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>7</v>
@@ -10354,7 +10422,7 @@
         <v>253</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>7</v>
@@ -10383,7 +10451,7 @@
         <v>254</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>7</v>
+        <v>471</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>7</v>
@@ -10412,7 +10480,7 @@
         <v>255</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>7</v>
@@ -10438,10 +10506,10 @@
         <v>1</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>7</v>
@@ -10470,7 +10538,7 @@
         <v>256</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>7</v>
+        <v>471</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>7</v>
@@ -10499,7 +10567,7 @@
         <v>257</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>7</v>
@@ -10528,7 +10596,7 @@
         <v>258</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>7</v>
@@ -10557,7 +10625,7 @@
         <v>259</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>7</v>
@@ -10586,7 +10654,7 @@
         <v>260</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>7</v>
@@ -10612,10 +10680,10 @@
         <v>1</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>7</v>
+        <v>471</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>7</v>
@@ -10644,7 +10712,7 @@
         <v>261</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>7</v>
@@ -10673,7 +10741,7 @@
         <v>262</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>7</v>
@@ -10702,7 +10770,7 @@
         <v>263</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>7</v>
+        <v>471</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>7</v>
@@ -10728,10 +10796,10 @@
         <v>1</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>7</v>
@@ -10757,10 +10825,10 @@
         <v>1</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>7</v>
@@ -10786,10 +10854,10 @@
         <v>1</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>7</v>
@@ -10815,10 +10883,10 @@
         <v>1</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>7</v>
@@ -10843,11 +10911,11 @@
       <c r="B300" s="1">
         <v>1</v>
       </c>
-      <c r="D300" s="8" t="s">
-        <v>268</v>
+      <c r="D300" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>7</v>
+        <v>475</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>7</v>
@@ -10873,10 +10941,10 @@
         <v>1</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>7</v>
+        <v>476</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>7</v>
@@ -10902,10 +10970,10 @@
         <v>1</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>7</v>
+        <v>477</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>7</v>
@@ -10931,10 +10999,10 @@
         <v>1</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>7</v>
+        <v>478</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>7</v>
@@ -10960,10 +11028,10 @@
         <v>1</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>7</v>
+        <v>479</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>7</v>
@@ -10989,10 +11057,10 @@
         <v>1</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>7</v>
+        <v>480</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>7</v>
@@ -11018,10 +11086,10 @@
         <v>1</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>7</v>
+        <v>481</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>7</v>
@@ -11047,10 +11115,10 @@
         <v>1</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>7</v>
+        <v>482</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>7</v>
@@ -11076,10 +11144,10 @@
         <v>1</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>7</v>
+        <v>483</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>7</v>
@@ -11105,10 +11173,10 @@
         <v>1</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>352</v>
+        <v>485</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>7</v>
+        <v>484</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>7</v>
@@ -11134,10 +11202,10 @@
         <v>1</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>269</v>
+        <v>487</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>7</v>
+        <v>488</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>7</v>
@@ -11163,10 +11231,10 @@
         <v>1</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>7</v>
@@ -11192,10 +11260,10 @@
         <v>1</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>7</v>
@@ -11221,10 +11289,10 @@
         <v>1</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>7</v>
@@ -11250,10 +11318,10 @@
         <v>1</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>7</v>
@@ -11279,10 +11347,10 @@
         <v>1</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>7</v>
@@ -11308,10 +11376,10 @@
         <v>1</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>7</v>
+        <v>488</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>7</v>
@@ -11337,10 +11405,10 @@
         <v>1</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>7</v>
+        <v>480</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>7</v>
@@ -11366,10 +11434,10 @@
         <v>1</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>7</v>
+        <v>478</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>7</v>
@@ -11395,10 +11463,10 @@
         <v>1</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>7</v>
+        <v>489</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>7</v>
@@ -11424,10 +11492,10 @@
         <v>1</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>7</v>
+        <v>489</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>7</v>
@@ -11453,10 +11521,10 @@
         <v>1</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>7</v>
+        <v>489</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>7</v>
@@ -11482,10 +11550,10 @@
         <v>1</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>7</v>
+        <v>489</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>7</v>
@@ -11511,10 +11579,10 @@
         <v>1</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>7</v>
+        <v>489</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>7</v>
@@ -11540,10 +11608,10 @@
         <v>1</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>7</v>
+        <v>489</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>7</v>
@@ -11569,10 +11637,10 @@
         <v>1</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>7</v>
+        <v>489</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>7</v>
@@ -11598,10 +11666,10 @@
         <v>1</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>325</v>
+        <v>490</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>7</v>
+        <v>489</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>7</v>
@@ -11627,7 +11695,7 @@
         <v>1</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>326</v>
+        <v>491</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>7</v>
@@ -11656,7 +11724,7 @@
         <v>1</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>274</v>
+        <v>492</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>7</v>
@@ -11685,10 +11753,10 @@
         <v>1</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>327</v>
+        <v>493</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>7</v>
+        <v>471</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>7</v>
@@ -11714,7 +11782,7 @@
         <v>1</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>7</v>
@@ -11743,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>7</v>
@@ -11772,7 +11840,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>7</v>
@@ -11801,7 +11869,7 @@
         <v>1</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>7</v>
@@ -11830,7 +11898,7 @@
         <v>1</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>7</v>
@@ -11859,7 +11927,7 @@
         <v>1</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>7</v>
@@ -11888,10 +11956,10 @@
         <v>1</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>7</v>
@@ -11917,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>7</v>
@@ -11946,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>7</v>
@@ -11975,7 +12043,7 @@
         <v>1</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>7</v>
@@ -12004,10 +12072,10 @@
         <v>1</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>7</v>
@@ -12033,7 +12101,7 @@
         <v>1</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>7</v>
@@ -12062,10 +12130,10 @@
         <v>1</v>
       </c>
       <c r="D342" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>7</v>
@@ -12091,7 +12159,7 @@
         <v>1</v>
       </c>
       <c r="D343" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>7</v>
@@ -12120,10 +12188,10 @@
         <v>1</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>7</v>
@@ -12149,7 +12217,7 @@
         <v>1</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>7</v>
@@ -12178,10 +12246,10 @@
         <v>1</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>7</v>
@@ -12207,7 +12275,7 @@
         <v>1</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>7</v>
@@ -12236,10 +12304,10 @@
         <v>1</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>7</v>
@@ -12265,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>7</v>
@@ -12294,7 +12362,7 @@
         <v>1</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>7</v>
@@ -12323,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>7</v>
@@ -12352,10 +12420,10 @@
         <v>1</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>7</v>
@@ -12381,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>7</v>
@@ -12410,10 +12478,10 @@
         <v>1</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>7</v>
@@ -12439,10 +12507,10 @@
         <v>1</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>7</v>
@@ -12468,7 +12536,7 @@
         <v>1</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>7</v>
@@ -12497,7 +12565,7 @@
         <v>1</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>7</v>
@@ -12526,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>7</v>
@@ -12555,7 +12623,7 @@
         <v>1</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>7</v>
@@ -12584,7 +12652,7 @@
         <v>1</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>7</v>
@@ -12613,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>7</v>
@@ -12642,7 +12710,7 @@
         <v>1</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>7</v>
@@ -12671,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>7</v>
@@ -12700,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>7</v>
@@ -12729,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>7</v>
@@ -12758,7 +12826,7 @@
         <v>1</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>7</v>
@@ -12787,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>7</v>
@@ -12816,7 +12884,7 @@
         <v>1</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>7</v>
@@ -12845,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>7</v>
@@ -12874,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="D370" s="8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>7</v>
@@ -12903,10 +12971,10 @@
         <v>1</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>7</v>
@@ -12932,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>7</v>
@@ -12961,7 +13029,7 @@
         <v>1</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>7</v>
@@ -12990,7 +13058,7 @@
         <v>1</v>
       </c>
       <c r="D374" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>7</v>
@@ -13019,7 +13087,7 @@
         <v>1</v>
       </c>
       <c r="D375" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>7</v>
@@ -13048,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>7</v>
@@ -13077,10 +13145,10 @@
         <v>1</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>7</v>
@@ -13106,7 +13174,7 @@
         <v>1</v>
       </c>
       <c r="D378" s="8" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>7</v>
@@ -13135,7 +13203,7 @@
         <v>1</v>
       </c>
       <c r="D379" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>7</v>
@@ -13164,10 +13232,10 @@
         <v>1</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>7</v>
@@ -13193,7 +13261,7 @@
         <v>1</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>7</v>
@@ -13222,7 +13290,7 @@
         <v>1</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>7</v>
@@ -13251,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="D383" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>7</v>
@@ -13280,7 +13348,7 @@
         <v>1</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>7</v>
@@ -13309,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>7</v>
@@ -13338,7 +13406,7 @@
         <v>1</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>7</v>
@@ -13367,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>7</v>
@@ -13396,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>7</v>
@@ -13425,7 +13493,7 @@
         <v>1</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>7</v>
@@ -13454,7 +13522,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>7</v>
@@ -13483,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>7</v>
@@ -13512,7 +13580,7 @@
         <v>1</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>7</v>
@@ -13541,7 +13609,7 @@
         <v>1</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>7</v>
@@ -13570,7 +13638,7 @@
         <v>1</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>7</v>
@@ -13599,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>7</v>
@@ -13628,7 +13696,7 @@
         <v>1</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>7</v>
@@ -13657,7 +13725,7 @@
         <v>1</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>7</v>
@@ -13686,7 +13754,7 @@
         <v>1</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>7</v>
@@ -13715,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>7</v>
@@ -13744,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>7</v>
@@ -13773,7 +13841,7 @@
         <v>1</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>7</v>
@@ -13802,7 +13870,7 @@
         <v>1</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>7</v>
@@ -13831,7 +13899,7 @@
         <v>1</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>7</v>
@@ -13860,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>7</v>
@@ -13889,7 +13957,7 @@
         <v>1</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>7</v>
@@ -13918,7 +13986,7 @@
         <v>1</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>7</v>
@@ -13947,7 +14015,7 @@
         <v>1</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>7</v>
@@ -13976,7 +14044,7 @@
         <v>1</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>7</v>
@@ -14005,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>7</v>
@@ -14034,7 +14102,7 @@
         <v>1</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>7</v>
@@ -14063,7 +14131,7 @@
         <v>1</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>7</v>
@@ -14092,7 +14160,7 @@
         <v>1</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>7</v>
@@ -14121,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>7</v>
@@ -14150,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>7</v>
@@ -14179,7 +14247,7 @@
         <v>1</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>7</v>
@@ -14208,7 +14276,7 @@
         <v>1</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>7</v>
@@ -14237,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>7</v>
@@ -14266,7 +14334,7 @@
         <v>1</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>7</v>
@@ -14295,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>7</v>
@@ -14324,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>7</v>
@@ -14353,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>7</v>
@@ -14382,7 +14450,7 @@
         <v>1</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>7</v>
@@ -14411,7 +14479,7 @@
         <v>1</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>7</v>
@@ -14440,7 +14508,7 @@
         <v>1</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>7</v>
@@ -14469,7 +14537,7 @@
         <v>1</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>7</v>
@@ -14498,7 +14566,7 @@
         <v>1</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>7</v>
@@ -14527,7 +14595,7 @@
         <v>1</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>7</v>
@@ -14556,7 +14624,7 @@
         <v>1</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>7</v>
@@ -14585,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>7</v>
@@ -14614,7 +14682,7 @@
         <v>1</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>7</v>
@@ -14643,7 +14711,7 @@
         <v>1</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>7</v>
@@ -14672,7 +14740,7 @@
         <v>1</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>7</v>
@@ -14701,7 +14769,7 @@
         <v>1</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>7</v>
@@ -14730,7 +14798,7 @@
         <v>1</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>7</v>
@@ -14759,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>7</v>
@@ -14777,7 +14845,7 @@
         <v>-100</v>
       </c>
       <c r="J435" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -14788,7 +14856,7 @@
         <v>1</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>7</v>
@@ -14817,7 +14885,7 @@
         <v>1</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>7</v>
@@ -14846,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>7</v>
@@ -14864,7 +14932,7 @@
         <v>-100</v>
       </c>
       <c r="J438" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
@@ -14875,7 +14943,7 @@
         <v>1</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>7</v>
@@ -14904,7 +14972,7 @@
         <v>1</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>7</v>
@@ -14933,7 +15001,7 @@
         <v>1</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>7</v>
@@ -14962,7 +15030,7 @@
         <v>1</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>7</v>
@@ -14980,7 +15048,7 @@
         <v>-100</v>
       </c>
       <c r="J442" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1275,10 +1275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오 미안해요 노래가 무척 재미있어서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래 차를 가득 따라주었는데 차가 없다니</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1287,10 +1283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>근데 갈림길이야, 어디로 가야하지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아니면 우리의 ㅁ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1750,6 +1742,14 @@
   </si>
   <si>
     <t>저는 정말 아닙니다 스페이드3ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 미안해 노래가 재미있어서 그랬어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 갈림길이네, 어디로 가야하지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2129,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H327" sqref="H327"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2541,7 +2541,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -4013,7 +4013,7 @@
         <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
@@ -4071,7 +4071,7 @@
         <v>80</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
@@ -4129,7 +4129,7 @@
         <v>349</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
@@ -4158,7 +4158,7 @@
         <v>82</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
@@ -4245,7 +4245,7 @@
         <v>85</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>7</v>
@@ -4332,7 +4332,7 @@
         <v>88</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>7</v>
@@ -4390,7 +4390,7 @@
         <v>90</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>7</v>
@@ -4448,7 +4448,7 @@
         <v>92</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>7</v>
@@ -4506,7 +4506,7 @@
         <v>94</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>7</v>
@@ -4535,7 +4535,7 @@
         <v>95</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>7</v>
@@ -4564,7 +4564,7 @@
         <v>96</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>7</v>
@@ -4622,7 +4622,7 @@
         <v>350</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>7</v>
@@ -4651,7 +4651,7 @@
         <v>122</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>7</v>
@@ -4709,7 +4709,7 @@
         <v>371</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
@@ -4767,7 +4767,7 @@
         <v>99</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>7</v>
@@ -4825,7 +4825,7 @@
         <v>352</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>7</v>
@@ -4880,10 +4880,10 @@
         <v>0</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>7</v>
@@ -4912,7 +4912,7 @@
         <v>351</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>7</v>
@@ -4967,10 +4967,10 @@
         <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>7</v>
@@ -4996,10 +4996,10 @@
         <v>0</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>7</v>
@@ -5144,7 +5144,7 @@
         <v>363</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>7</v>
@@ -5228,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>7</v>
@@ -5318,7 +5318,7 @@
         <v>104</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>7</v>
@@ -5376,7 +5376,7 @@
         <v>106</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>7</v>
@@ -5405,7 +5405,7 @@
         <v>107</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>7</v>
@@ -5434,7 +5434,7 @@
         <v>108</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>7</v>
@@ -5463,7 +5463,7 @@
         <v>109</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>7</v>
@@ -5521,7 +5521,7 @@
         <v>111</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>7</v>
@@ -5550,7 +5550,7 @@
         <v>127</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>7</v>
@@ -5579,7 +5579,7 @@
         <v>128</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>7</v>
@@ -5666,7 +5666,7 @@
         <v>114</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>7</v>
@@ -5695,7 +5695,7 @@
         <v>115</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
@@ -5753,7 +5753,7 @@
         <v>117</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>7</v>
@@ -5811,7 +5811,7 @@
         <v>354</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>7</v>
@@ -5840,7 +5840,7 @@
         <v>355</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>7</v>
@@ -5869,7 +5869,7 @@
         <v>356</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>7</v>
@@ -5898,7 +5898,7 @@
         <v>357</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>7</v>
@@ -6011,10 +6011,10 @@
         <v>0</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>7</v>
@@ -6040,10 +6040,10 @@
         <v>0</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>7</v>
@@ -6101,7 +6101,7 @@
         <v>132</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>7</v>
@@ -6130,7 +6130,7 @@
         <v>133</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>7</v>
@@ -6188,7 +6188,7 @@
         <v>134</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>7</v>
@@ -6246,7 +6246,7 @@
         <v>136</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>7</v>
@@ -6275,7 +6275,7 @@
         <v>158</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>7</v>
@@ -6304,7 +6304,7 @@
         <v>159</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>7</v>
@@ -6362,7 +6362,7 @@
         <v>138</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>7</v>
@@ -6391,7 +6391,7 @@
         <v>139</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>7</v>
@@ -6417,10 +6417,10 @@
         <v>0</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>7</v>
@@ -6446,10 +6446,10 @@
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>7</v>
@@ -6507,7 +6507,7 @@
         <v>160</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>7</v>
@@ -6565,7 +6565,7 @@
         <v>142</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>7</v>
@@ -6623,7 +6623,7 @@
         <v>144</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>7</v>
@@ -6652,7 +6652,7 @@
         <v>145</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>7</v>
@@ -6681,7 +6681,7 @@
         <v>146</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>7</v>
@@ -6725,7 +6725,7 @@
         <v>-100</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6739,7 +6739,7 @@
         <v>148</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>7</v>
@@ -6768,7 +6768,7 @@
         <v>149</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>7</v>
@@ -6797,7 +6797,7 @@
         <v>150</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>7</v>
@@ -6826,7 +6826,7 @@
         <v>151</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>7</v>
@@ -6855,7 +6855,7 @@
         <v>152</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>7</v>
@@ -6884,7 +6884,7 @@
         <v>153</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>7</v>
@@ -6910,10 +6910,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>7</v>
@@ -6939,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>7</v>
@@ -7000,7 +7000,7 @@
         <v>155</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>7</v>
@@ -7029,7 +7029,7 @@
         <v>156</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>7</v>
@@ -7073,7 +7073,7 @@
         <v>-100</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -7087,7 +7087,7 @@
         <v>163</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         <v>164</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>7</v>
@@ -7145,7 +7145,7 @@
         <v>165</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>7</v>
@@ -7174,7 +7174,7 @@
         <v>166</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>7</v>
@@ -7203,7 +7203,7 @@
         <v>167</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>7</v>
@@ -7261,7 +7261,7 @@
         <v>169</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>7</v>
@@ -7290,7 +7290,7 @@
         <v>170</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>7</v>
@@ -7319,7 +7319,7 @@
         <v>171</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>7</v>
@@ -7377,7 +7377,7 @@
         <v>173</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>7</v>
@@ -7406,7 +7406,7 @@
         <v>174</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>7</v>
@@ -7493,7 +7493,7 @@
         <v>177</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>7</v>
@@ -7522,7 +7522,7 @@
         <v>178</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>7</v>
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>7</v>
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>7</v>
@@ -7638,7 +7638,7 @@
         <v>180</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>7</v>
@@ -7696,7 +7696,7 @@
         <v>182</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>7</v>
@@ -7722,10 +7722,10 @@
         <v>0</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>7</v>
@@ -7751,10 +7751,10 @@
         <v>0</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>7</v>
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>368</v>
@@ -7806,7 +7806,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>183</v>
@@ -7893,13 +7893,13 @@
         <v>194</v>
       </c>
       <c r="B196" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D196" s="8" t="s">
         <v>186</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>7</v>
@@ -7922,13 +7922,13 @@
         <v>195</v>
       </c>
       <c r="B197" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197" s="8" t="s">
         <v>187</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>7</v>
@@ -7951,13 +7951,13 @@
         <v>196</v>
       </c>
       <c r="B198" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" s="8" t="s">
         <v>188</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>7</v>
@@ -7980,13 +7980,13 @@
         <v>197</v>
       </c>
       <c r="B199" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199" s="8" t="s">
         <v>189</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>7</v>
@@ -8009,13 +8009,13 @@
         <v>198</v>
       </c>
       <c r="B200" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>190</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>7</v>
@@ -8038,13 +8038,13 @@
         <v>199</v>
       </c>
       <c r="B201" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201" s="8" t="s">
         <v>186</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>7</v>
@@ -8067,13 +8067,13 @@
         <v>200</v>
       </c>
       <c r="B202" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202" s="8" t="s">
         <v>191</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>7</v>
@@ -8096,13 +8096,13 @@
         <v>201</v>
       </c>
       <c r="B203" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>187</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>7</v>
@@ -8125,13 +8125,13 @@
         <v>202</v>
       </c>
       <c r="B204" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204" s="8" t="s">
         <v>192</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>7</v>
@@ -8154,13 +8154,13 @@
         <v>203</v>
       </c>
       <c r="B205" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205" s="8" t="s">
         <v>193</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>7</v>
@@ -8183,13 +8183,13 @@
         <v>204</v>
       </c>
       <c r="B206" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>7</v>
@@ -8212,13 +8212,13 @@
         <v>205</v>
       </c>
       <c r="B207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207" s="8" t="s">
         <v>195</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>7</v>
@@ -8270,13 +8270,13 @@
         <v>207</v>
       </c>
       <c r="B209" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" s="8" t="s">
         <v>196</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>7</v>
@@ -8299,13 +8299,13 @@
         <v>208</v>
       </c>
       <c r="B210" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>7</v>
@@ -8357,13 +8357,13 @@
         <v>210</v>
       </c>
       <c r="B212" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212" s="8" t="s">
         <v>199</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>7</v>
@@ -8386,13 +8386,13 @@
         <v>211</v>
       </c>
       <c r="B213" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>200</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>7</v>
@@ -8415,13 +8415,13 @@
         <v>212</v>
       </c>
       <c r="B214" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>201</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>7</v>
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>373</v>
+        <v>492</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>368</v>
@@ -8502,13 +8502,13 @@
         <v>215</v>
       </c>
       <c r="B217" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D217" s="8" t="s">
         <v>203</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>7</v>
@@ -8531,13 +8531,13 @@
         <v>216</v>
       </c>
       <c r="B218" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218" s="8" t="s">
         <v>204</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>7</v>
@@ -8560,13 +8560,13 @@
         <v>217</v>
       </c>
       <c r="B219" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219" s="8" t="s">
         <v>205</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>7</v>
@@ -8589,13 +8589,13 @@
         <v>218</v>
       </c>
       <c r="B220" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220" s="8" t="s">
         <v>206</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>7</v>
@@ -8618,13 +8618,13 @@
         <v>219</v>
       </c>
       <c r="B221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D221" s="8" t="s">
         <v>207</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>358</v>
@@ -8682,7 +8682,7 @@
         <v>208</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>7</v>
@@ -8711,7 +8711,7 @@
         <v>209</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>7</v>
@@ -8763,7 +8763,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>211</v>
@@ -8798,7 +8798,7 @@
         <v>212</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>7</v>
@@ -8824,10 +8824,10 @@
         <v>1</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>7</v>
@@ -8853,10 +8853,10 @@
         <v>1</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>7</v>
@@ -8885,7 +8885,7 @@
         <v>346</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>7</v>
@@ -8914,7 +8914,7 @@
         <v>213</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>7</v>
@@ -8937,7 +8937,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>214</v>
@@ -8972,7 +8972,7 @@
         <v>215</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>7</v>
@@ -8995,7 +8995,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>216</v>
@@ -9030,7 +9030,7 @@
         <v>217</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>7</v>
@@ -9082,7 +9082,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237" s="8" t="s">
         <v>219</v>
@@ -9285,13 +9285,13 @@
         <v>242</v>
       </c>
       <c r="B244" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244" s="8" t="s">
         <v>225</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>7</v>
@@ -9372,13 +9372,13 @@
         <v>245</v>
       </c>
       <c r="B247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D247" s="8" t="s">
         <v>228</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>7</v>
@@ -9401,13 +9401,13 @@
         <v>246</v>
       </c>
       <c r="B248" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D248" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>7</v>
@@ -9517,13 +9517,13 @@
         <v>250</v>
       </c>
       <c r="B252" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D252" s="8" t="s">
         <v>233</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>7</v>
@@ -9575,13 +9575,13 @@
         <v>252</v>
       </c>
       <c r="B254" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D254" s="8" t="s">
         <v>235</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>7</v>
@@ -9604,13 +9604,13 @@
         <v>253</v>
       </c>
       <c r="B255" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D255" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>7</v>
@@ -9633,13 +9633,13 @@
         <v>254</v>
       </c>
       <c r="B256" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256" s="8" t="s">
         <v>237</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>7</v>
@@ -9691,13 +9691,13 @@
         <v>256</v>
       </c>
       <c r="B258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D258" s="8" t="s">
         <v>239</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>7</v>
@@ -9720,13 +9720,13 @@
         <v>257</v>
       </c>
       <c r="B259" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259" s="8" t="s">
         <v>240</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>7</v>
@@ -9749,13 +9749,13 @@
         <v>258</v>
       </c>
       <c r="B260" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D260" s="8" t="s">
         <v>241</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>7</v>
@@ -9778,13 +9778,13 @@
         <v>259</v>
       </c>
       <c r="B261" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D261" s="8" t="s">
         <v>242</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>7</v>
@@ -9807,13 +9807,13 @@
         <v>260</v>
       </c>
       <c r="B262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D262" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>7</v>
@@ -9865,13 +9865,13 @@
         <v>262</v>
       </c>
       <c r="B264" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D264" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>7</v>
@@ -9894,13 +9894,13 @@
         <v>263</v>
       </c>
       <c r="B265" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D265" s="8" t="s">
         <v>246</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>7</v>
@@ -9923,13 +9923,13 @@
         <v>264</v>
       </c>
       <c r="B266" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D266" s="8" t="s">
         <v>247</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>7</v>
@@ -9981,13 +9981,13 @@
         <v>266</v>
       </c>
       <c r="B268" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D268" s="8" t="s">
         <v>360</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>7</v>
@@ -10042,7 +10042,7 @@
         <v>1</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>376</v>
+        <v>493</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>368</v>
@@ -10126,13 +10126,13 @@
         <v>271</v>
       </c>
       <c r="B273" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D273" s="8" t="s">
         <v>362</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>7</v>
@@ -10271,7 +10271,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D278" s="8" t="s">
         <v>250</v>
@@ -10300,13 +10300,13 @@
         <v>277</v>
       </c>
       <c r="B279" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D279" s="8" t="s">
         <v>251</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>7</v>
@@ -10329,13 +10329,13 @@
         <v>278</v>
       </c>
       <c r="B280" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D280" s="8" t="s">
         <v>252</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>7</v>
@@ -10358,13 +10358,13 @@
         <v>279</v>
       </c>
       <c r="B281" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D281" s="8" t="s">
         <v>311</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>7</v>
@@ -10387,13 +10387,13 @@
         <v>280</v>
       </c>
       <c r="B282" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>7</v>
@@ -10445,13 +10445,13 @@
         <v>282</v>
       </c>
       <c r="B284" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D284" s="8" t="s">
         <v>254</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>7</v>
@@ -10474,13 +10474,13 @@
         <v>283</v>
       </c>
       <c r="B285" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D285" s="8" t="s">
         <v>255</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>7</v>
@@ -10503,13 +10503,13 @@
         <v>284</v>
       </c>
       <c r="B286" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D286" s="8" t="s">
         <v>312</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>7</v>
@@ -10532,13 +10532,13 @@
         <v>285</v>
       </c>
       <c r="B287" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D287" s="8" t="s">
         <v>256</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>7</v>
@@ -10561,13 +10561,13 @@
         <v>286</v>
       </c>
       <c r="B288" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D288" s="8" t="s">
         <v>257</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>7</v>
@@ -10590,13 +10590,13 @@
         <v>287</v>
       </c>
       <c r="B289" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D289" s="8" t="s">
         <v>258</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>7</v>
@@ -10677,13 +10677,13 @@
         <v>290</v>
       </c>
       <c r="B292" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D292" s="8" t="s">
         <v>313</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>7</v>
@@ -10706,13 +10706,13 @@
         <v>291</v>
       </c>
       <c r="B293" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D293" s="8" t="s">
         <v>261</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>7</v>
@@ -10735,13 +10735,13 @@
         <v>292</v>
       </c>
       <c r="B294" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D294" s="8" t="s">
         <v>262</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>7</v>
@@ -10764,13 +10764,13 @@
         <v>293</v>
       </c>
       <c r="B295" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D295" s="8" t="s">
         <v>263</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>7</v>
@@ -10793,13 +10793,13 @@
         <v>294</v>
       </c>
       <c r="B296" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>7</v>
@@ -10822,13 +10822,13 @@
         <v>295</v>
       </c>
       <c r="B297" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D297" s="8" t="s">
         <v>264</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>7</v>
@@ -10851,13 +10851,13 @@
         <v>296</v>
       </c>
       <c r="B298" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D298" s="8" t="s">
         <v>265</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>7</v>
@@ -10880,13 +10880,13 @@
         <v>297</v>
       </c>
       <c r="B299" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D299" s="8" t="s">
         <v>266</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>7</v>
@@ -10909,13 +10909,13 @@
         <v>298</v>
       </c>
       <c r="B300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>337</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>7</v>
@@ -10938,13 +10938,13 @@
         <v>299</v>
       </c>
       <c r="B301" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>338</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>7</v>
@@ -10967,13 +10967,13 @@
         <v>300</v>
       </c>
       <c r="B302" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>339</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>7</v>
@@ -10996,13 +10996,13 @@
         <v>301</v>
       </c>
       <c r="B303" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>340</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>7</v>
@@ -11025,13 +11025,13 @@
         <v>302</v>
       </c>
       <c r="B304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>341</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>7</v>
@@ -11054,13 +11054,13 @@
         <v>303</v>
       </c>
       <c r="B305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>342</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>7</v>
@@ -11083,13 +11083,13 @@
         <v>304</v>
       </c>
       <c r="B306" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>343</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>7</v>
@@ -11112,13 +11112,13 @@
         <v>305</v>
       </c>
       <c r="B307" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>344</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>7</v>
@@ -11141,13 +11141,13 @@
         <v>306</v>
       </c>
       <c r="B308" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>345</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>7</v>
@@ -11170,13 +11170,13 @@
         <v>307</v>
       </c>
       <c r="B309" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>7</v>
@@ -11199,13 +11199,13 @@
         <v>308</v>
       </c>
       <c r="B310" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>7</v>
@@ -11228,7 +11228,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D311" s="8" t="s">
         <v>267</v>
@@ -11286,7 +11286,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D313" s="8" t="s">
         <v>314</v>
@@ -11315,7 +11315,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D314" s="8" t="s">
         <v>315</v>
@@ -11344,7 +11344,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D315" s="8" t="s">
         <v>317</v>
@@ -11373,13 +11373,13 @@
         <v>314</v>
       </c>
       <c r="B316" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D316" s="8" t="s">
         <v>316</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>7</v>
@@ -11402,13 +11402,13 @@
         <v>315</v>
       </c>
       <c r="B317" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D317" s="8" t="s">
         <v>269</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>7</v>
@@ -11431,13 +11431,13 @@
         <v>316</v>
       </c>
       <c r="B318" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D318" s="8" t="s">
         <v>270</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>7</v>
@@ -11460,13 +11460,13 @@
         <v>317</v>
       </c>
       <c r="B319" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D319" s="8" t="s">
         <v>318</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>7</v>
@@ -11489,13 +11489,13 @@
         <v>318</v>
       </c>
       <c r="B320" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>7</v>
@@ -11518,13 +11518,13 @@
         <v>319</v>
       </c>
       <c r="B321" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>7</v>
@@ -11547,13 +11547,13 @@
         <v>320</v>
       </c>
       <c r="B322" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>7</v>
@@ -11576,13 +11576,13 @@
         <v>321</v>
       </c>
       <c r="B323" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D323" s="8" t="s">
         <v>319</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>7</v>
@@ -11605,13 +11605,13 @@
         <v>322</v>
       </c>
       <c r="B324" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D324" s="8" t="s">
         <v>320</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>7</v>
@@ -11634,13 +11634,13 @@
         <v>323</v>
       </c>
       <c r="B325" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>7</v>
@@ -11663,13 +11663,13 @@
         <v>324</v>
       </c>
       <c r="B326" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>7</v>
@@ -11692,13 +11692,13 @@
         <v>325</v>
       </c>
       <c r="B327" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>7</v>
+        <v>471</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>7</v>
@@ -11721,13 +11721,13 @@
         <v>326</v>
       </c>
       <c r="B328" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>7</v>
@@ -11750,13 +11750,13 @@
         <v>327</v>
       </c>
       <c r="B329" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>7</v>
@@ -11779,13 +11779,13 @@
         <v>328</v>
       </c>
       <c r="B330" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D330" s="8" t="s">
         <v>271</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>7</v>
@@ -11808,13 +11808,13 @@
         <v>329</v>
       </c>
       <c r="B331" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D331" s="8" t="s">
         <v>272</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>7</v>
@@ -11837,13 +11837,13 @@
         <v>330</v>
       </c>
       <c r="B332" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D332" s="8" t="s">
         <v>321</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>7</v>
+        <v>479</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>7</v>
@@ -11866,13 +11866,13 @@
         <v>331</v>
       </c>
       <c r="B333" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D333" s="8" t="s">
         <v>273</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>7</v>
+        <v>475</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>7</v>
@@ -11895,13 +11895,13 @@
         <v>332</v>
       </c>
       <c r="B334" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D334" s="8" t="s">
         <v>274</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>7</v>
+        <v>481</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>7</v>
@@ -11924,13 +11924,13 @@
         <v>333</v>
       </c>
       <c r="B335" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D335" s="8" t="s">
         <v>275</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>7</v>
@@ -11982,13 +11982,13 @@
         <v>335</v>
       </c>
       <c r="B337" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D337" s="8" t="s">
         <v>322</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>7</v>
@@ -12011,13 +12011,13 @@
         <v>336</v>
       </c>
       <c r="B338" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D338" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>7</v>
@@ -12040,13 +12040,13 @@
         <v>337</v>
       </c>
       <c r="B339" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D339" s="8" t="s">
         <v>325</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>7</v>
@@ -12098,13 +12098,13 @@
         <v>339</v>
       </c>
       <c r="B341" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D341" s="8" t="s">
         <v>323</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>7</v>
@@ -12156,13 +12156,13 @@
         <v>341</v>
       </c>
       <c r="B343" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D343" s="8" t="s">
         <v>278</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>7</v>
@@ -12214,13 +12214,13 @@
         <v>343</v>
       </c>
       <c r="B345" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D345" s="8" t="s">
         <v>280</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>7</v>
@@ -12272,13 +12272,13 @@
         <v>345</v>
       </c>
       <c r="B347" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D347" s="8" t="s">
         <v>327</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>7</v>
@@ -12330,13 +12330,13 @@
         <v>347</v>
       </c>
       <c r="B349" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D349" s="8" t="s">
         <v>329</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>7</v>
@@ -12359,13 +12359,13 @@
         <v>348</v>
       </c>
       <c r="B350" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D350" s="8" t="s">
         <v>282</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>7</v>
@@ -12388,13 +12388,13 @@
         <v>349</v>
       </c>
       <c r="B351" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D351" s="8" t="s">
         <v>283</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>7</v>
@@ -12446,13 +12446,13 @@
         <v>351</v>
       </c>
       <c r="B353" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D353" s="8" t="s">
         <v>285</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>7</v>
@@ -12533,13 +12533,13 @@
         <v>354</v>
       </c>
       <c r="B356" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D356" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>7</v>
@@ -12562,13 +12562,13 @@
         <v>355</v>
       </c>
       <c r="B357" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D357" s="8" t="s">
         <v>289</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>7</v>
@@ -12591,13 +12591,13 @@
         <v>356</v>
       </c>
       <c r="B358" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D358" s="8" t="s">
         <v>290</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>7</v>
@@ -12620,13 +12620,13 @@
         <v>357</v>
       </c>
       <c r="B359" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D359" s="8" t="s">
         <v>291</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>7</v>
@@ -12649,13 +12649,13 @@
         <v>358</v>
       </c>
       <c r="B360" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D360" s="8" t="s">
         <v>292</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>7</v>
@@ -12678,13 +12678,13 @@
         <v>359</v>
       </c>
       <c r="B361" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D361" s="8" t="s">
         <v>293</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>7</v>
@@ -12707,13 +12707,13 @@
         <v>360</v>
       </c>
       <c r="B362" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D362" s="8" t="s">
         <v>294</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>7</v>
@@ -12736,13 +12736,13 @@
         <v>361</v>
       </c>
       <c r="B363" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D363" s="8" t="s">
         <v>295</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>7</v>
@@ -12765,13 +12765,13 @@
         <v>362</v>
       </c>
       <c r="B364" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D364" s="8" t="s">
         <v>296</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>7</v>
@@ -12794,13 +12794,13 @@
         <v>363</v>
       </c>
       <c r="B365" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D365" s="8" t="s">
         <v>297</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>7</v>
@@ -12823,13 +12823,13 @@
         <v>364</v>
       </c>
       <c r="B366" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D366" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>7</v>
@@ -12852,13 +12852,13 @@
         <v>365</v>
       </c>
       <c r="B367" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D367" s="8" t="s">
         <v>299</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>7</v>
@@ -12881,13 +12881,13 @@
         <v>366</v>
       </c>
       <c r="B368" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D368" s="8" t="s">
         <v>300</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>7</v>
@@ -12910,13 +12910,13 @@
         <v>367</v>
       </c>
       <c r="B369" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D369" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>7</v>
@@ -12939,13 +12939,13 @@
         <v>368</v>
       </c>
       <c r="B370" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D370" s="8" t="s">
         <v>302</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>7</v>
@@ -12997,13 +12997,13 @@
         <v>370</v>
       </c>
       <c r="B372" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D372" s="8" t="s">
         <v>303</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>7</v>
@@ -13026,13 +13026,13 @@
         <v>371</v>
       </c>
       <c r="B373" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D373" s="8" t="s">
         <v>304</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>7</v>
@@ -13055,13 +13055,13 @@
         <v>372</v>
       </c>
       <c r="B374" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D374" s="8" t="s">
         <v>305</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>7</v>
@@ -13084,13 +13084,13 @@
         <v>373</v>
       </c>
       <c r="B375" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D375" s="8" t="s">
         <v>306</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>7</v>
@@ -13113,13 +13113,13 @@
         <v>374</v>
       </c>
       <c r="B376" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D376" s="8" t="s">
         <v>307</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>7</v>
@@ -13171,13 +13171,13 @@
         <v>376</v>
       </c>
       <c r="B378" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D378" s="8" t="s">
         <v>332</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>7</v>
@@ -13200,13 +13200,13 @@
         <v>377</v>
       </c>
       <c r="B379" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D379" s="10" t="s">
         <v>309</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>7</v>
@@ -13258,13 +13258,13 @@
         <v>379</v>
       </c>
       <c r="B381" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>7</v>
@@ -13287,13 +13287,13 @@
         <v>380</v>
       </c>
       <c r="B382" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>7</v>
@@ -13316,13 +13316,13 @@
         <v>381</v>
       </c>
       <c r="B383" s="1">
-        <v>1</v>
-      </c>
-      <c r="D383" t="s">
-        <v>403</v>
+        <v>0</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>7</v>
@@ -13345,13 +13345,13 @@
         <v>382</v>
       </c>
       <c r="B384" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>7</v>
@@ -13377,10 +13377,10 @@
         <v>1</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>7</v>
@@ -13406,10 +13406,10 @@
         <v>1</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>7</v>
@@ -13432,13 +13432,13 @@
         <v>385</v>
       </c>
       <c r="B387" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>334</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>7</v>
@@ -13461,13 +13461,13 @@
         <v>386</v>
       </c>
       <c r="B388" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>331</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>7</v>
@@ -13490,13 +13490,13 @@
         <v>387</v>
       </c>
       <c r="B389" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F389" s="1" t="s">
         <v>7</v>
@@ -13519,13 +13519,13 @@
         <v>388</v>
       </c>
       <c r="B390" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>7</v>
@@ -13548,13 +13548,13 @@
         <v>389</v>
       </c>
       <c r="B391" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F391" s="1" t="s">
         <v>7</v>
@@ -13577,13 +13577,13 @@
         <v>390</v>
       </c>
       <c r="B392" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>7</v>
@@ -13606,13 +13606,13 @@
         <v>391</v>
       </c>
       <c r="B393" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>7</v>
@@ -13635,13 +13635,13 @@
         <v>392</v>
       </c>
       <c r="B394" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>7</v>
@@ -13664,13 +13664,13 @@
         <v>393</v>
       </c>
       <c r="B395" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F395" s="1" t="s">
         <v>7</v>
@@ -13693,13 +13693,13 @@
         <v>394</v>
       </c>
       <c r="B396" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>7</v>
@@ -13722,13 +13722,13 @@
         <v>395</v>
       </c>
       <c r="B397" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F397" s="1" t="s">
         <v>7</v>
@@ -13751,13 +13751,13 @@
         <v>396</v>
       </c>
       <c r="B398" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>7</v>
@@ -13780,13 +13780,13 @@
         <v>397</v>
       </c>
       <c r="B399" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>7</v>
@@ -13809,13 +13809,13 @@
         <v>398</v>
       </c>
       <c r="B400" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>7</v>
@@ -13838,13 +13838,13 @@
         <v>399</v>
       </c>
       <c r="B401" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>7</v>
@@ -13867,13 +13867,13 @@
         <v>400</v>
       </c>
       <c r="B402" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>7</v>
@@ -13896,13 +13896,13 @@
         <v>401</v>
       </c>
       <c r="B403" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>7</v>
@@ -13925,13 +13925,13 @@
         <v>402</v>
       </c>
       <c r="B404" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>7</v>
@@ -13954,13 +13954,13 @@
         <v>403</v>
       </c>
       <c r="B405" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>7</v>
@@ -13983,13 +13983,13 @@
         <v>404</v>
       </c>
       <c r="B406" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>7</v>
@@ -14012,13 +14012,13 @@
         <v>405</v>
       </c>
       <c r="B407" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F407" s="1" t="s">
         <v>7</v>
@@ -14041,13 +14041,13 @@
         <v>406</v>
       </c>
       <c r="B408" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>7</v>
@@ -14073,10 +14073,10 @@
         <v>1</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F409" s="1" t="s">
         <v>7</v>
@@ -14102,10 +14102,10 @@
         <v>1</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>7</v>
@@ -14128,13 +14128,13 @@
         <v>409</v>
       </c>
       <c r="B411" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>7</v>
+        <v>478</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>7</v>
@@ -14157,13 +14157,13 @@
         <v>410</v>
       </c>
       <c r="B412" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>7</v>
+        <v>481</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>7</v>
@@ -14186,13 +14186,13 @@
         <v>411</v>
       </c>
       <c r="B413" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F413" s="1" t="s">
         <v>7</v>
@@ -14215,13 +14215,13 @@
         <v>412</v>
       </c>
       <c r="B414" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>7</v>
@@ -14247,10 +14247,10 @@
         <v>1</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>7</v>
@@ -14273,13 +14273,13 @@
         <v>414</v>
       </c>
       <c r="B416" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>7</v>
@@ -14302,13 +14302,13 @@
         <v>415</v>
       </c>
       <c r="B417" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>7</v>
@@ -14334,10 +14334,10 @@
         <v>1</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>7</v>
@@ -14360,13 +14360,13 @@
         <v>417</v>
       </c>
       <c r="B419" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>7</v>
@@ -14392,10 +14392,10 @@
         <v>1</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>7</v>
@@ -14418,13 +14418,13 @@
         <v>419</v>
       </c>
       <c r="B421" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>7</v>
@@ -14450,10 +14450,10 @@
         <v>1</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>7</v>
@@ -14476,13 +14476,13 @@
         <v>421</v>
       </c>
       <c r="B423" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="F423" s="1" t="s">
         <v>7</v>
@@ -14508,10 +14508,10 @@
         <v>1</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>7</v>
@@ -14534,13 +14534,13 @@
         <v>423</v>
       </c>
       <c r="B425" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="F425" s="1" t="s">
         <v>7</v>
@@ -14566,10 +14566,10 @@
         <v>1</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>7</v>
@@ -14592,13 +14592,13 @@
         <v>425</v>
       </c>
       <c r="B427" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="F427" s="1" t="s">
         <v>7</v>
@@ -14621,13 +14621,13 @@
         <v>426</v>
       </c>
       <c r="B428" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>7</v>
@@ -14653,10 +14653,10 @@
         <v>1</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F429" s="1" t="s">
         <v>7</v>
@@ -14682,10 +14682,10 @@
         <v>1</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>7</v>
@@ -14711,10 +14711,10 @@
         <v>1</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="F431" s="1" t="s">
         <v>7</v>
@@ -14737,10 +14737,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>7</v>
@@ -14769,10 +14769,10 @@
         <v>1</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F433" s="1" t="s">
         <v>7</v>
@@ -14798,10 +14798,10 @@
         <v>1</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>7</v>
@@ -14827,10 +14827,10 @@
         <v>1</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>7</v>
@@ -14845,7 +14845,7 @@
         <v>-100</v>
       </c>
       <c r="J435" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -14856,10 +14856,10 @@
         <v>1</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F436" s="1" t="s">
         <v>7</v>
@@ -14885,10 +14885,10 @@
         <v>1</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>7</v>
@@ -14914,10 +14914,10 @@
         <v>1</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>7</v>
@@ -14932,7 +14932,7 @@
         <v>-100</v>
       </c>
       <c r="J438" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
@@ -14943,10 +14943,10 @@
         <v>1</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F439" s="1" t="s">
         <v>7</v>
@@ -14972,10 +14972,10 @@
         <v>1</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>7</v>
@@ -15001,10 +15001,10 @@
         <v>1</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>7</v>
@@ -15030,10 +15030,10 @@
         <v>1</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="F442" s="1" t="s">
         <v>7</v>
@@ -15048,7 +15048,7 @@
         <v>-100</v>
       </c>
       <c r="J442" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -2129,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8879,7 +8879,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>346</v>
@@ -8908,7 +8908,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>213</v>
@@ -8937,7 +8937,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>214</v>
@@ -8966,7 +8966,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>215</v>
@@ -8995,7 +8995,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>216</v>
@@ -9024,7 +9024,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>217</v>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="496">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1750,6 +1750,14 @@
   </si>
   <si>
     <t>근데 갈림길이네, 어디로 가야하지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Alice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Alice3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2129,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D235" sqref="D235"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2795,7 +2803,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
@@ -2827,7 +2835,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -2859,7 +2867,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>52</v>
@@ -2891,7 +2899,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>36</v>
@@ -2923,7 +2931,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>36</v>
@@ -7058,7 +7066,7 @@
         <v>157</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>7</v>
@@ -9204,7 +9212,7 @@
         <v>222</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>7</v>
@@ -9233,7 +9241,7 @@
         <v>223</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>7</v>
@@ -9262,7 +9270,7 @@
         <v>224</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>7</v>
@@ -9320,7 +9328,7 @@
         <v>226</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>7</v>
@@ -9349,7 +9357,7 @@
         <v>227</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>7</v>
@@ -9436,7 +9444,7 @@
         <v>230</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>7</v>
@@ -9465,7 +9473,7 @@
         <v>231</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>7</v>
@@ -9494,7 +9502,7 @@
         <v>232</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>7</v>
@@ -9552,7 +9560,7 @@
         <v>234</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>7</v>
@@ -9668,7 +9676,7 @@
         <v>238</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>7</v>
@@ -14105,7 +14113,7 @@
         <v>407</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>7</v>
@@ -14250,7 +14258,7 @@
         <v>414</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>7</v>
@@ -14337,7 +14345,7 @@
         <v>415</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>7</v>
@@ -14395,7 +14403,7 @@
         <v>417</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>7</v>
@@ -14453,7 +14461,7 @@
         <v>419</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>368</v>
+        <v>494</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>7</v>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="497">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1759,6 +1759,9 @@
   <si>
     <t>Character/Alice3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndScene</t>
   </si>
 </sst>
 </file>
@@ -2137,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C409" sqref="C409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13933,7 +13936,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>397</v>
@@ -14766,7 +14769,7 @@
         <v>-100</v>
       </c>
       <c r="J432" s="1" t="s">
-        <v>7</v>
+        <v>496</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -14774,7 +14777,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>431</v>
@@ -14803,7 +14806,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>432</v>
@@ -14832,7 +14835,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>438</v>
@@ -14861,7 +14864,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>431</v>
@@ -14890,7 +14893,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>430</v>
@@ -14919,7 +14922,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>439</v>
@@ -14948,7 +14951,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>431</v>
@@ -14977,7 +14980,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>433</v>
@@ -15006,7 +15009,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>434</v>
@@ -15035,7 +15038,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>440</v>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -2140,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C409" sqref="C409"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K421" sqref="K421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13942,7 +13942,7 @@
         <v>397</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>487</v>
+        <v>368</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>7</v>
@@ -14496,7 +14496,7 @@
         <v>369</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G423" s="1">
         <v>0</v>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="510">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1762,6 +1762,58 @@
   </si>
   <si>
     <t>EndScene</t>
+  </si>
+  <si>
+    <t>BackGround/00004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2140,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K421" sqref="K421"/>
+    <sheetView tabSelected="1" topLeftCell="A407" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F421" sqref="F421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3647,7 +3699,7 @@
         <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>7</v>
@@ -3676,7 +3728,7 @@
         <v>72</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>7</v>
@@ -3824,7 +3876,7 @@
         <v>368</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>7</v>
+        <v>497</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -3940,7 +3992,7 @@
         <v>368</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>7</v>
+        <v>498</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -5129,7 +5181,7 @@
         <v>368</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>7</v>
+        <v>499</v>
       </c>
       <c r="G100" s="1">
         <v>0</v>
@@ -5941,7 +5993,7 @@
         <v>368</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="G128" s="1">
         <v>0</v>
@@ -6289,7 +6341,7 @@
         <v>445</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>7</v>
+        <v>499</v>
       </c>
       <c r="G140" s="1">
         <v>0</v>
@@ -6753,7 +6805,7 @@
         <v>446</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>7</v>
+        <v>499</v>
       </c>
       <c r="G156" s="1">
         <v>0</v>
@@ -7101,7 +7153,7 @@
         <v>454</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="G168" s="1">
         <v>0</v>
@@ -7275,7 +7327,7 @@
         <v>460</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="G174" s="1">
         <v>0</v>
@@ -7797,7 +7849,7 @@
         <v>368</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>7</v>
+        <v>498</v>
       </c>
       <c r="G192" s="1">
         <v>0</v>
@@ -7913,7 +7965,7 @@
         <v>464</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>7</v>
+        <v>501</v>
       </c>
       <c r="G196" s="1">
         <v>0</v>
@@ -8696,7 +8748,7 @@
         <v>463</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>7</v>
+        <v>501</v>
       </c>
       <c r="G223" s="1">
         <v>0</v>
@@ -8899,7 +8951,7 @@
         <v>463</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>7</v>
+        <v>501</v>
       </c>
       <c r="G230" s="1">
         <v>0</v>
@@ -9073,7 +9125,7 @@
         <v>368</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>7</v>
+        <v>498</v>
       </c>
       <c r="G236" s="1">
         <v>0</v>
@@ -9189,7 +9241,7 @@
         <v>7</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>7</v>
+        <v>502</v>
       </c>
       <c r="G240" s="1">
         <v>0</v>
@@ -10001,7 +10053,7 @@
         <v>467</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>7</v>
+        <v>503</v>
       </c>
       <c r="G268" s="1">
         <v>0</v>
@@ -10175,7 +10227,7 @@
         <v>368</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>7</v>
+        <v>503</v>
       </c>
       <c r="G274" s="1">
         <v>0</v>
@@ -10204,7 +10256,7 @@
         <v>368</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>7</v>
+        <v>503</v>
       </c>
       <c r="G275" s="1">
         <v>0</v>
@@ -10262,7 +10314,7 @@
         <v>368</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>7</v>
+        <v>504</v>
       </c>
       <c r="G277" s="1">
         <v>0</v>
@@ -10291,7 +10343,7 @@
         <v>368</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="G278" s="1">
         <v>0</v>
@@ -10755,7 +10807,7 @@
         <v>471</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>7</v>
+        <v>506</v>
       </c>
       <c r="G294" s="1">
         <v>0</v>
@@ -11509,7 +11561,7 @@
         <v>487</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>7</v>
+        <v>507</v>
       </c>
       <c r="G320" s="1">
         <v>0</v>
@@ -12002,7 +12054,7 @@
         <v>472</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>7</v>
+        <v>508</v>
       </c>
       <c r="G337" s="1">
         <v>0</v>
@@ -14090,7 +14142,7 @@
         <v>368</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>7</v>
+        <v>507</v>
       </c>
       <c r="G409" s="1">
         <v>0</v>
@@ -14206,7 +14258,7 @@
         <v>487</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>7</v>
+        <v>504</v>
       </c>
       <c r="G413" s="1">
         <v>0</v>
@@ -14293,7 +14345,7 @@
         <v>487</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>7</v>
+        <v>509</v>
       </c>
       <c r="G416" s="1">
         <v>0</v>
@@ -14786,7 +14838,7 @@
         <v>370</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>7</v>
+        <v>508</v>
       </c>
       <c r="G433" s="1">
         <v>0</v>
@@ -14873,7 +14925,7 @@
         <v>370</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>7</v>
+        <v>508</v>
       </c>
       <c r="G436" s="1">
         <v>0</v>
@@ -14960,7 +15012,7 @@
         <v>370</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>7</v>
+        <v>508</v>
       </c>
       <c r="G439" s="1">
         <v>0</v>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="511">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1519,300 +1519,305 @@
     <t>이 나라의 모든 길은 앞으로도 영원히 나의 길이다!</t>
   </si>
   <si>
-    <t>Text_004_Scene</t>
+    <t>Text_006_Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 나는 너그러우니 다시 한 번 기회를 주지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 나는 너그러우니 다시 한 번 기회를 주지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여봐라 저 소녀를 사형에 처해라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/cat 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/butterflly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵나비 말이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/f3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너의 행운은 왼쪽에 있을 지도~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎㅎ만약 내가 토끼를 찾는다면 모자 장수에게 물어보겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아아아 오! 거기 너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 그래 너 말이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스으으읍 있지 의미에 닌아 뜻이 의재현 는있 살고 가리우 아니라 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가래미 나거과 상항 답은 고리그 조심해 여왕을 후우우우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/bug1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 내 옆자리는 아주 햇빛이 잘 든다구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">우리 옆에서 뿌리잡으면 아주 재미있을거야 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 왜 우리 정원에 온거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 우리 정원에 자리를 만드려고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/bug2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/bug3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠 이만 나가도록 해 나가는 길을 저쪽이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번 다시 말해주지 않을거니까 빨리 나가! 후우우우우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/hatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/rabbit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/rat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Cat2</t>
+  </si>
+  <si>
+    <t>Character/Cat2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에휴 여긴 참 이상해 흠 이쪽인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/card1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/card2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/card3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/HQ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/ch10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 절해 소녀야 빨리 엎드려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/chj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/HQ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너였나? 스페이드3?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여왕폐하 제가 아닙니다! 스페이드2! 스페이드2가 그랬습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아닙니다 폐하 스페이드1이 그랬습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 정말 아닙니다 스페이드3ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 미안해 노래가 재미있어서 그랬어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 갈림길이네, 어디로 가야하지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Alice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Alice3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndScene</t>
+  </si>
+  <si>
+    <t>BackGround/00004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_007_Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Text_005_Scene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Text_006_Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 나는 너그러우니 다시 한 번 기회를 주지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 나는 너그러우니 다시 한 번 기회를 주지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여봐라 저 소녀를 사형에 처해라!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/cat 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 이만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/butterflly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빵나비 말이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/f3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너의 행운은 왼쪽에 있을 지도~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅎㅎ만약 내가 토끼를 찾는다면 모자 장수에게 물어보겠어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하아아아 오! 거기 너</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너 그래 너 말이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스으으읍 있지 의미에 닌아 뜻이 의재현 는있 살고 가리우 아니라 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가래미 나거과 상항 답은 고리그 조심해 여왕을 후우우우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/bug1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 내 옆자리는 아주 햇빛이 잘 든다구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">우리 옆에서 뿌리잡으면 아주 재미있을거야 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런데 왜 우리 정원에 온거지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 우리 정원에 자리를 만드려고?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/bug2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/bug3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠 이만 나가도록 해 나가는 길을 저쪽이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번 다시 말해주지 않을거니까 빨리 나가! 후우우우우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/hatter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/rabbit 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/rat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/Cat2</t>
-  </si>
-  <si>
-    <t>Character/Cat2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에휴 여긴 참 이상해 흠 이쪽인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/card1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/card2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/card3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/HQ1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/ch1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/ch2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/ch3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/ch4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/ch5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/ch6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/ch7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/ch8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/ch9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/ch10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어서 절해 소녀야 빨리 엎드려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/chj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/HQ2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너였나? 스페이드3?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여왕폐하 제가 아닙니다! 스페이드2! 스페이드2가 그랬습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아닙니다 폐하 스페이드1이 그랬습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 정말 아닙니다 스페이드3ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오 미안해 노래가 재미있어서 그랬어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근데 갈림길이네, 어디로 가야하지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/Alice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/Alice3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndScene</t>
-  </si>
-  <si>
-    <t>BackGround/00004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00016</t>
+    <t>Text_003_Scene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2192,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F421" sqref="F421"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K232" sqref="K232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2604,7 +2609,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -2858,7 +2863,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
@@ -2890,7 +2895,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -2922,7 +2927,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>52</v>
@@ -2954,7 +2959,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>36</v>
@@ -2986,7 +2991,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>36</v>
@@ -3699,7 +3704,7 @@
         <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>7</v>
@@ -3728,7 +3733,7 @@
         <v>72</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>7</v>
@@ -3876,7 +3881,7 @@
         <v>368</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -3992,7 +3997,7 @@
         <v>368</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -4076,7 +4081,7 @@
         <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
@@ -4134,7 +4139,7 @@
         <v>80</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
@@ -4192,7 +4197,7 @@
         <v>349</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
@@ -4221,7 +4226,7 @@
         <v>82</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
@@ -4308,7 +4313,7 @@
         <v>85</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>7</v>
@@ -4395,7 +4400,7 @@
         <v>88</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>7</v>
@@ -4453,7 +4458,7 @@
         <v>90</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>7</v>
@@ -4511,7 +4516,7 @@
         <v>92</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>7</v>
@@ -4569,7 +4574,7 @@
         <v>94</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>7</v>
@@ -4598,7 +4603,7 @@
         <v>95</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>7</v>
@@ -4627,7 +4632,7 @@
         <v>96</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>7</v>
@@ -4685,7 +4690,7 @@
         <v>350</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>7</v>
@@ -4714,7 +4719,7 @@
         <v>122</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>7</v>
@@ -4772,7 +4777,7 @@
         <v>371</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
@@ -4830,7 +4835,7 @@
         <v>99</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>7</v>
@@ -4888,7 +4893,7 @@
         <v>352</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>7</v>
@@ -4943,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>7</v>
@@ -4975,7 +4980,7 @@
         <v>351</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>7</v>
@@ -5030,10 +5035,10 @@
         <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>7</v>
@@ -5059,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>7</v>
@@ -5181,7 +5186,7 @@
         <v>368</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G100" s="1">
         <v>0</v>
@@ -5207,7 +5212,7 @@
         <v>363</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>7</v>
@@ -5291,10 +5296,10 @@
         <v>0</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>7</v>
@@ -5381,7 +5386,7 @@
         <v>104</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>7</v>
@@ -5439,7 +5444,7 @@
         <v>106</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>7</v>
@@ -5468,7 +5473,7 @@
         <v>107</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>7</v>
@@ -5497,7 +5502,7 @@
         <v>108</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>7</v>
@@ -5526,7 +5531,7 @@
         <v>109</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>7</v>
@@ -5584,7 +5589,7 @@
         <v>111</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>7</v>
@@ -5613,7 +5618,7 @@
         <v>127</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>7</v>
@@ -5642,7 +5647,7 @@
         <v>128</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>7</v>
@@ -5729,7 +5734,7 @@
         <v>114</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>7</v>
@@ -5758,7 +5763,7 @@
         <v>115</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
@@ -5816,7 +5821,7 @@
         <v>117</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>7</v>
@@ -5874,7 +5879,7 @@
         <v>354</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>7</v>
@@ -5903,7 +5908,7 @@
         <v>355</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>7</v>
@@ -5932,7 +5937,7 @@
         <v>356</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>7</v>
@@ -5961,7 +5966,7 @@
         <v>357</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>7</v>
@@ -5993,7 +5998,7 @@
         <v>368</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G128" s="1">
         <v>0</v>
@@ -6074,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>7</v>
@@ -6103,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>7</v>
@@ -6164,7 +6169,7 @@
         <v>132</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>7</v>
@@ -6193,7 +6198,7 @@
         <v>133</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>7</v>
@@ -6251,7 +6256,7 @@
         <v>134</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>7</v>
@@ -6309,7 +6314,7 @@
         <v>136</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>7</v>
@@ -6338,10 +6343,10 @@
         <v>158</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G140" s="1">
         <v>0</v>
@@ -6367,7 +6372,7 @@
         <v>159</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>7</v>
@@ -6425,7 +6430,7 @@
         <v>138</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>7</v>
@@ -6454,7 +6459,7 @@
         <v>139</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>7</v>
@@ -6480,10 +6485,10 @@
         <v>0</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>7</v>
@@ -6509,10 +6514,10 @@
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>7</v>
@@ -6570,7 +6575,7 @@
         <v>160</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>7</v>
@@ -6628,7 +6633,7 @@
         <v>142</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>7</v>
@@ -6686,7 +6691,7 @@
         <v>144</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>7</v>
@@ -6715,7 +6720,7 @@
         <v>145</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>7</v>
@@ -6744,7 +6749,7 @@
         <v>146</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>7</v>
@@ -6802,10 +6807,10 @@
         <v>148</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G156" s="1">
         <v>0</v>
@@ -6831,7 +6836,7 @@
         <v>149</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>7</v>
@@ -6860,7 +6865,7 @@
         <v>150</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>7</v>
@@ -6889,7 +6894,7 @@
         <v>151</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>7</v>
@@ -6918,7 +6923,7 @@
         <v>152</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>7</v>
@@ -6947,7 +6952,7 @@
         <v>153</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>7</v>
@@ -6973,10 +6978,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>7</v>
@@ -7002,10 +7007,10 @@
         <v>0</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>7</v>
@@ -7063,7 +7068,7 @@
         <v>155</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>7</v>
@@ -7092,7 +7097,7 @@
         <v>156</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>7</v>
@@ -7121,7 +7126,7 @@
         <v>157</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>7</v>
@@ -7150,10 +7155,10 @@
         <v>163</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G168" s="1">
         <v>0</v>
@@ -7179,7 +7184,7 @@
         <v>164</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>7</v>
@@ -7208,7 +7213,7 @@
         <v>165</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>7</v>
@@ -7237,7 +7242,7 @@
         <v>166</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>7</v>
@@ -7266,7 +7271,7 @@
         <v>167</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>7</v>
@@ -7324,10 +7329,10 @@
         <v>169</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G174" s="1">
         <v>0</v>
@@ -7353,7 +7358,7 @@
         <v>170</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>7</v>
@@ -7382,7 +7387,7 @@
         <v>171</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>7</v>
@@ -7440,7 +7445,7 @@
         <v>173</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>7</v>
@@ -7469,7 +7474,7 @@
         <v>174</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>7</v>
@@ -7556,7 +7561,7 @@
         <v>177</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>7</v>
@@ -7585,7 +7590,7 @@
         <v>178</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>7</v>
@@ -7611,10 +7616,10 @@
         <v>0</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>7</v>
@@ -7640,10 +7645,10 @@
         <v>0</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>7</v>
@@ -7701,7 +7706,7 @@
         <v>180</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>7</v>
@@ -7759,7 +7764,7 @@
         <v>182</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>7</v>
@@ -7785,10 +7790,10 @@
         <v>0</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>7</v>
@@ -7814,10 +7819,10 @@
         <v>0</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>7</v>
@@ -7843,13 +7848,13 @@
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G192" s="1">
         <v>0</v>
@@ -7962,10 +7967,10 @@
         <v>186</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G196" s="1">
         <v>0</v>
@@ -7991,7 +7996,7 @@
         <v>187</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>7</v>
@@ -8020,7 +8025,7 @@
         <v>188</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>7</v>
@@ -8049,7 +8054,7 @@
         <v>189</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>7</v>
@@ -8078,7 +8083,7 @@
         <v>190</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>7</v>
@@ -8107,7 +8112,7 @@
         <v>186</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>7</v>
@@ -8136,7 +8141,7 @@
         <v>191</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>7</v>
@@ -8165,7 +8170,7 @@
         <v>187</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>7</v>
@@ -8194,7 +8199,7 @@
         <v>192</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>7</v>
@@ -8223,7 +8228,7 @@
         <v>193</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>7</v>
@@ -8252,7 +8257,7 @@
         <v>194</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>7</v>
@@ -8281,7 +8286,7 @@
         <v>195</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>7</v>
@@ -8339,7 +8344,7 @@
         <v>196</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>7</v>
@@ -8368,7 +8373,7 @@
         <v>197</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>7</v>
@@ -8426,7 +8431,7 @@
         <v>199</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>7</v>
@@ -8455,7 +8460,7 @@
         <v>200</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>7</v>
@@ -8484,7 +8489,7 @@
         <v>201</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>7</v>
@@ -8510,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>368</v>
@@ -8571,7 +8576,7 @@
         <v>203</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>7</v>
@@ -8600,7 +8605,7 @@
         <v>204</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>7</v>
@@ -8629,7 +8634,7 @@
         <v>205</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>7</v>
@@ -8658,7 +8663,7 @@
         <v>206</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>7</v>
@@ -8687,7 +8692,7 @@
         <v>207</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>7</v>
@@ -8739,16 +8744,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G223" s="1">
         <v>0</v>
@@ -8768,13 +8773,13 @@
         <v>222</v>
       </c>
       <c r="B224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>209</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>7</v>
@@ -8797,7 +8802,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>210</v>
@@ -8826,7 +8831,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>211</v>
@@ -8855,13 +8860,13 @@
         <v>225</v>
       </c>
       <c r="B227" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>212</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>7</v>
@@ -8884,13 +8889,13 @@
         <v>226</v>
       </c>
       <c r="B228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>373</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>7</v>
@@ -8913,13 +8918,13 @@
         <v>227</v>
       </c>
       <c r="B229" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>374</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>7</v>
@@ -8934,7 +8939,7 @@
         <v>-100</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>7</v>
+        <v>510</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -8948,10 +8953,10 @@
         <v>346</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G230" s="1">
         <v>0</v>
@@ -8977,7 +8982,7 @@
         <v>213</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>7</v>
@@ -9035,7 +9040,7 @@
         <v>215</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>7</v>
@@ -9093,7 +9098,7 @@
         <v>217</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>7</v>
@@ -9125,7 +9130,7 @@
         <v>368</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G236" s="1">
         <v>0</v>
@@ -9241,7 +9246,7 @@
         <v>7</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G240" s="1">
         <v>0</v>
@@ -9267,7 +9272,7 @@
         <v>222</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>7</v>
@@ -9296,7 +9301,7 @@
         <v>223</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>7</v>
@@ -9325,7 +9330,7 @@
         <v>224</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>7</v>
@@ -9354,7 +9359,7 @@
         <v>225</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>7</v>
@@ -9383,7 +9388,7 @@
         <v>226</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>7</v>
@@ -9412,7 +9417,7 @@
         <v>227</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>7</v>
@@ -9441,7 +9446,7 @@
         <v>228</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>7</v>
@@ -9470,7 +9475,7 @@
         <v>229</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>7</v>
@@ -9499,7 +9504,7 @@
         <v>230</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>7</v>
@@ -9528,7 +9533,7 @@
         <v>231</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>7</v>
@@ -9557,7 +9562,7 @@
         <v>232</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>7</v>
@@ -9586,7 +9591,7 @@
         <v>233</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>7</v>
@@ -9615,7 +9620,7 @@
         <v>234</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>7</v>
@@ -9644,7 +9649,7 @@
         <v>235</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>7</v>
@@ -9673,7 +9678,7 @@
         <v>236</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>7</v>
@@ -9702,7 +9707,7 @@
         <v>237</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>7</v>
@@ -9731,7 +9736,7 @@
         <v>238</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>7</v>
@@ -9760,7 +9765,7 @@
         <v>239</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>7</v>
@@ -9789,7 +9794,7 @@
         <v>240</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>7</v>
@@ -9818,7 +9823,7 @@
         <v>241</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>7</v>
@@ -9847,7 +9852,7 @@
         <v>242</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>7</v>
@@ -9876,7 +9881,7 @@
         <v>243</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>7</v>
@@ -9934,7 +9939,7 @@
         <v>245</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>7</v>
@@ -9963,7 +9968,7 @@
         <v>246</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>7</v>
@@ -9992,7 +9997,7 @@
         <v>247</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>7</v>
@@ -10050,10 +10055,10 @@
         <v>360</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G268" s="1">
         <v>0</v>
@@ -10105,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>368</v>
@@ -10195,7 +10200,7 @@
         <v>362</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>7</v>
@@ -10227,7 +10232,7 @@
         <v>368</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G274" s="1">
         <v>0</v>
@@ -10256,7 +10261,7 @@
         <v>368</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G275" s="1">
         <v>0</v>
@@ -10314,7 +10319,7 @@
         <v>368</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G277" s="1">
         <v>0</v>
@@ -10343,7 +10348,7 @@
         <v>368</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G278" s="1">
         <v>0</v>
@@ -10369,7 +10374,7 @@
         <v>251</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>7</v>
@@ -10398,7 +10403,7 @@
         <v>252</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>7</v>
@@ -10427,7 +10432,7 @@
         <v>311</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>7</v>
@@ -10456,7 +10461,7 @@
         <v>375</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>7</v>
@@ -10514,7 +10519,7 @@
         <v>254</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>7</v>
@@ -10543,7 +10548,7 @@
         <v>255</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>7</v>
@@ -10572,7 +10577,7 @@
         <v>312</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>7</v>
@@ -10601,7 +10606,7 @@
         <v>256</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>7</v>
@@ -10630,7 +10635,7 @@
         <v>257</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>7</v>
@@ -10659,7 +10664,7 @@
         <v>258</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>7</v>
@@ -10746,7 +10751,7 @@
         <v>313</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>7</v>
@@ -10775,7 +10780,7 @@
         <v>261</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>7</v>
@@ -10804,10 +10809,10 @@
         <v>262</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G294" s="1">
         <v>0</v>
@@ -10833,7 +10838,7 @@
         <v>263</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>7</v>
@@ -10859,10 +10864,10 @@
         <v>0</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>7</v>
@@ -10891,7 +10896,7 @@
         <v>264</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>7</v>
@@ -10920,7 +10925,7 @@
         <v>265</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>7</v>
@@ -10949,7 +10954,7 @@
         <v>266</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>7</v>
@@ -10978,7 +10983,7 @@
         <v>337</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>7</v>
@@ -11007,7 +11012,7 @@
         <v>338</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>7</v>
@@ -11036,7 +11041,7 @@
         <v>339</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>7</v>
@@ -11065,7 +11070,7 @@
         <v>340</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>7</v>
@@ -11094,7 +11099,7 @@
         <v>341</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>7</v>
@@ -11123,7 +11128,7 @@
         <v>342</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>7</v>
@@ -11152,7 +11157,7 @@
         <v>343</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>7</v>
@@ -11181,7 +11186,7 @@
         <v>344</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>7</v>
@@ -11210,7 +11215,7 @@
         <v>345</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>7</v>
@@ -11236,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>7</v>
@@ -11265,10 +11270,10 @@
         <v>0</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>7</v>
@@ -11442,7 +11447,7 @@
         <v>316</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>7</v>
@@ -11471,7 +11476,7 @@
         <v>269</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>7</v>
@@ -11500,7 +11505,7 @@
         <v>270</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>7</v>
@@ -11529,7 +11534,7 @@
         <v>318</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>7</v>
@@ -11558,10 +11563,10 @@
         <v>376</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G320" s="1">
         <v>0</v>
@@ -11587,7 +11592,7 @@
         <v>377</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>7</v>
@@ -11616,7 +11621,7 @@
         <v>378</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>7</v>
@@ -11645,7 +11650,7 @@
         <v>319</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>7</v>
@@ -11674,7 +11679,7 @@
         <v>320</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>7</v>
@@ -11703,7 +11708,7 @@
         <v>379</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>7</v>
@@ -11729,10 +11734,10 @@
         <v>0</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>7</v>
@@ -11758,10 +11763,10 @@
         <v>0</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>7</v>
@@ -11787,10 +11792,10 @@
         <v>0</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>7</v>
@@ -11816,10 +11821,10 @@
         <v>0</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>7</v>
@@ -11848,7 +11853,7 @@
         <v>271</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>7</v>
@@ -11877,7 +11882,7 @@
         <v>272</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>7</v>
@@ -11906,7 +11911,7 @@
         <v>321</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>7</v>
@@ -11935,7 +11940,7 @@
         <v>273</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>7</v>
@@ -11964,7 +11969,7 @@
         <v>274</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>7</v>
@@ -11993,7 +11998,7 @@
         <v>275</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>7</v>
@@ -12051,10 +12056,10 @@
         <v>322</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G337" s="1">
         <v>0</v>
@@ -12080,7 +12085,7 @@
         <v>324</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>7</v>
@@ -12109,7 +12114,7 @@
         <v>325</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>7</v>
@@ -12167,7 +12172,7 @@
         <v>323</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>7</v>
@@ -12225,7 +12230,7 @@
         <v>278</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>7</v>
@@ -12283,7 +12288,7 @@
         <v>280</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>7</v>
@@ -12341,7 +12346,7 @@
         <v>327</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>7</v>
@@ -12399,7 +12404,7 @@
         <v>329</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>7</v>
@@ -12428,7 +12433,7 @@
         <v>282</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>7</v>
@@ -12457,7 +12462,7 @@
         <v>283</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>7</v>
@@ -12515,7 +12520,7 @@
         <v>285</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>7</v>
@@ -12602,7 +12607,7 @@
         <v>288</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>7</v>
@@ -12631,7 +12636,7 @@
         <v>289</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>7</v>
@@ -12689,7 +12694,7 @@
         <v>291</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>7</v>
@@ -12747,7 +12752,7 @@
         <v>293</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>7</v>
@@ -12776,7 +12781,7 @@
         <v>294</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>7</v>
@@ -12863,7 +12868,7 @@
         <v>297</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>7</v>
@@ -12892,7 +12897,7 @@
         <v>298</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>7</v>
@@ -12950,7 +12955,7 @@
         <v>300</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>7</v>
@@ -12979,7 +12984,7 @@
         <v>301</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>7</v>
@@ -13008,7 +13013,7 @@
         <v>302</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>7</v>
@@ -13066,7 +13071,7 @@
         <v>303</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>7</v>
@@ -13095,7 +13100,7 @@
         <v>304</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>7</v>
@@ -13124,7 +13129,7 @@
         <v>305</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>7</v>
@@ -13182,7 +13187,7 @@
         <v>307</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>7</v>
@@ -13240,7 +13245,7 @@
         <v>332</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>7</v>
@@ -13269,7 +13274,7 @@
         <v>309</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>7</v>
@@ -13327,7 +13332,7 @@
         <v>333</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>7</v>
@@ -13356,7 +13361,7 @@
         <v>330</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>7</v>
@@ -13385,7 +13390,7 @@
         <v>401</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>7</v>
@@ -13414,7 +13419,7 @@
         <v>402</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>7</v>
@@ -13501,7 +13506,7 @@
         <v>334</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>7</v>
@@ -13646,7 +13651,7 @@
         <v>384</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>7</v>
@@ -13675,7 +13680,7 @@
         <v>385</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>7</v>
@@ -13820,7 +13825,7 @@
         <v>390</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>7</v>
@@ -13878,7 +13883,7 @@
         <v>392</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>7</v>
@@ -14023,7 +14028,7 @@
         <v>398</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>7</v>
@@ -14052,7 +14057,7 @@
         <v>399</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>7</v>
@@ -14081,7 +14086,7 @@
         <v>400</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F407" s="1" t="s">
         <v>7</v>
@@ -14110,7 +14115,7 @@
         <v>405</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>7</v>
@@ -14142,7 +14147,7 @@
         <v>368</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G409" s="1">
         <v>0</v>
@@ -14168,7 +14173,7 @@
         <v>407</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>7</v>
@@ -14197,7 +14202,7 @@
         <v>408</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>7</v>
@@ -14226,7 +14231,7 @@
         <v>409</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>7</v>
@@ -14255,10 +14260,10 @@
         <v>410</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G413" s="1">
         <v>0</v>
@@ -14284,7 +14289,7 @@
         <v>411</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>7</v>
@@ -14313,7 +14318,7 @@
         <v>414</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>7</v>
@@ -14342,10 +14347,10 @@
         <v>412</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G416" s="1">
         <v>0</v>
@@ -14371,7 +14376,7 @@
         <v>413</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>7</v>
@@ -14400,7 +14405,7 @@
         <v>415</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>7</v>
@@ -14429,7 +14434,7 @@
         <v>416</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>7</v>
@@ -14458,7 +14463,7 @@
         <v>417</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>7</v>
@@ -14516,7 +14521,7 @@
         <v>419</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>7</v>
@@ -14821,7 +14826,7 @@
         <v>-100</v>
       </c>
       <c r="J432" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -14838,7 +14843,7 @@
         <v>370</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G433" s="1">
         <v>0</v>
@@ -14864,7 +14869,7 @@
         <v>432</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>7</v>
@@ -14890,10 +14895,10 @@
         <v>0</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>7</v>
@@ -14908,7 +14913,7 @@
         <v>-100</v>
       </c>
       <c r="J435" s="1" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -14925,7 +14930,7 @@
         <v>370</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G436" s="1">
         <v>0</v>
@@ -14951,7 +14956,7 @@
         <v>430</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>7</v>
@@ -14977,10 +14982,10 @@
         <v>0</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>7</v>
@@ -14995,7 +15000,7 @@
         <v>-100</v>
       </c>
       <c r="J438" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
@@ -15012,7 +15017,7 @@
         <v>370</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G439" s="1">
         <v>0</v>
@@ -15038,7 +15043,7 @@
         <v>433</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>7</v>
@@ -15067,7 +15072,7 @@
         <v>434</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>7</v>
@@ -15093,10 +15098,10 @@
         <v>0</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F442" s="1" t="s">
         <v>7</v>
@@ -15111,7 +15116,7 @@
         <v>-100</v>
       </c>
       <c r="J442" s="1" t="s">
-        <v>437</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -2197,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K232" sqref="K232"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F281" sqref="F281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10345,7 +10345,7 @@
         <v>250</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>368</v>
+        <v>467</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>503</v>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1642,10 +1642,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에휴 여긴 참 이상해 흠 이쪽인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Character/card1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1818,6 +1814,10 @@
   </si>
   <si>
     <t>Text_003_Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴 참 신기하고 이상한게 많은 것 같아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2197,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F281" sqref="F281"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2863,7 +2863,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
@@ -2895,7 +2895,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -2927,7 +2927,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>52</v>
@@ -2959,7 +2959,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>36</v>
@@ -2991,7 +2991,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>36</v>
@@ -3704,7 +3704,7 @@
         <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>7</v>
@@ -3733,7 +3733,7 @@
         <v>72</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>7</v>
@@ -3881,7 +3881,7 @@
         <v>368</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>368</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>368</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G100" s="1">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>368</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G128" s="1">
         <v>0</v>
@@ -6346,7 +6346,7 @@
         <v>443</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G140" s="1">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>444</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G156" s="1">
         <v>0</v>
@@ -7126,7 +7126,7 @@
         <v>157</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>7</v>
@@ -7158,7 +7158,7 @@
         <v>452</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G168" s="1">
         <v>0</v>
@@ -7332,7 +7332,7 @@
         <v>458</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G174" s="1">
         <v>0</v>
@@ -7848,13 +7848,13 @@
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G192" s="1">
         <v>0</v>
@@ -7970,7 +7970,7 @@
         <v>462</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G196" s="1">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>368</v>
@@ -8753,7 +8753,7 @@
         <v>461</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G223" s="1">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>-100</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -8956,7 +8956,7 @@
         <v>461</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G230" s="1">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>368</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G236" s="1">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>7</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G240" s="1">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>222</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>7</v>
@@ -9301,7 +9301,7 @@
         <v>223</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>7</v>
@@ -9330,7 +9330,7 @@
         <v>224</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>7</v>
@@ -9388,7 +9388,7 @@
         <v>226</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>7</v>
@@ -9417,7 +9417,7 @@
         <v>227</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>7</v>
@@ -9504,7 +9504,7 @@
         <v>230</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>7</v>
@@ -9533,7 +9533,7 @@
         <v>231</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>7</v>
@@ -9562,7 +9562,7 @@
         <v>232</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>7</v>
@@ -9620,7 +9620,7 @@
         <v>234</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>7</v>
@@ -9736,7 +9736,7 @@
         <v>238</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>7</v>
@@ -10058,7 +10058,7 @@
         <v>465</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G268" s="1">
         <v>0</v>
@@ -10110,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>368</v>
@@ -10232,7 +10232,7 @@
         <v>368</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G274" s="1">
         <v>0</v>
@@ -10261,7 +10261,7 @@
         <v>368</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G275" s="1">
         <v>0</v>
@@ -10319,7 +10319,7 @@
         <v>368</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G277" s="1">
         <v>0</v>
@@ -10345,10 +10345,10 @@
         <v>250</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G278" s="1">
         <v>0</v>
@@ -10374,7 +10374,7 @@
         <v>251</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>7</v>
@@ -10403,7 +10403,7 @@
         <v>252</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>7</v>
@@ -10432,7 +10432,7 @@
         <v>311</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>7</v>
@@ -10461,7 +10461,7 @@
         <v>375</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>7</v>
@@ -10519,7 +10519,7 @@
         <v>254</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>7</v>
@@ -10548,7 +10548,7 @@
         <v>255</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>7</v>
@@ -10577,7 +10577,7 @@
         <v>312</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>7</v>
@@ -10606,7 +10606,7 @@
         <v>256</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>7</v>
@@ -10635,7 +10635,7 @@
         <v>257</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>7</v>
@@ -10664,7 +10664,7 @@
         <v>258</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>7</v>
@@ -10751,7 +10751,7 @@
         <v>313</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>7</v>
@@ -10780,7 +10780,7 @@
         <v>261</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>7</v>
@@ -10809,10 +10809,10 @@
         <v>262</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G294" s="1">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>263</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>7</v>
@@ -10864,10 +10864,10 @@
         <v>0</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>7</v>
@@ -10896,7 +10896,7 @@
         <v>264</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>7</v>
@@ -10925,7 +10925,7 @@
         <v>265</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>7</v>
@@ -10954,7 +10954,7 @@
         <v>266</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>7</v>
@@ -10983,7 +10983,7 @@
         <v>337</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>7</v>
@@ -11012,7 +11012,7 @@
         <v>338</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>7</v>
@@ -11041,7 +11041,7 @@
         <v>339</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>7</v>
@@ -11070,7 +11070,7 @@
         <v>340</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>7</v>
@@ -11099,7 +11099,7 @@
         <v>341</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>7</v>
@@ -11128,7 +11128,7 @@
         <v>342</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>7</v>
@@ -11157,7 +11157,7 @@
         <v>343</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>7</v>
@@ -11186,7 +11186,7 @@
         <v>344</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>7</v>
@@ -11215,7 +11215,7 @@
         <v>345</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>7</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>7</v>
@@ -11270,10 +11270,10 @@
         <v>0</v>
       </c>
       <c r="D310" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E310" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>7</v>
@@ -11447,7 +11447,7 @@
         <v>316</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>7</v>
@@ -11476,7 +11476,7 @@
         <v>269</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>7</v>
@@ -11505,7 +11505,7 @@
         <v>270</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>7</v>
@@ -11534,7 +11534,7 @@
         <v>318</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>7</v>
@@ -11563,10 +11563,10 @@
         <v>376</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G320" s="1">
         <v>0</v>
@@ -11592,7 +11592,7 @@
         <v>377</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>7</v>
@@ -11621,7 +11621,7 @@
         <v>378</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>7</v>
@@ -11650,7 +11650,7 @@
         <v>319</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>7</v>
@@ -11679,7 +11679,7 @@
         <v>320</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>7</v>
@@ -11708,7 +11708,7 @@
         <v>379</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>7</v>
@@ -11734,10 +11734,10 @@
         <v>0</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>7</v>
@@ -11763,10 +11763,10 @@
         <v>0</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>7</v>
@@ -11792,10 +11792,10 @@
         <v>0</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>7</v>
@@ -11821,10 +11821,10 @@
         <v>0</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>7</v>
@@ -11853,7 +11853,7 @@
         <v>271</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>7</v>
@@ -11882,7 +11882,7 @@
         <v>272</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>7</v>
@@ -11911,7 +11911,7 @@
         <v>321</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>7</v>
@@ -11940,7 +11940,7 @@
         <v>273</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>7</v>
@@ -11969,7 +11969,7 @@
         <v>274</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>7</v>
@@ -11998,7 +11998,7 @@
         <v>275</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>7</v>
@@ -12056,10 +12056,10 @@
         <v>322</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G337" s="1">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>324</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>7</v>
@@ -12114,7 +12114,7 @@
         <v>325</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>7</v>
@@ -12172,7 +12172,7 @@
         <v>323</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>7</v>
@@ -12230,7 +12230,7 @@
         <v>278</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>7</v>
@@ -12288,7 +12288,7 @@
         <v>280</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>7</v>
@@ -12346,7 +12346,7 @@
         <v>327</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>7</v>
@@ -12404,7 +12404,7 @@
         <v>329</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>7</v>
@@ -12433,7 +12433,7 @@
         <v>282</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>7</v>
@@ -12462,7 +12462,7 @@
         <v>283</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>7</v>
@@ -12520,7 +12520,7 @@
         <v>285</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>7</v>
@@ -12607,7 +12607,7 @@
         <v>288</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>7</v>
@@ -12636,7 +12636,7 @@
         <v>289</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>7</v>
@@ -12694,7 +12694,7 @@
         <v>291</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>7</v>
@@ -12752,7 +12752,7 @@
         <v>293</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>7</v>
@@ -12781,7 +12781,7 @@
         <v>294</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>7</v>
@@ -12868,7 +12868,7 @@
         <v>297</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>7</v>
@@ -12897,7 +12897,7 @@
         <v>298</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>7</v>
@@ -12955,7 +12955,7 @@
         <v>300</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>7</v>
@@ -12984,7 +12984,7 @@
         <v>301</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>7</v>
@@ -13013,7 +13013,7 @@
         <v>302</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>7</v>
@@ -13071,7 +13071,7 @@
         <v>303</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>7</v>
@@ -13100,7 +13100,7 @@
         <v>304</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>7</v>
@@ -13129,7 +13129,7 @@
         <v>305</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>7</v>
@@ -13187,7 +13187,7 @@
         <v>307</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>7</v>
@@ -13245,7 +13245,7 @@
         <v>332</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>7</v>
@@ -13274,7 +13274,7 @@
         <v>309</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>7</v>
@@ -13332,7 +13332,7 @@
         <v>333</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>7</v>
@@ -13361,7 +13361,7 @@
         <v>330</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>7</v>
@@ -13390,7 +13390,7 @@
         <v>401</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>7</v>
@@ -13419,7 +13419,7 @@
         <v>402</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>7</v>
@@ -13506,7 +13506,7 @@
         <v>334</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>7</v>
@@ -13651,7 +13651,7 @@
         <v>384</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>7</v>
@@ -13680,7 +13680,7 @@
         <v>385</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>7</v>
@@ -13825,7 +13825,7 @@
         <v>390</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>7</v>
@@ -13883,7 +13883,7 @@
         <v>392</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>7</v>
@@ -14028,7 +14028,7 @@
         <v>398</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>7</v>
@@ -14057,7 +14057,7 @@
         <v>399</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>7</v>
@@ -14086,7 +14086,7 @@
         <v>400</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F407" s="1" t="s">
         <v>7</v>
@@ -14115,7 +14115,7 @@
         <v>405</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>7</v>
@@ -14147,7 +14147,7 @@
         <v>368</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G409" s="1">
         <v>0</v>
@@ -14173,7 +14173,7 @@
         <v>407</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>7</v>
@@ -14202,7 +14202,7 @@
         <v>408</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>7</v>
@@ -14231,7 +14231,7 @@
         <v>409</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>7</v>
@@ -14260,10 +14260,10 @@
         <v>410</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G413" s="1">
         <v>0</v>
@@ -14289,7 +14289,7 @@
         <v>411</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>7</v>
@@ -14318,7 +14318,7 @@
         <v>414</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>7</v>
@@ -14347,10 +14347,10 @@
         <v>412</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G416" s="1">
         <v>0</v>
@@ -14376,7 +14376,7 @@
         <v>413</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>7</v>
@@ -14405,7 +14405,7 @@
         <v>415</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>7</v>
@@ -14434,7 +14434,7 @@
         <v>416</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>7</v>
@@ -14463,7 +14463,7 @@
         <v>417</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>7</v>
@@ -14521,7 +14521,7 @@
         <v>419</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>7</v>
@@ -14826,7 +14826,7 @@
         <v>-100</v>
       </c>
       <c r="J432" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -14843,7 +14843,7 @@
         <v>370</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G433" s="1">
         <v>0</v>
@@ -14869,7 +14869,7 @@
         <v>432</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>7</v>
@@ -14898,7 +14898,7 @@
         <v>436</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>7</v>
@@ -14913,7 +14913,7 @@
         <v>-100</v>
       </c>
       <c r="J435" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -14930,7 +14930,7 @@
         <v>370</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G436" s="1">
         <v>0</v>
@@ -14956,7 +14956,7 @@
         <v>430</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>7</v>
@@ -14985,7 +14985,7 @@
         <v>437</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>7</v>
@@ -15017,7 +15017,7 @@
         <v>370</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G439" s="1">
         <v>0</v>
@@ -15043,7 +15043,7 @@
         <v>433</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>7</v>
@@ -15072,7 +15072,7 @@
         <v>434</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>7</v>
@@ -15101,7 +15101,7 @@
         <v>438</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F442" s="1" t="s">
         <v>7</v>
@@ -15116,7 +15116,7 @@
         <v>-100</v>
       </c>
       <c r="J442" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -2197,7 +2197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -481,9 +481,6 @@
   </si>
   <si>
     <t>한 번에 못 알아듣는 것을 보니 영 쯧쯧쯧</t>
-  </si>
-  <si>
-    <t>주워</t>
   </si>
   <si>
     <t>뭘?</t>
@@ -1818,6 +1815,10 @@
   </si>
   <si>
     <t>여긴 참 신기하고 이상한게 많은 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쯧 저것 좀 주워봐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2197,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D143" sqref="D142:D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2259,7 +2260,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>43</v>
@@ -2291,7 +2292,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -2323,7 +2324,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -2355,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -2387,7 +2388,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -2449,7 +2450,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -2481,7 +2482,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -2513,7 +2514,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -2545,7 +2546,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -2577,7 +2578,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -2609,7 +2610,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -2641,7 +2642,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -2673,7 +2674,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -2705,7 +2706,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -2767,7 +2768,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -2799,7 +2800,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2831,7 +2832,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>36</v>
@@ -2863,7 +2864,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
@@ -2895,7 +2896,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -2927,7 +2928,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>52</v>
@@ -2959,7 +2960,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>36</v>
@@ -2991,7 +2992,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>36</v>
@@ -3053,7 +3054,7 @@
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>36</v>
@@ -3085,7 +3086,7 @@
         <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>36</v>
@@ -3117,7 +3118,7 @@
         <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
@@ -3149,7 +3150,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>36</v>
@@ -3211,7 +3212,7 @@
         <v>54</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>36</v>
@@ -3269,7 +3270,7 @@
         <v>56</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>7</v>
@@ -3298,7 +3299,7 @@
         <v>57</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -3327,7 +3328,7 @@
         <v>58</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>7</v>
@@ -3356,7 +3357,7 @@
         <v>59</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>7</v>
@@ -3385,7 +3386,7 @@
         <v>60</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>7</v>
@@ -3414,7 +3415,7 @@
         <v>61</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>7</v>
@@ -3443,7 +3444,7 @@
         <v>62</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>7</v>
@@ -3472,7 +3473,7 @@
         <v>63</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>7</v>
@@ -3501,7 +3502,7 @@
         <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>7</v>
@@ -3530,7 +3531,7 @@
         <v>65</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>7</v>
@@ -3559,7 +3560,7 @@
         <v>66</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>7</v>
@@ -3588,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>7</v>
@@ -3617,7 +3618,7 @@
         <v>68</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>7</v>
@@ -3646,7 +3647,7 @@
         <v>69</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -3675,7 +3676,7 @@
         <v>70</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>7</v>
@@ -3704,7 +3705,7 @@
         <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>7</v>
@@ -3733,7 +3734,7 @@
         <v>72</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>7</v>
@@ -3762,7 +3763,7 @@
         <v>55</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>7</v>
@@ -3791,7 +3792,7 @@
         <v>73</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>7</v>
@@ -3820,7 +3821,7 @@
         <v>60</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>7</v>
@@ -3849,7 +3850,7 @@
         <v>74</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>7</v>
@@ -3878,10 +3879,10 @@
         <v>75</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -3907,7 +3908,7 @@
         <v>76</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
@@ -3936,7 +3937,7 @@
         <v>77</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
@@ -3994,10 +3995,10 @@
         <v>119</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -4023,7 +4024,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
@@ -4052,7 +4053,7 @@
         <v>121</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
@@ -4081,7 +4082,7 @@
         <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
@@ -4110,7 +4111,7 @@
         <v>79</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
@@ -4139,7 +4140,7 @@
         <v>80</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
@@ -4168,7 +4169,7 @@
         <v>81</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
@@ -4194,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
@@ -4226,7 +4227,7 @@
         <v>82</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
@@ -4255,7 +4256,7 @@
         <v>83</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>7</v>
@@ -4284,7 +4285,7 @@
         <v>84</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>7</v>
@@ -4313,7 +4314,7 @@
         <v>85</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>7</v>
@@ -4342,7 +4343,7 @@
         <v>86</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>7</v>
@@ -4371,7 +4372,7 @@
         <v>87</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>7</v>
@@ -4400,7 +4401,7 @@
         <v>88</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>7</v>
@@ -4429,7 +4430,7 @@
         <v>89</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>7</v>
@@ -4458,7 +4459,7 @@
         <v>90</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>7</v>
@@ -4487,7 +4488,7 @@
         <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>7</v>
@@ -4516,7 +4517,7 @@
         <v>92</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>7</v>
@@ -4545,7 +4546,7 @@
         <v>93</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>7</v>
@@ -4574,7 +4575,7 @@
         <v>94</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>7</v>
@@ -4603,7 +4604,7 @@
         <v>95</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>7</v>
@@ -4632,7 +4633,7 @@
         <v>96</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>7</v>
@@ -4658,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>7</v>
@@ -4687,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>7</v>
@@ -4719,7 +4720,7 @@
         <v>122</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>7</v>
@@ -4748,7 +4749,7 @@
         <v>97</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>7</v>
@@ -4774,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
@@ -4806,7 +4807,7 @@
         <v>98</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>7</v>
@@ -4835,7 +4836,7 @@
         <v>99</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>7</v>
@@ -4864,7 +4865,7 @@
         <v>123</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>7</v>
@@ -4890,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>7</v>
@@ -4919,10 +4920,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>7</v>
@@ -4948,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>7</v>
@@ -4977,10 +4978,10 @@
         <v>0</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>7</v>
@@ -5009,7 +5010,7 @@
         <v>124</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>7</v>
@@ -5035,10 +5036,10 @@
         <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>7</v>
@@ -5064,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>7</v>
@@ -5096,7 +5097,7 @@
         <v>100</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>7</v>
@@ -5125,7 +5126,7 @@
         <v>101</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>7</v>
@@ -5151,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>7</v>
@@ -5183,10 +5184,10 @@
         <v>102</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G100" s="1">
         <v>0</v>
@@ -5209,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>7</v>
@@ -5241,7 +5242,7 @@
         <v>103</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>7</v>
@@ -5270,7 +5271,7 @@
         <v>125</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>7</v>
@@ -5296,10 +5297,10 @@
         <v>0</v>
       </c>
       <c r="D104" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>7</v>
@@ -5328,7 +5329,7 @@
         <v>126</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>7</v>
@@ -5357,7 +5358,7 @@
         <v>124</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>7</v>
@@ -5386,7 +5387,7 @@
         <v>104</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>7</v>
@@ -5415,7 +5416,7 @@
         <v>105</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>7</v>
@@ -5444,7 +5445,7 @@
         <v>106</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>7</v>
@@ -5473,7 +5474,7 @@
         <v>107</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>7</v>
@@ -5502,7 +5503,7 @@
         <v>108</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>7</v>
@@ -5531,7 +5532,7 @@
         <v>109</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>7</v>
@@ -5560,7 +5561,7 @@
         <v>110</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>7</v>
@@ -5589,7 +5590,7 @@
         <v>111</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>7</v>
@@ -5618,7 +5619,7 @@
         <v>127</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>7</v>
@@ -5647,7 +5648,7 @@
         <v>128</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>7</v>
@@ -5705,7 +5706,7 @@
         <v>113</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>7</v>
@@ -5734,7 +5735,7 @@
         <v>114</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>7</v>
@@ -5763,7 +5764,7 @@
         <v>115</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
@@ -5792,7 +5793,7 @@
         <v>116</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>7</v>
@@ -5821,7 +5822,7 @@
         <v>117</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>7</v>
@@ -5850,7 +5851,7 @@
         <v>118</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>7</v>
@@ -5876,10 +5877,10 @@
         <v>0</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>7</v>
@@ -5905,10 +5906,10 @@
         <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>7</v>
@@ -5934,10 +5935,10 @@
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>7</v>
@@ -5963,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>7</v>
@@ -5992,13 +5993,13 @@
         <v>1</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G128" s="1">
         <v>0</v>
@@ -6024,7 +6025,7 @@
         <v>129</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>7</v>
@@ -6053,7 +6054,7 @@
         <v>130</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>7</v>
@@ -6079,10 +6080,10 @@
         <v>0</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>7</v>
@@ -6108,10 +6109,10 @@
         <v>0</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>7</v>
@@ -6140,7 +6141,7 @@
         <v>131</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>7</v>
@@ -6169,7 +6170,7 @@
         <v>132</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>7</v>
@@ -6198,7 +6199,7 @@
         <v>133</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>7</v>
@@ -6224,10 +6225,10 @@
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>7</v>
@@ -6253,10 +6254,10 @@
         <v>0</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>134</v>
+        <v>510</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>7</v>
@@ -6282,10 +6283,10 @@
         <v>1</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>7</v>
@@ -6311,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>7</v>
@@ -6340,13 +6341,13 @@
         <v>0</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G140" s="1">
         <v>0</v>
@@ -6369,10 +6370,10 @@
         <v>0</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>7</v>
@@ -6398,10 +6399,10 @@
         <v>1</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>7</v>
@@ -6427,10 +6428,10 @@
         <v>0</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>7</v>
@@ -6456,10 +6457,10 @@
         <v>0</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>7</v>
@@ -6485,10 +6486,10 @@
         <v>0</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>7</v>
@@ -6514,10 +6515,10 @@
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>7</v>
@@ -6543,10 +6544,10 @@
         <v>1</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>7</v>
@@ -6572,10 +6573,10 @@
         <v>0</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>7</v>
@@ -6601,10 +6602,10 @@
         <v>1</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>7</v>
@@ -6630,10 +6631,10 @@
         <v>0</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>7</v>
@@ -6659,10 +6660,10 @@
         <v>1</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>7</v>
@@ -6688,10 +6689,10 @@
         <v>0</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>7</v>
@@ -6717,10 +6718,10 @@
         <v>0</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>7</v>
@@ -6746,10 +6747,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>7</v>
@@ -6775,10 +6776,10 @@
         <v>1</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>7</v>
@@ -6793,7 +6794,7 @@
         <v>-100</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6804,13 +6805,13 @@
         <v>0</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G156" s="1">
         <v>0</v>
@@ -6833,10 +6834,10 @@
         <v>0</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>7</v>
@@ -6862,10 +6863,10 @@
         <v>0</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>7</v>
@@ -6891,10 +6892,10 @@
         <v>0</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>7</v>
@@ -6920,10 +6921,10 @@
         <v>0</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>7</v>
@@ -6949,10 +6950,10 @@
         <v>0</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>7</v>
@@ -6978,10 +6979,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>7</v>
@@ -7007,10 +7008,10 @@
         <v>0</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>7</v>
@@ -7036,10 +7037,10 @@
         <v>1</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>7</v>
@@ -7065,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>7</v>
@@ -7094,10 +7095,10 @@
         <v>0</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>7</v>
@@ -7123,10 +7124,10 @@
         <v>1</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>7</v>
@@ -7141,7 +7142,7 @@
         <v>-100</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -7152,13 +7153,13 @@
         <v>0</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G168" s="1">
         <v>0</v>
@@ -7181,10 +7182,10 @@
         <v>0</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>7</v>
@@ -7210,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>7</v>
@@ -7239,10 +7240,10 @@
         <v>0</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>7</v>
@@ -7268,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>7</v>
@@ -7297,10 +7298,10 @@
         <v>1</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>7</v>
@@ -7326,13 +7327,13 @@
         <v>0</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G174" s="1">
         <v>0</v>
@@ -7355,10 +7356,10 @@
         <v>0</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>7</v>
@@ -7384,10 +7385,10 @@
         <v>0</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>7</v>
@@ -7413,10 +7414,10 @@
         <v>1</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>7</v>
@@ -7442,10 +7443,10 @@
         <v>0</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>7</v>
@@ -7471,10 +7472,10 @@
         <v>0</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>7</v>
@@ -7500,10 +7501,10 @@
         <v>1</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>7</v>
@@ -7529,10 +7530,10 @@
         <v>1</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>7</v>
@@ -7558,10 +7559,10 @@
         <v>0</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>7</v>
@@ -7587,10 +7588,10 @@
         <v>0</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>7</v>
@@ -7616,10 +7617,10 @@
         <v>0</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>7</v>
@@ -7645,10 +7646,10 @@
         <v>0</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>7</v>
@@ -7674,10 +7675,10 @@
         <v>1</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>7</v>
@@ -7703,10 +7704,10 @@
         <v>0</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>7</v>
@@ -7732,10 +7733,10 @@
         <v>1</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>7</v>
@@ -7761,10 +7762,10 @@
         <v>0</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>7</v>
@@ -7790,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>7</v>
@@ -7819,10 +7820,10 @@
         <v>0</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>7</v>
@@ -7848,13 +7849,13 @@
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G192" s="1">
         <v>0</v>
@@ -7877,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>7</v>
@@ -7906,10 +7907,10 @@
         <v>1</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>7</v>
@@ -7935,10 +7936,10 @@
         <v>1</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>7</v>
@@ -7964,13 +7965,13 @@
         <v>0</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G196" s="1">
         <v>0</v>
@@ -7993,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>7</v>
@@ -8022,10 +8023,10 @@
         <v>0</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>7</v>
@@ -8051,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>7</v>
@@ -8080,10 +8081,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>7</v>
@@ -8109,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>7</v>
@@ -8138,10 +8139,10 @@
         <v>0</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>7</v>
@@ -8167,10 +8168,10 @@
         <v>0</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>7</v>
@@ -8196,10 +8197,10 @@
         <v>0</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>7</v>
@@ -8225,10 +8226,10 @@
         <v>0</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>7</v>
@@ -8254,10 +8255,10 @@
         <v>0</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>7</v>
@@ -8283,10 +8284,10 @@
         <v>0</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>7</v>
@@ -8312,10 +8313,10 @@
         <v>1</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>7</v>
@@ -8341,10 +8342,10 @@
         <v>0</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>7</v>
@@ -8370,10 +8371,10 @@
         <v>0</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>7</v>
@@ -8399,10 +8400,10 @@
         <v>1</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>7</v>
@@ -8428,10 +8429,10 @@
         <v>0</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>7</v>
@@ -8457,10 +8458,10 @@
         <v>0</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>7</v>
@@ -8486,10 +8487,10 @@
         <v>0</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>7</v>
@@ -8515,10 +8516,10 @@
         <v>1</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>7</v>
@@ -8544,10 +8545,10 @@
         <v>1</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>7</v>
@@ -8573,10 +8574,10 @@
         <v>0</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>7</v>
@@ -8602,10 +8603,10 @@
         <v>0</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>7</v>
@@ -8631,10 +8632,10 @@
         <v>0</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>7</v>
@@ -8660,10 +8661,10 @@
         <v>0</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>7</v>
@@ -8689,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>7</v>
@@ -8718,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>7</v>
@@ -8747,13 +8748,13 @@
         <v>0</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G223" s="1">
         <v>0</v>
@@ -8776,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>7</v>
@@ -8805,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>7</v>
@@ -8834,10 +8835,10 @@
         <v>1</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>7</v>
@@ -8863,10 +8864,10 @@
         <v>0</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>7</v>
@@ -8892,10 +8893,10 @@
         <v>0</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>7</v>
@@ -8921,10 +8922,10 @@
         <v>0</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>7</v>
@@ -8939,7 +8940,7 @@
         <v>-100</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -8950,13 +8951,13 @@
         <v>0</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G230" s="1">
         <v>0</v>
@@ -8979,10 +8980,10 @@
         <v>0</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>7</v>
@@ -9008,10 +9009,10 @@
         <v>1</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>7</v>
@@ -9037,10 +9038,10 @@
         <v>0</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>7</v>
@@ -9066,10 +9067,10 @@
         <v>1</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>7</v>
@@ -9095,10 +9096,10 @@
         <v>0</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>7</v>
@@ -9124,13 +9125,13 @@
         <v>1</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G236" s="1">
         <v>0</v>
@@ -9153,10 +9154,10 @@
         <v>0</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>7</v>
@@ -9182,10 +9183,10 @@
         <v>1</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>7</v>
@@ -9211,10 +9212,10 @@
         <v>1</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>7</v>
@@ -9240,13 +9241,13 @@
         <v>1</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G240" s="1">
         <v>0</v>
@@ -9269,10 +9270,10 @@
         <v>1</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>7</v>
@@ -9298,10 +9299,10 @@
         <v>1</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>7</v>
@@ -9327,10 +9328,10 @@
         <v>1</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>7</v>
@@ -9356,10 +9357,10 @@
         <v>0</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>7</v>
@@ -9385,10 +9386,10 @@
         <v>1</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>7</v>
@@ -9414,10 +9415,10 @@
         <v>1</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>7</v>
@@ -9443,10 +9444,10 @@
         <v>0</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>7</v>
@@ -9472,10 +9473,10 @@
         <v>0</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>7</v>
@@ -9501,10 +9502,10 @@
         <v>1</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>7</v>
@@ -9530,10 +9531,10 @@
         <v>1</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>7</v>
@@ -9559,10 +9560,10 @@
         <v>1</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>7</v>
@@ -9588,10 +9589,10 @@
         <v>0</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>7</v>
@@ -9617,10 +9618,10 @@
         <v>1</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>7</v>
@@ -9646,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>7</v>
@@ -9675,10 +9676,10 @@
         <v>0</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>7</v>
@@ -9704,10 +9705,10 @@
         <v>0</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>7</v>
@@ -9733,10 +9734,10 @@
         <v>1</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>7</v>
@@ -9762,10 +9763,10 @@
         <v>0</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>7</v>
@@ -9791,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>7</v>
@@ -9820,10 +9821,10 @@
         <v>0</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>7</v>
@@ -9849,10 +9850,10 @@
         <v>0</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>7</v>
@@ -9878,10 +9879,10 @@
         <v>0</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>7</v>
@@ -9907,10 +9908,10 @@
         <v>1</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>7</v>
@@ -9936,10 +9937,10 @@
         <v>0</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>7</v>
@@ -9965,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>7</v>
@@ -9994,10 +9995,10 @@
         <v>0</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>7</v>
@@ -10023,10 +10024,10 @@
         <v>1</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>7</v>
@@ -10052,13 +10053,13 @@
         <v>0</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G268" s="1">
         <v>0</v>
@@ -10081,10 +10082,10 @@
         <v>1</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>7</v>
@@ -10110,10 +10111,10 @@
         <v>1</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>7</v>
@@ -10139,10 +10140,10 @@
         <v>1</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>7</v>
@@ -10168,10 +10169,10 @@
         <v>1</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>7</v>
@@ -10197,10 +10198,10 @@
         <v>0</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>7</v>
@@ -10226,13 +10227,13 @@
         <v>1</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G274" s="1">
         <v>0</v>
@@ -10255,13 +10256,13 @@
         <v>1</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G275" s="1">
         <v>0</v>
@@ -10273,7 +10274,7 @@
         <v>-100</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -10284,10 +10285,10 @@
         <v>1</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>7</v>
@@ -10302,7 +10303,7 @@
         <v>-100</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -10313,13 +10314,13 @@
         <v>1</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G277" s="1">
         <v>0</v>
@@ -10342,13 +10343,13 @@
         <v>0</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G278" s="1">
         <v>0</v>
@@ -10371,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>7</v>
@@ -10400,10 +10401,10 @@
         <v>0</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>7</v>
@@ -10429,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>7</v>
@@ -10458,10 +10459,10 @@
         <v>0</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>7</v>
@@ -10487,10 +10488,10 @@
         <v>1</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>7</v>
@@ -10516,10 +10517,10 @@
         <v>0</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>7</v>
@@ -10545,10 +10546,10 @@
         <v>0</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>7</v>
@@ -10574,10 +10575,10 @@
         <v>0</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>7</v>
@@ -10603,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>7</v>
@@ -10632,10 +10633,10 @@
         <v>0</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>7</v>
@@ -10661,10 +10662,10 @@
         <v>0</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>7</v>
@@ -10690,10 +10691,10 @@
         <v>1</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>7</v>
@@ -10719,10 +10720,10 @@
         <v>1</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>7</v>
@@ -10748,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>7</v>
@@ -10777,10 +10778,10 @@
         <v>0</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>7</v>
@@ -10806,13 +10807,13 @@
         <v>0</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G294" s="1">
         <v>0</v>
@@ -10835,10 +10836,10 @@
         <v>0</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>7</v>
@@ -10864,10 +10865,10 @@
         <v>0</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>7</v>
@@ -10893,10 +10894,10 @@
         <v>0</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>7</v>
@@ -10922,10 +10923,10 @@
         <v>0</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>7</v>
@@ -10951,10 +10952,10 @@
         <v>0</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>7</v>
@@ -10980,10 +10981,10 @@
         <v>0</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>7</v>
@@ -11009,10 +11010,10 @@
         <v>0</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>7</v>
@@ -11038,10 +11039,10 @@
         <v>0</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>7</v>
@@ -11067,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>7</v>
@@ -11096,10 +11097,10 @@
         <v>0</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>7</v>
@@ -11125,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>7</v>
@@ -11154,10 +11155,10 @@
         <v>0</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>7</v>
@@ -11183,10 +11184,10 @@
         <v>0</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>7</v>
@@ -11212,10 +11213,10 @@
         <v>0</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>7</v>
@@ -11241,10 +11242,10 @@
         <v>0</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>7</v>
@@ -11270,10 +11271,10 @@
         <v>0</v>
       </c>
       <c r="D310" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E310" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>7</v>
@@ -11299,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>7</v>
@@ -11328,10 +11329,10 @@
         <v>1</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>7</v>
@@ -11357,10 +11358,10 @@
         <v>0</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>7</v>
@@ -11386,10 +11387,10 @@
         <v>0</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>7</v>
@@ -11415,10 +11416,10 @@
         <v>0</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>7</v>
@@ -11444,10 +11445,10 @@
         <v>0</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>7</v>
@@ -11473,10 +11474,10 @@
         <v>0</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>7</v>
@@ -11502,10 +11503,10 @@
         <v>0</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>7</v>
@@ -11531,10 +11532,10 @@
         <v>0</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>7</v>
@@ -11560,13 +11561,13 @@
         <v>0</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G320" s="1">
         <v>0</v>
@@ -11589,10 +11590,10 @@
         <v>0</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>7</v>
@@ -11618,10 +11619,10 @@
         <v>0</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>7</v>
@@ -11647,10 +11648,10 @@
         <v>0</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>7</v>
@@ -11676,10 +11677,10 @@
         <v>0</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>7</v>
@@ -11705,10 +11706,10 @@
         <v>0</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>7</v>
@@ -11734,10 +11735,10 @@
         <v>0</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>7</v>
@@ -11763,10 +11764,10 @@
         <v>0</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>7</v>
@@ -11792,10 +11793,10 @@
         <v>0</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>7</v>
@@ -11821,10 +11822,10 @@
         <v>0</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>7</v>
@@ -11850,10 +11851,10 @@
         <v>0</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>7</v>
@@ -11879,10 +11880,10 @@
         <v>0</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>7</v>
@@ -11908,10 +11909,10 @@
         <v>0</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>7</v>
@@ -11937,10 +11938,10 @@
         <v>0</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>7</v>
@@ -11966,10 +11967,10 @@
         <v>0</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>7</v>
@@ -11995,10 +11996,10 @@
         <v>0</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>7</v>
@@ -12024,10 +12025,10 @@
         <v>1</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>7</v>
@@ -12053,13 +12054,13 @@
         <v>0</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G337" s="1">
         <v>0</v>
@@ -12082,10 +12083,10 @@
         <v>0</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>7</v>
@@ -12111,10 +12112,10 @@
         <v>0</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>7</v>
@@ -12140,10 +12141,10 @@
         <v>1</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>7</v>
@@ -12169,10 +12170,10 @@
         <v>0</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>7</v>
@@ -12198,10 +12199,10 @@
         <v>1</v>
       </c>
       <c r="D342" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>7</v>
@@ -12227,10 +12228,10 @@
         <v>0</v>
       </c>
       <c r="D343" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>7</v>
@@ -12256,10 +12257,10 @@
         <v>1</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>7</v>
@@ -12285,10 +12286,10 @@
         <v>0</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>7</v>
@@ -12314,10 +12315,10 @@
         <v>1</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>7</v>
@@ -12343,10 +12344,10 @@
         <v>0</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>7</v>
@@ -12372,10 +12373,10 @@
         <v>1</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>7</v>
@@ -12401,10 +12402,10 @@
         <v>0</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>7</v>
@@ -12430,10 +12431,10 @@
         <v>0</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>7</v>
@@ -12459,10 +12460,10 @@
         <v>0</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>7</v>
@@ -12488,10 +12489,10 @@
         <v>1</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>7</v>
@@ -12517,10 +12518,10 @@
         <v>0</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>7</v>
@@ -12546,10 +12547,10 @@
         <v>1</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>7</v>
@@ -12575,10 +12576,10 @@
         <v>1</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>7</v>
@@ -12604,10 +12605,10 @@
         <v>0</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>7</v>
@@ -12633,10 +12634,10 @@
         <v>0</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>7</v>
@@ -12662,10 +12663,10 @@
         <v>0</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>7</v>
@@ -12691,10 +12692,10 @@
         <v>0</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>7</v>
@@ -12720,10 +12721,10 @@
         <v>0</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>7</v>
@@ -12749,10 +12750,10 @@
         <v>0</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>7</v>
@@ -12778,10 +12779,10 @@
         <v>0</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>7</v>
@@ -12807,10 +12808,10 @@
         <v>0</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>7</v>
@@ -12836,10 +12837,10 @@
         <v>0</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>7</v>
@@ -12865,10 +12866,10 @@
         <v>0</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>7</v>
@@ -12894,10 +12895,10 @@
         <v>0</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>7</v>
@@ -12923,10 +12924,10 @@
         <v>0</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>7</v>
@@ -12952,10 +12953,10 @@
         <v>0</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>7</v>
@@ -12981,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>7</v>
@@ -13010,10 +13011,10 @@
         <v>0</v>
       </c>
       <c r="D370" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>7</v>
@@ -13039,10 +13040,10 @@
         <v>1</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>7</v>
@@ -13068,10 +13069,10 @@
         <v>0</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>7</v>
@@ -13097,10 +13098,10 @@
         <v>0</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>7</v>
@@ -13126,10 +13127,10 @@
         <v>0</v>
       </c>
       <c r="D374" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>7</v>
@@ -13155,10 +13156,10 @@
         <v>0</v>
       </c>
       <c r="D375" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>7</v>
@@ -13184,10 +13185,10 @@
         <v>0</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>7</v>
@@ -13213,10 +13214,10 @@
         <v>1</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>7</v>
@@ -13242,10 +13243,10 @@
         <v>0</v>
       </c>
       <c r="D378" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>7</v>
@@ -13271,10 +13272,10 @@
         <v>0</v>
       </c>
       <c r="D379" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>7</v>
@@ -13300,10 +13301,10 @@
         <v>1</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>7</v>
@@ -13329,10 +13330,10 @@
         <v>0</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>7</v>
@@ -13358,10 +13359,10 @@
         <v>0</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>7</v>
@@ -13387,10 +13388,10 @@
         <v>0</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>7</v>
@@ -13416,10 +13417,10 @@
         <v>0</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>7</v>
@@ -13445,10 +13446,10 @@
         <v>1</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>7</v>
@@ -13474,10 +13475,10 @@
         <v>1</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>7</v>
@@ -13503,10 +13504,10 @@
         <v>0</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>7</v>
@@ -13532,10 +13533,10 @@
         <v>0</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>7</v>
@@ -13561,10 +13562,10 @@
         <v>0</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F389" s="1" t="s">
         <v>7</v>
@@ -13590,10 +13591,10 @@
         <v>0</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>7</v>
@@ -13619,10 +13620,10 @@
         <v>0</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F391" s="1" t="s">
         <v>7</v>
@@ -13648,10 +13649,10 @@
         <v>0</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>7</v>
@@ -13677,10 +13678,10 @@
         <v>0</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>7</v>
@@ -13706,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>7</v>
@@ -13735,10 +13736,10 @@
         <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F395" s="1" t="s">
         <v>7</v>
@@ -13764,10 +13765,10 @@
         <v>0</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>7</v>
@@ -13793,10 +13794,10 @@
         <v>0</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F397" s="1" t="s">
         <v>7</v>
@@ -13822,10 +13823,10 @@
         <v>0</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>7</v>
@@ -13851,10 +13852,10 @@
         <v>0</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>7</v>
@@ -13880,10 +13881,10 @@
         <v>0</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>7</v>
@@ -13909,10 +13910,10 @@
         <v>0</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>7</v>
@@ -13938,10 +13939,10 @@
         <v>0</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>7</v>
@@ -13967,10 +13968,10 @@
         <v>0</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>7</v>
@@ -13996,10 +13997,10 @@
         <v>1</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>7</v>
@@ -14025,10 +14026,10 @@
         <v>0</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>7</v>
@@ -14054,10 +14055,10 @@
         <v>0</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>7</v>
@@ -14083,10 +14084,10 @@
         <v>0</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F407" s="1" t="s">
         <v>7</v>
@@ -14112,10 +14113,10 @@
         <v>0</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>7</v>
@@ -14141,13 +14142,13 @@
         <v>1</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G409" s="1">
         <v>0</v>
@@ -14170,10 +14171,10 @@
         <v>1</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>7</v>
@@ -14199,10 +14200,10 @@
         <v>0</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>7</v>
@@ -14228,10 +14229,10 @@
         <v>0</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>7</v>
@@ -14257,13 +14258,13 @@
         <v>0</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G413" s="1">
         <v>0</v>
@@ -14286,10 +14287,10 @@
         <v>0</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>7</v>
@@ -14315,10 +14316,10 @@
         <v>1</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>7</v>
@@ -14344,13 +14345,13 @@
         <v>0</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G416" s="1">
         <v>0</v>
@@ -14373,10 +14374,10 @@
         <v>0</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>7</v>
@@ -14402,10 +14403,10 @@
         <v>1</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>7</v>
@@ -14431,10 +14432,10 @@
         <v>0</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>7</v>
@@ -14460,10 +14461,10 @@
         <v>1</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>7</v>
@@ -14489,10 +14490,10 @@
         <v>0</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>7</v>
@@ -14518,10 +14519,10 @@
         <v>1</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>7</v>
@@ -14547,10 +14548,10 @@
         <v>0</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F423" s="1" t="s">
         <v>43</v>
@@ -14576,10 +14577,10 @@
         <v>1</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>7</v>
@@ -14605,10 +14606,10 @@
         <v>0</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F425" s="1" t="s">
         <v>7</v>
@@ -14634,10 +14635,10 @@
         <v>1</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>7</v>
@@ -14663,10 +14664,10 @@
         <v>0</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F427" s="1" t="s">
         <v>7</v>
@@ -14692,10 +14693,10 @@
         <v>0</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>7</v>
@@ -14721,10 +14722,10 @@
         <v>1</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F429" s="1" t="s">
         <v>7</v>
@@ -14750,10 +14751,10 @@
         <v>1</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>7</v>
@@ -14779,10 +14780,10 @@
         <v>1</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F431" s="1" t="s">
         <v>7</v>
@@ -14808,7 +14809,7 @@
         <v>0</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>7</v>
@@ -14826,7 +14827,7 @@
         <v>-100</v>
       </c>
       <c r="J432" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -14837,13 +14838,13 @@
         <v>0</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G433" s="1">
         <v>0</v>
@@ -14866,10 +14867,10 @@
         <v>0</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>7</v>
@@ -14895,10 +14896,10 @@
         <v>0</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>7</v>
@@ -14913,7 +14914,7 @@
         <v>-100</v>
       </c>
       <c r="J435" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -14924,13 +14925,13 @@
         <v>0</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G436" s="1">
         <v>0</v>
@@ -14953,10 +14954,10 @@
         <v>0</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>7</v>
@@ -14982,10 +14983,10 @@
         <v>0</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>7</v>
@@ -15000,7 +15001,7 @@
         <v>-100</v>
       </c>
       <c r="J438" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
@@ -15011,13 +15012,13 @@
         <v>0</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G439" s="1">
         <v>0</v>
@@ -15040,10 +15041,10 @@
         <v>0</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>7</v>
@@ -15069,10 +15070,10 @@
         <v>0</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>7</v>
@@ -15098,10 +15099,10 @@
         <v>0</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F442" s="1" t="s">
         <v>7</v>
@@ -15116,7 +15117,7 @@
         <v>-100</v>
       </c>
       <c r="J442" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -487,12 +487,6 @@
   </si>
   <si>
     <t>내 물담배 말이야</t>
-  </si>
-  <si>
-    <t>아마 새로 개발된 종이라서 처음 들어볼꺼야</t>
-  </si>
-  <si>
-    <t>그렇구나 여기서 살려고 왔니?</t>
   </si>
   <si>
     <t>너 같이 신기하게 생긴 종이라면 아주 좋은 자리를 마련해 줄께</t>
@@ -958,24 +952,9 @@
     <t>크리켓 할 줄 아느냐?</t>
   </si>
   <si>
-    <t>어 할 줄 모릅니다</t>
-  </si>
-  <si>
     <t>할 줄 모른다고!! 여봐라 이 소녀의 목으ㄹ</t>
   </si>
   <si>
-    <t>알려주시면 할 수 있지 않을까요?</t>
-  </si>
-  <si>
-    <t>여왕님이 하시는 걸 보면 할 수 있을 것 같아요</t>
-  </si>
-  <si>
-    <t>흐음</t>
-  </si>
-  <si>
-    <t>그래 좋아 그럼 크리켓 경기를</t>
-  </si>
-  <si>
     <t xml:space="preserve">저 저.. 위 위대하신 여왕폐하 </t>
   </si>
   <si>
@@ -1025,9 +1004,6 @@
   </si>
   <si>
     <t>예 여왕폐하</t>
-  </si>
-  <si>
-    <t>내가 내는 3가지의 퀴즈를 모두 맞추면 상을 주도록 하마</t>
   </si>
   <si>
     <t>저 그럼 제가 집에 가는 길을 알려주실 수 있나요?</t>
@@ -1381,10 +1357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하지만 만약 다 맞추지 못한 다면 너를 사형에 쳐하겠다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그럼 지금부터 퀴즈를 내도록 하지!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1393,10 +1365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">하지만 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그리고 목을 잘라버려라!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1819,6 +1787,46 @@
   </si>
   <si>
     <t>쯧 저것 좀 주워봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음...아마 새로 개발된 종이라서 처음 들어볼꺼야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇구나! 여기서 살려고 왔니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어 할 줄 모릅니다 여왕폐하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅈ 저기 알려주시면 할 수 있지 않을까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여왕폐하가 멋지게 하는 모습을 보면 할 수 있을 것 같아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐음~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 좋다 그럼 크리켓 경기를</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 내는 3가지의 퀴즈를 모두 맞추면 상을 주도록 하마 내 전속 시녀ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 만약 다 맞추지 못한다면 너를 사형에 쳐하겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 여왕폐하 저는</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2198,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D143" sqref="D142:D143"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D439" sqref="D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2260,7 +2268,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>43</v>
@@ -2292,7 +2300,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -2324,7 +2332,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -2356,7 +2364,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -2388,7 +2396,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -2450,7 +2458,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -2482,7 +2490,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -2514,7 +2522,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -2546,7 +2554,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -2578,7 +2586,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -2610,7 +2618,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -2642,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -2674,7 +2682,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -2706,7 +2714,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -2768,7 +2776,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -2800,7 +2808,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2832,7 +2840,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>36</v>
@@ -2864,7 +2872,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
@@ -2896,7 +2904,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -2928,7 +2936,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>52</v>
@@ -2960,7 +2968,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>36</v>
@@ -2992,7 +3000,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>36</v>
@@ -3054,7 +3062,7 @@
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>36</v>
@@ -3086,7 +3094,7 @@
         <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>36</v>
@@ -3118,7 +3126,7 @@
         <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
@@ -3150,7 +3158,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>36</v>
@@ -3212,7 +3220,7 @@
         <v>54</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>36</v>
@@ -3270,7 +3278,7 @@
         <v>56</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>7</v>
@@ -3299,7 +3307,7 @@
         <v>57</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -3328,7 +3336,7 @@
         <v>58</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>7</v>
@@ -3357,7 +3365,7 @@
         <v>59</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>7</v>
@@ -3386,7 +3394,7 @@
         <v>60</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>7</v>
@@ -3415,7 +3423,7 @@
         <v>61</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>7</v>
@@ -3444,7 +3452,7 @@
         <v>62</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>7</v>
@@ -3473,7 +3481,7 @@
         <v>63</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>7</v>
@@ -3502,7 +3510,7 @@
         <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>7</v>
@@ -3531,7 +3539,7 @@
         <v>65</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>7</v>
@@ -3560,7 +3568,7 @@
         <v>66</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>7</v>
@@ -3589,7 +3597,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>7</v>
@@ -3618,7 +3626,7 @@
         <v>68</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>7</v>
@@ -3647,7 +3655,7 @@
         <v>69</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -3676,7 +3684,7 @@
         <v>70</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>7</v>
@@ -3705,7 +3713,7 @@
         <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>7</v>
@@ -3734,7 +3742,7 @@
         <v>72</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>7</v>
@@ -3763,7 +3771,7 @@
         <v>55</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>7</v>
@@ -3792,7 +3800,7 @@
         <v>73</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>7</v>
@@ -3821,7 +3829,7 @@
         <v>60</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>7</v>
@@ -3850,7 +3858,7 @@
         <v>74</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>7</v>
@@ -3879,10 +3887,10 @@
         <v>75</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -3908,7 +3916,7 @@
         <v>76</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
@@ -3937,7 +3945,7 @@
         <v>77</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
@@ -3995,10 +4003,10 @@
         <v>119</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -4024,7 +4032,7 @@
         <v>120</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>7</v>
@@ -4053,7 +4061,7 @@
         <v>121</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>7</v>
@@ -4082,7 +4090,7 @@
         <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
@@ -4111,7 +4119,7 @@
         <v>79</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
@@ -4140,7 +4148,7 @@
         <v>80</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
@@ -4169,7 +4177,7 @@
         <v>81</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
@@ -4195,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
@@ -4227,7 +4235,7 @@
         <v>82</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
@@ -4256,7 +4264,7 @@
         <v>83</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>7</v>
@@ -4285,7 +4293,7 @@
         <v>84</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>7</v>
@@ -4314,7 +4322,7 @@
         <v>85</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>7</v>
@@ -4343,7 +4351,7 @@
         <v>86</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>7</v>
@@ -4372,7 +4380,7 @@
         <v>87</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>7</v>
@@ -4401,7 +4409,7 @@
         <v>88</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>7</v>
@@ -4430,7 +4438,7 @@
         <v>89</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>7</v>
@@ -4459,7 +4467,7 @@
         <v>90</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>7</v>
@@ -4488,7 +4496,7 @@
         <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>7</v>
@@ -4517,7 +4525,7 @@
         <v>92</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>7</v>
@@ -4546,7 +4554,7 @@
         <v>93</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>7</v>
@@ -4575,7 +4583,7 @@
         <v>94</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>7</v>
@@ -4604,7 +4612,7 @@
         <v>95</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>7</v>
@@ -4633,7 +4641,7 @@
         <v>96</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>7</v>
@@ -4659,10 +4667,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>7</v>
@@ -4688,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>7</v>
@@ -4720,7 +4728,7 @@
         <v>122</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>7</v>
@@ -4749,7 +4757,7 @@
         <v>97</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>7</v>
@@ -4775,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>7</v>
@@ -4807,7 +4815,7 @@
         <v>98</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>7</v>
@@ -4836,7 +4844,7 @@
         <v>99</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>7</v>
@@ -4865,7 +4873,7 @@
         <v>123</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>7</v>
@@ -4891,10 +4899,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>7</v>
@@ -4920,10 +4928,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>7</v>
@@ -4949,10 +4957,10 @@
         <v>0</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>7</v>
@@ -4978,10 +4986,10 @@
         <v>0</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>7</v>
@@ -5010,7 +5018,7 @@
         <v>124</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>7</v>
@@ -5036,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>7</v>
@@ -5065,10 +5073,10 @@
         <v>0</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>7</v>
@@ -5097,7 +5105,7 @@
         <v>100</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>7</v>
@@ -5126,7 +5134,7 @@
         <v>101</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>7</v>
@@ -5152,10 +5160,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>7</v>
@@ -5184,10 +5192,10 @@
         <v>102</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G100" s="1">
         <v>0</v>
@@ -5210,10 +5218,10 @@
         <v>0</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>7</v>
@@ -5242,7 +5250,7 @@
         <v>103</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>7</v>
@@ -5271,7 +5279,7 @@
         <v>125</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>7</v>
@@ -5297,10 +5305,10 @@
         <v>0</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>7</v>
@@ -5329,7 +5337,7 @@
         <v>126</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>7</v>
@@ -5358,7 +5366,7 @@
         <v>124</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>7</v>
@@ -5387,7 +5395,7 @@
         <v>104</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>7</v>
@@ -5416,7 +5424,7 @@
         <v>105</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>7</v>
@@ -5445,7 +5453,7 @@
         <v>106</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>7</v>
@@ -5474,7 +5482,7 @@
         <v>107</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>7</v>
@@ -5503,7 +5511,7 @@
         <v>108</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>7</v>
@@ -5532,7 +5540,7 @@
         <v>109</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>7</v>
@@ -5561,7 +5569,7 @@
         <v>110</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>7</v>
@@ -5590,7 +5598,7 @@
         <v>111</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>7</v>
@@ -5619,7 +5627,7 @@
         <v>127</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>7</v>
@@ -5648,7 +5656,7 @@
         <v>128</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>7</v>
@@ -5706,7 +5714,7 @@
         <v>113</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>7</v>
@@ -5735,7 +5743,7 @@
         <v>114</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>7</v>
@@ -5764,7 +5772,7 @@
         <v>115</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>7</v>
@@ -5793,7 +5801,7 @@
         <v>116</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>7</v>
@@ -5822,7 +5830,7 @@
         <v>117</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>7</v>
@@ -5851,7 +5859,7 @@
         <v>118</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>7</v>
@@ -5877,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>7</v>
@@ -5906,10 +5914,10 @@
         <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>7</v>
@@ -5935,10 +5943,10 @@
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>7</v>
@@ -5964,10 +5972,10 @@
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>7</v>
@@ -5993,13 +6001,13 @@
         <v>1</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G128" s="1">
         <v>0</v>
@@ -6025,7 +6033,7 @@
         <v>129</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>7</v>
@@ -6054,7 +6062,7 @@
         <v>130</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>7</v>
@@ -6080,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>7</v>
@@ -6109,10 +6117,10 @@
         <v>0</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>7</v>
@@ -6141,7 +6149,7 @@
         <v>131</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>7</v>
@@ -6170,7 +6178,7 @@
         <v>132</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>7</v>
@@ -6199,7 +6207,7 @@
         <v>133</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>7</v>
@@ -6225,10 +6233,10 @@
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>7</v>
@@ -6254,10 +6262,10 @@
         <v>0</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>7</v>
@@ -6286,7 +6294,7 @@
         <v>134</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>7</v>
@@ -6315,7 +6323,7 @@
         <v>135</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>7</v>
@@ -6341,13 +6349,13 @@
         <v>0</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G140" s="1">
         <v>0</v>
@@ -6370,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>7</v>
@@ -6399,10 +6407,10 @@
         <v>1</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>136</v>
+        <v>501</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>7</v>
@@ -6428,10 +6436,10 @@
         <v>0</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>137</v>
+        <v>502</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>7</v>
@@ -6457,10 +6465,10 @@
         <v>0</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>7</v>
@@ -6486,10 +6494,10 @@
         <v>0</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>7</v>
@@ -6515,10 +6523,10 @@
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>7</v>
@@ -6544,10 +6552,10 @@
         <v>1</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>7</v>
@@ -6573,10 +6581,10 @@
         <v>0</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>7</v>
@@ -6602,10 +6610,10 @@
         <v>1</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>7</v>
@@ -6631,10 +6639,10 @@
         <v>0</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>7</v>
@@ -6660,10 +6668,10 @@
         <v>1</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>7</v>
@@ -6689,10 +6697,10 @@
         <v>0</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>7</v>
@@ -6718,10 +6726,10 @@
         <v>0</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>7</v>
@@ -6747,10 +6755,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>7</v>
@@ -6776,10 +6784,10 @@
         <v>1</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>7</v>
@@ -6794,7 +6802,7 @@
         <v>-100</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6805,13 +6813,13 @@
         <v>0</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G156" s="1">
         <v>0</v>
@@ -6834,10 +6842,10 @@
         <v>0</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>7</v>
@@ -6863,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>7</v>
@@ -6892,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>7</v>
@@ -6921,10 +6929,10 @@
         <v>0</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>7</v>
@@ -6950,10 +6958,10 @@
         <v>0</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>7</v>
@@ -6979,10 +6987,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>7</v>
@@ -7008,10 +7016,10 @@
         <v>0</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>7</v>
@@ -7037,10 +7045,10 @@
         <v>1</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>7</v>
@@ -7066,10 +7074,10 @@
         <v>0</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>7</v>
@@ -7095,10 +7103,10 @@
         <v>0</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>7</v>
@@ -7124,10 +7132,10 @@
         <v>1</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>7</v>
@@ -7142,7 +7150,7 @@
         <v>-100</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -7153,13 +7161,13 @@
         <v>0</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G168" s="1">
         <v>0</v>
@@ -7182,10 +7190,10 @@
         <v>0</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>7</v>
@@ -7211,10 +7219,10 @@
         <v>0</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>7</v>
@@ -7240,10 +7248,10 @@
         <v>0</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>7</v>
@@ -7269,10 +7277,10 @@
         <v>0</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>7</v>
@@ -7298,10 +7306,10 @@
         <v>1</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>7</v>
@@ -7327,13 +7335,13 @@
         <v>0</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G174" s="1">
         <v>0</v>
@@ -7356,10 +7364,10 @@
         <v>0</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>7</v>
@@ -7385,10 +7393,10 @@
         <v>0</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>7</v>
@@ -7414,10 +7422,10 @@
         <v>1</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>7</v>
@@ -7443,10 +7451,10 @@
         <v>0</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>7</v>
@@ -7472,10 +7480,10 @@
         <v>0</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>7</v>
@@ -7501,10 +7509,10 @@
         <v>1</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>7</v>
@@ -7530,10 +7538,10 @@
         <v>1</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>7</v>
@@ -7559,10 +7567,10 @@
         <v>0</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>7</v>
@@ -7588,10 +7596,10 @@
         <v>0</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>7</v>
@@ -7617,10 +7625,10 @@
         <v>0</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>7</v>
@@ -7646,10 +7654,10 @@
         <v>0</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>7</v>
@@ -7675,10 +7683,10 @@
         <v>1</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>7</v>
@@ -7704,10 +7712,10 @@
         <v>0</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>7</v>
@@ -7733,10 +7741,10 @@
         <v>1</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>7</v>
@@ -7762,10 +7770,10 @@
         <v>0</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>7</v>
@@ -7791,10 +7799,10 @@
         <v>0</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>7</v>
@@ -7820,10 +7828,10 @@
         <v>0</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>7</v>
@@ -7849,13 +7857,13 @@
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G192" s="1">
         <v>0</v>
@@ -7878,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>7</v>
@@ -7907,10 +7915,10 @@
         <v>1</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>7</v>
@@ -7936,10 +7944,10 @@
         <v>1</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>7</v>
@@ -7965,13 +7973,13 @@
         <v>0</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G196" s="1">
         <v>0</v>
@@ -7994,10 +8002,10 @@
         <v>0</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>7</v>
@@ -8023,10 +8031,10 @@
         <v>0</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>7</v>
@@ -8052,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>7</v>
@@ -8081,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>7</v>
@@ -8110,10 +8118,10 @@
         <v>0</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>7</v>
@@ -8139,10 +8147,10 @@
         <v>0</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>7</v>
@@ -8168,10 +8176,10 @@
         <v>0</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>7</v>
@@ -8197,10 +8205,10 @@
         <v>0</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>7</v>
@@ -8226,10 +8234,10 @@
         <v>0</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>7</v>
@@ -8255,10 +8263,10 @@
         <v>0</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>7</v>
@@ -8284,10 +8292,10 @@
         <v>0</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>7</v>
@@ -8313,10 +8321,10 @@
         <v>1</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>7</v>
@@ -8342,10 +8350,10 @@
         <v>0</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>7</v>
@@ -8371,10 +8379,10 @@
         <v>0</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>7</v>
@@ -8400,10 +8408,10 @@
         <v>1</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>7</v>
@@ -8429,10 +8437,10 @@
         <v>0</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>7</v>
@@ -8458,10 +8466,10 @@
         <v>0</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>7</v>
@@ -8487,10 +8495,10 @@
         <v>0</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>7</v>
@@ -8516,10 +8524,10 @@
         <v>1</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>7</v>
@@ -8545,10 +8553,10 @@
         <v>1</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>7</v>
@@ -8574,10 +8582,10 @@
         <v>0</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>7</v>
@@ -8603,10 +8611,10 @@
         <v>0</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>7</v>
@@ -8632,10 +8640,10 @@
         <v>0</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>7</v>
@@ -8661,10 +8669,10 @@
         <v>0</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>7</v>
@@ -8690,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>7</v>
@@ -8719,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>7</v>
@@ -8748,13 +8756,13 @@
         <v>0</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G223" s="1">
         <v>0</v>
@@ -8777,10 +8785,10 @@
         <v>0</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>7</v>
@@ -8806,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>7</v>
@@ -8835,10 +8843,10 @@
         <v>1</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>7</v>
@@ -8864,10 +8872,10 @@
         <v>0</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>7</v>
@@ -8893,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>7</v>
@@ -8922,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>7</v>
@@ -8940,7 +8948,7 @@
         <v>-100</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -8951,13 +8959,13 @@
         <v>0</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G230" s="1">
         <v>0</v>
@@ -8980,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>7</v>
@@ -9009,10 +9017,10 @@
         <v>1</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>7</v>
@@ -9038,10 +9046,10 @@
         <v>0</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>7</v>
@@ -9067,10 +9075,10 @@
         <v>1</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>7</v>
@@ -9096,10 +9104,10 @@
         <v>0</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>7</v>
@@ -9125,13 +9133,13 @@
         <v>1</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G236" s="1">
         <v>0</v>
@@ -9154,10 +9162,10 @@
         <v>0</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>7</v>
@@ -9183,10 +9191,10 @@
         <v>1</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>7</v>
@@ -9212,10 +9220,10 @@
         <v>1</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>7</v>
@@ -9241,13 +9249,13 @@
         <v>1</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G240" s="1">
         <v>0</v>
@@ -9270,10 +9278,10 @@
         <v>1</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>7</v>
@@ -9299,10 +9307,10 @@
         <v>1</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>7</v>
@@ -9328,10 +9336,10 @@
         <v>1</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>7</v>
@@ -9357,10 +9365,10 @@
         <v>0</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>7</v>
@@ -9386,10 +9394,10 @@
         <v>1</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>7</v>
@@ -9415,10 +9423,10 @@
         <v>1</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>7</v>
@@ -9444,10 +9452,10 @@
         <v>0</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>7</v>
@@ -9473,10 +9481,10 @@
         <v>0</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>7</v>
@@ -9502,10 +9510,10 @@
         <v>1</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>7</v>
@@ -9531,10 +9539,10 @@
         <v>1</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>7</v>
@@ -9560,10 +9568,10 @@
         <v>1</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>7</v>
@@ -9589,10 +9597,10 @@
         <v>0</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>7</v>
@@ -9618,10 +9626,10 @@
         <v>1</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>7</v>
@@ -9647,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>7</v>
@@ -9676,10 +9684,10 @@
         <v>0</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>7</v>
@@ -9705,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>7</v>
@@ -9734,10 +9742,10 @@
         <v>1</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>7</v>
@@ -9763,10 +9771,10 @@
         <v>0</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>7</v>
@@ -9792,10 +9800,10 @@
         <v>0</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>7</v>
@@ -9821,10 +9829,10 @@
         <v>0</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>7</v>
@@ -9850,10 +9858,10 @@
         <v>0</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>7</v>
@@ -9879,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>7</v>
@@ -9908,10 +9916,10 @@
         <v>1</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>7</v>
@@ -9937,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>7</v>
@@ -9966,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>7</v>
@@ -9995,10 +10003,10 @@
         <v>0</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>7</v>
@@ -10024,10 +10032,10 @@
         <v>1</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>7</v>
@@ -10053,13 +10061,13 @@
         <v>0</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="G268" s="1">
         <v>0</v>
@@ -10082,10 +10090,10 @@
         <v>1</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>7</v>
@@ -10111,10 +10119,10 @@
         <v>1</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>7</v>
@@ -10140,10 +10148,10 @@
         <v>1</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>7</v>
@@ -10169,10 +10177,10 @@
         <v>1</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>7</v>
@@ -10198,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>7</v>
@@ -10227,13 +10235,13 @@
         <v>1</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="G274" s="1">
         <v>0</v>
@@ -10256,13 +10264,13 @@
         <v>1</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="G275" s="1">
         <v>0</v>
@@ -10274,7 +10282,7 @@
         <v>-100</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -10285,10 +10293,10 @@
         <v>1</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>7</v>
@@ -10303,7 +10311,7 @@
         <v>-100</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -10314,13 +10322,13 @@
         <v>1</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G277" s="1">
         <v>0</v>
@@ -10343,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="G278" s="1">
         <v>0</v>
@@ -10372,10 +10380,10 @@
         <v>0</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>7</v>
@@ -10401,10 +10409,10 @@
         <v>0</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>7</v>
@@ -10430,10 +10438,10 @@
         <v>0</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>7</v>
@@ -10459,10 +10467,10 @@
         <v>0</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>7</v>
@@ -10488,10 +10496,10 @@
         <v>1</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>7</v>
@@ -10517,10 +10525,10 @@
         <v>0</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>7</v>
@@ -10546,10 +10554,10 @@
         <v>0</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>7</v>
@@ -10575,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>7</v>
@@ -10604,10 +10612,10 @@
         <v>0</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>7</v>
@@ -10633,10 +10641,10 @@
         <v>0</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>7</v>
@@ -10662,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>7</v>
@@ -10691,10 +10699,10 @@
         <v>1</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>7</v>
@@ -10720,10 +10728,10 @@
         <v>1</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>7</v>
@@ -10749,10 +10757,10 @@
         <v>0</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>7</v>
@@ -10778,10 +10786,10 @@
         <v>0</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>7</v>
@@ -10807,13 +10815,13 @@
         <v>0</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G294" s="1">
         <v>0</v>
@@ -10836,10 +10844,10 @@
         <v>0</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>7</v>
@@ -10865,10 +10873,10 @@
         <v>0</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>7</v>
@@ -10894,10 +10902,10 @@
         <v>0</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>7</v>
@@ -10923,10 +10931,10 @@
         <v>0</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>7</v>
@@ -10952,10 +10960,10 @@
         <v>0</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>7</v>
@@ -10981,10 +10989,10 @@
         <v>0</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>7</v>
@@ -11010,10 +11018,10 @@
         <v>0</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>7</v>
@@ -11039,10 +11047,10 @@
         <v>0</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>7</v>
@@ -11068,10 +11076,10 @@
         <v>0</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>7</v>
@@ -11097,10 +11105,10 @@
         <v>0</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>7</v>
@@ -11126,10 +11134,10 @@
         <v>0</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>7</v>
@@ -11155,10 +11163,10 @@
         <v>0</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>7</v>
@@ -11184,10 +11192,10 @@
         <v>0</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>7</v>
@@ -11213,10 +11221,10 @@
         <v>0</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>7</v>
@@ -11242,10 +11250,10 @@
         <v>0</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>7</v>
@@ -11271,10 +11279,10 @@
         <v>0</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>7</v>
@@ -11300,10 +11308,10 @@
         <v>0</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>7</v>
@@ -11329,10 +11337,10 @@
         <v>1</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>7</v>
@@ -11358,10 +11366,10 @@
         <v>0</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>7</v>
@@ -11387,10 +11395,10 @@
         <v>0</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>7</v>
@@ -11416,10 +11424,10 @@
         <v>0</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>7</v>
@@ -11445,10 +11453,10 @@
         <v>0</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>7</v>
@@ -11474,10 +11482,10 @@
         <v>0</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>7</v>
@@ -11503,10 +11511,10 @@
         <v>0</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>7</v>
@@ -11532,10 +11540,10 @@
         <v>0</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>7</v>
@@ -11561,13 +11569,13 @@
         <v>0</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G320" s="1">
         <v>0</v>
@@ -11590,10 +11598,10 @@
         <v>0</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>7</v>
@@ -11619,10 +11627,10 @@
         <v>0</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>7</v>
@@ -11648,10 +11656,10 @@
         <v>0</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>7</v>
@@ -11677,10 +11685,10 @@
         <v>0</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>7</v>
@@ -11706,10 +11714,10 @@
         <v>0</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>7</v>
@@ -11735,10 +11743,10 @@
         <v>0</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>7</v>
@@ -11764,10 +11772,10 @@
         <v>0</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>7</v>
@@ -11793,10 +11801,10 @@
         <v>0</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>7</v>
@@ -11822,10 +11830,10 @@
         <v>0</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>7</v>
@@ -11851,10 +11859,10 @@
         <v>0</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>7</v>
@@ -11880,10 +11888,10 @@
         <v>0</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>7</v>
@@ -11909,10 +11917,10 @@
         <v>0</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>7</v>
@@ -11938,10 +11946,10 @@
         <v>0</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>7</v>
@@ -11967,10 +11975,10 @@
         <v>0</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>7</v>
@@ -11996,10 +12004,10 @@
         <v>0</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>7</v>
@@ -12025,10 +12033,10 @@
         <v>1</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>7</v>
@@ -12054,13 +12062,13 @@
         <v>0</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G337" s="1">
         <v>0</v>
@@ -12083,10 +12091,10 @@
         <v>0</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>7</v>
@@ -12112,10 +12120,10 @@
         <v>0</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>7</v>
@@ -12141,10 +12149,10 @@
         <v>1</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>7</v>
@@ -12170,10 +12178,10 @@
         <v>0</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>7</v>
@@ -12199,10 +12207,10 @@
         <v>1</v>
       </c>
       <c r="D342" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>7</v>
@@ -12228,10 +12236,10 @@
         <v>0</v>
       </c>
       <c r="D343" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>7</v>
@@ -12257,10 +12265,10 @@
         <v>1</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>7</v>
@@ -12286,10 +12294,10 @@
         <v>0</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>7</v>
@@ -12315,10 +12323,10 @@
         <v>1</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>7</v>
@@ -12344,10 +12352,10 @@
         <v>0</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>7</v>
@@ -12373,10 +12381,10 @@
         <v>1</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>7</v>
@@ -12402,10 +12410,10 @@
         <v>0</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>7</v>
@@ -12431,10 +12439,10 @@
         <v>0</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>7</v>
@@ -12460,10 +12468,10 @@
         <v>0</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>7</v>
@@ -12489,10 +12497,10 @@
         <v>1</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>283</v>
+        <v>503</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>7</v>
@@ -12518,10 +12526,10 @@
         <v>0</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>7</v>
@@ -12547,10 +12555,10 @@
         <v>1</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>285</v>
+        <v>504</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>7</v>
@@ -12576,10 +12584,10 @@
         <v>1</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>286</v>
+        <v>505</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>7</v>
@@ -12605,10 +12613,10 @@
         <v>0</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>287</v>
+        <v>506</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>7</v>
@@ -12634,10 +12642,10 @@
         <v>0</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>288</v>
+        <v>507</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>7</v>
@@ -12663,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>7</v>
@@ -12692,10 +12700,10 @@
         <v>0</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>7</v>
@@ -12721,10 +12729,10 @@
         <v>0</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>7</v>
@@ -12750,10 +12758,10 @@
         <v>0</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>7</v>
@@ -12779,10 +12787,10 @@
         <v>0</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>7</v>
@@ -12808,10 +12816,10 @@
         <v>0</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>7</v>
@@ -12837,10 +12845,10 @@
         <v>0</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>7</v>
@@ -12866,10 +12874,10 @@
         <v>0</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>7</v>
@@ -12895,10 +12903,10 @@
         <v>0</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>7</v>
@@ -12924,10 +12932,10 @@
         <v>0</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>7</v>
@@ -12953,10 +12961,10 @@
         <v>0</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>7</v>
@@ -12982,10 +12990,10 @@
         <v>0</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>7</v>
@@ -13011,10 +13019,10 @@
         <v>0</v>
       </c>
       <c r="D370" s="8" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>7</v>
@@ -13040,10 +13048,10 @@
         <v>1</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>7</v>
@@ -13069,10 +13077,10 @@
         <v>0</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>7</v>
@@ -13098,10 +13106,10 @@
         <v>0</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>7</v>
@@ -13127,10 +13135,10 @@
         <v>0</v>
       </c>
       <c r="D374" s="8" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>7</v>
@@ -13156,10 +13164,10 @@
         <v>0</v>
       </c>
       <c r="D375" s="8" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>7</v>
@@ -13185,10 +13193,10 @@
         <v>0</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>306</v>
+        <v>508</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>7</v>
@@ -13214,10 +13222,10 @@
         <v>1</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>7</v>
@@ -13243,10 +13251,10 @@
         <v>0</v>
       </c>
       <c r="D378" s="8" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>7</v>
@@ -13272,10 +13280,10 @@
         <v>0</v>
       </c>
       <c r="D379" s="10" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>7</v>
@@ -13301,10 +13309,10 @@
         <v>1</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>7</v>
@@ -13330,10 +13338,10 @@
         <v>0</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>7</v>
@@ -13359,10 +13367,10 @@
         <v>0</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>7</v>
@@ -13388,10 +13396,10 @@
         <v>0</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>400</v>
+        <v>509</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>7</v>
@@ -13417,10 +13425,10 @@
         <v>0</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>7</v>
@@ -13446,10 +13454,10 @@
         <v>1</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>7</v>
@@ -13475,10 +13483,10 @@
         <v>1</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>403</v>
+        <v>510</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>7</v>
@@ -13504,10 +13512,10 @@
         <v>0</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>7</v>
@@ -13533,10 +13541,10 @@
         <v>0</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>7</v>
@@ -13562,10 +13570,10 @@
         <v>0</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F389" s="1" t="s">
         <v>7</v>
@@ -13591,10 +13599,10 @@
         <v>0</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>7</v>
@@ -13620,10 +13628,10 @@
         <v>0</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F391" s="1" t="s">
         <v>7</v>
@@ -13649,10 +13657,10 @@
         <v>0</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>7</v>
@@ -13678,10 +13686,10 @@
         <v>0</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>7</v>
@@ -13707,10 +13715,10 @@
         <v>0</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>7</v>
@@ -13736,10 +13744,10 @@
         <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F395" s="1" t="s">
         <v>7</v>
@@ -13765,10 +13773,10 @@
         <v>0</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>7</v>
@@ -13794,10 +13802,10 @@
         <v>0</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F397" s="1" t="s">
         <v>7</v>
@@ -13823,10 +13831,10 @@
         <v>0</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>7</v>
@@ -13852,10 +13860,10 @@
         <v>0</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>7</v>
@@ -13881,10 +13889,10 @@
         <v>0</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>7</v>
@@ -13910,10 +13918,10 @@
         <v>0</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>7</v>
@@ -13939,10 +13947,10 @@
         <v>0</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>7</v>
@@ -13968,10 +13976,10 @@
         <v>0</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>7</v>
@@ -13997,10 +14005,10 @@
         <v>1</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>7</v>
@@ -14026,10 +14034,10 @@
         <v>0</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>7</v>
@@ -14055,10 +14063,10 @@
         <v>0</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>7</v>
@@ -14084,10 +14092,10 @@
         <v>0</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F407" s="1" t="s">
         <v>7</v>
@@ -14113,10 +14121,10 @@
         <v>0</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>7</v>
@@ -14142,13 +14150,13 @@
         <v>1</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G409" s="1">
         <v>0</v>
@@ -14171,10 +14179,10 @@
         <v>1</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>7</v>
@@ -14200,10 +14208,10 @@
         <v>0</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>7</v>
@@ -14229,10 +14237,10 @@
         <v>0</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>7</v>
@@ -14258,13 +14266,13 @@
         <v>0</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G413" s="1">
         <v>0</v>
@@ -14287,10 +14295,10 @@
         <v>0</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>7</v>
@@ -14316,10 +14324,10 @@
         <v>1</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>7</v>
@@ -14345,13 +14353,13 @@
         <v>0</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="G416" s="1">
         <v>0</v>
@@ -14374,10 +14382,10 @@
         <v>0</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>7</v>
@@ -14403,10 +14411,10 @@
         <v>1</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>7</v>
@@ -14432,10 +14440,10 @@
         <v>0</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>7</v>
@@ -14461,10 +14469,10 @@
         <v>1</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>7</v>
@@ -14490,10 +14498,10 @@
         <v>0</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>7</v>
@@ -14519,10 +14527,10 @@
         <v>1</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>7</v>
@@ -14548,10 +14556,10 @@
         <v>0</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F423" s="1" t="s">
         <v>43</v>
@@ -14577,10 +14585,10 @@
         <v>1</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>7</v>
@@ -14606,10 +14614,10 @@
         <v>0</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F425" s="1" t="s">
         <v>7</v>
@@ -14635,10 +14643,10 @@
         <v>1</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>7</v>
@@ -14664,10 +14672,10 @@
         <v>0</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F427" s="1" t="s">
         <v>7</v>
@@ -14693,10 +14701,10 @@
         <v>0</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>7</v>
@@ -14722,10 +14730,10 @@
         <v>1</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F429" s="1" t="s">
         <v>7</v>
@@ -14751,10 +14759,10 @@
         <v>1</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>7</v>
@@ -14780,10 +14788,10 @@
         <v>1</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F431" s="1" t="s">
         <v>7</v>
@@ -14809,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>7</v>
@@ -14827,7 +14835,7 @@
         <v>-100</v>
       </c>
       <c r="J432" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -14838,13 +14846,13 @@
         <v>0</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G433" s="1">
         <v>0</v>
@@ -14867,10 +14875,10 @@
         <v>0</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>7</v>
@@ -14896,10 +14904,10 @@
         <v>0</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>7</v>
@@ -14914,7 +14922,7 @@
         <v>-100</v>
       </c>
       <c r="J435" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -14925,13 +14933,13 @@
         <v>0</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G436" s="1">
         <v>0</v>
@@ -14954,10 +14962,10 @@
         <v>0</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>7</v>
@@ -14983,10 +14991,10 @@
         <v>0</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>7</v>
@@ -15001,7 +15009,7 @@
         <v>-100</v>
       </c>
       <c r="J438" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
@@ -15012,13 +15020,13 @@
         <v>0</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G439" s="1">
         <v>0</v>
@@ -15041,10 +15049,10 @@
         <v>0</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>7</v>
@@ -15070,10 +15078,10 @@
         <v>0</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>7</v>
@@ -15099,10 +15107,10 @@
         <v>0</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F442" s="1" t="s">
         <v>7</v>
@@ -15117,7 +15125,7 @@
         <v>-100</v>
       </c>
       <c r="J442" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -2206,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D439" sqref="D439"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2872,7 +2872,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>480</v>
+        <v>359</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
@@ -2904,7 +2904,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>480</v>
+        <v>359</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>

--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -2206,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A343" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F389" sqref="F389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13576,7 +13576,7 @@
         <v>361</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G389" s="1">
         <v>0</v>
@@ -13605,7 +13605,7 @@
         <v>361</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G390" s="1">
         <v>0</v>
@@ -13634,7 +13634,7 @@
         <v>361</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G391" s="1">
         <v>0</v>
@@ -13663,7 +13663,7 @@
         <v>458</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G392" s="1">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>458</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G393" s="1">
         <v>0</v>
@@ -13721,7 +13721,7 @@
         <v>361</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G394" s="1">
         <v>0</v>
@@ -13750,7 +13750,7 @@
         <v>361</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G395" s="1">
         <v>0</v>
@@ -13779,7 +13779,7 @@
         <v>361</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G396" s="1">
         <v>0</v>
@@ -13808,7 +13808,7 @@
         <v>361</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G397" s="1">
         <v>0</v>
@@ -13837,7 +13837,7 @@
         <v>458</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G398" s="1">
         <v>0</v>
@@ -13866,7 +13866,7 @@
         <v>361</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G399" s="1">
         <v>0</v>
@@ -13895,7 +13895,7 @@
         <v>458</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G400" s="1">
         <v>0</v>
@@ -13924,7 +13924,7 @@
         <v>361</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G401" s="1">
         <v>0</v>
@@ -13953,7 +13953,7 @@
         <v>361</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G402" s="1">
         <v>0</v>
@@ -13982,7 +13982,7 @@
         <v>361</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G403" s="1">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>359</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G404" s="1">
         <v>0</v>
@@ -14040,7 +14040,7 @@
         <v>473</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G405" s="1">
         <v>0</v>
@@ -14069,7 +14069,7 @@
         <v>473</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G406" s="1">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>473</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G407" s="1">
         <v>0</v>
@@ -14127,7 +14127,7 @@
         <v>473</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G408" s="1">
         <v>0</v>
@@ -14881,7 +14881,7 @@
         <v>458</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G434" s="1">
         <v>0</v>
@@ -14910,7 +14910,7 @@
         <v>458</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G435" s="1">
         <v>0</v>
@@ -14968,7 +14968,7 @@
         <v>458</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G437" s="1">
         <v>0</v>
@@ -14997,7 +14997,7 @@
         <v>458</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G438" s="1">
         <v>0</v>
@@ -15055,7 +15055,7 @@
         <v>458</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G440" s="1">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>458</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G441" s="1">
         <v>0</v>
@@ -15113,7 +15113,7 @@
         <v>458</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="G442" s="1">
         <v>0</v>
